--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -16,47 +16,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="189">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>CAB201</t>
+  </si>
+  <si>
+    <t>CAB203</t>
+  </si>
+  <si>
+    <t>CAB202</t>
+  </si>
+  <si>
     <t>CAB220</t>
   </si>
   <si>
+    <t>CAB210</t>
+  </si>
+  <si>
+    <t>CAB230</t>
+  </si>
+  <si>
     <t>CAB301</t>
   </si>
   <si>
+    <t>CAB240</t>
+  </si>
+  <si>
     <t>CAB303</t>
   </si>
   <si>
+    <t>CAB302</t>
+  </si>
+  <si>
+    <t>CAB310</t>
+  </si>
+  <si>
     <t>CAB330</t>
   </si>
   <si>
+    <t>CAB340</t>
+  </si>
+  <si>
+    <t>CAB401</t>
+  </si>
+  <si>
+    <t>CAB402</t>
+  </si>
+  <si>
     <t>CAB403</t>
   </si>
   <si>
+    <t xml:space="preserve">CAB430 </t>
+  </si>
+  <si>
     <t>CAB431</t>
   </si>
   <si>
+    <t>CAB432</t>
+  </si>
+  <si>
     <t>CAB440</t>
   </si>
   <si>
+    <t>CAB441</t>
+  </si>
+  <si>
     <t>ENN523</t>
   </si>
   <si>
+    <t>ENN524</t>
+  </si>
+  <si>
+    <t>ENN541</t>
+  </si>
+  <si>
+    <t>IFN507</t>
+  </si>
+  <si>
+    <t>IFB398</t>
+  </si>
+  <si>
     <t>IFB102</t>
   </si>
   <si>
-    <t>IFB398</t>
-  </si>
-  <si>
     <t>IFB104</t>
   </si>
   <si>
+    <t>IFN507/IFQ507</t>
+  </si>
+  <si>
     <t>IFN509</t>
   </si>
   <si>
+    <t>IFN509 / IFQ509</t>
+  </si>
+  <si>
+    <t>IFN541</t>
+  </si>
+  <si>
+    <t>IFN541 / IFQ541</t>
+  </si>
+  <si>
     <t>IFN551/IFQ551</t>
   </si>
   <si>
@@ -66,156 +129,93 @@
     <t>IFN555/IFQ555</t>
   </si>
   <si>
+    <t>IFN556/IFQ556</t>
+  </si>
+  <si>
+    <t>IFN563</t>
+  </si>
+  <si>
+    <t>IFN563 / IFQ563</t>
+  </si>
+  <si>
+    <t>IFN564</t>
+  </si>
+  <si>
+    <t>IFN564 / IFQ564</t>
+  </si>
+  <si>
+    <t>IFN591</t>
+  </si>
+  <si>
+    <t>IFN645</t>
+  </si>
+  <si>
+    <t>IFN644</t>
+  </si>
+  <si>
+    <t>IFN680</t>
+  </si>
+  <si>
+    <t>IFN657</t>
+  </si>
+  <si>
+    <t>IFN666</t>
+  </si>
+  <si>
+    <t>IFN648</t>
+  </si>
+  <si>
+    <t>IFN647</t>
+  </si>
+  <si>
+    <t>IFN692</t>
+  </si>
+  <si>
+    <t>IFN646</t>
+  </si>
+  <si>
     <t>IFN591 / IFQ591</t>
   </si>
   <si>
-    <t>IFN591</t>
-  </si>
-  <si>
-    <t>IFN645</t>
-  </si>
-  <si>
-    <t>IFN646</t>
-  </si>
-  <si>
-    <t>IFN692</t>
-  </si>
-  <si>
-    <t>IFN680</t>
-  </si>
-  <si>
     <t>IFN703</t>
   </si>
   <si>
+    <t>IFN704</t>
+  </si>
+  <si>
+    <t>IFN712</t>
+  </si>
+  <si>
+    <t>IGB100</t>
+  </si>
+  <si>
+    <t>IGB180</t>
+  </si>
+  <si>
+    <t>IGB181</t>
+  </si>
+  <si>
+    <t>IGB200</t>
+  </si>
+  <si>
+    <t>IGB220</t>
+  </si>
+  <si>
+    <t>IGB300</t>
+  </si>
+  <si>
     <t>IGB301</t>
   </si>
   <si>
+    <t>IGB283</t>
+  </si>
+  <si>
+    <t>IGB321</t>
+  </si>
+  <si>
     <t>IGB320</t>
   </si>
   <si>
-    <t>IGB300</t>
-  </si>
-  <si>
-    <t>IGB283</t>
-  </si>
-  <si>
-    <t>CAB201</t>
-  </si>
-  <si>
-    <t>CAB202</t>
-  </si>
-  <si>
-    <t>CAB203</t>
-  </si>
-  <si>
-    <t>CAB210</t>
-  </si>
-  <si>
-    <t>CAB230</t>
-  </si>
-  <si>
-    <t>CAB240</t>
-  </si>
-  <si>
-    <t>CAB302</t>
-  </si>
-  <si>
-    <t>CAB310</t>
-  </si>
-  <si>
-    <t>CAB340</t>
-  </si>
-  <si>
-    <t>CAB401</t>
-  </si>
-  <si>
-    <t>CAB402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAB430 </t>
-  </si>
-  <si>
-    <t>CAB432</t>
-  </si>
-  <si>
-    <t>CAB441</t>
-  </si>
-  <si>
-    <t>ENN524</t>
-  </si>
-  <si>
-    <t>ENN541</t>
-  </si>
-  <si>
-    <t>IFN507</t>
-  </si>
-  <si>
-    <t>IFN507/IFQ507</t>
-  </si>
-  <si>
-    <t>IFN509 / IFQ509</t>
-  </si>
-  <si>
-    <t>IFN541</t>
-  </si>
-  <si>
-    <t>IFN541 / IFQ541</t>
-  </si>
-  <si>
-    <t>IFN556/IFQ556</t>
-  </si>
-  <si>
-    <t>IFN563</t>
-  </si>
-  <si>
-    <t>IFN564</t>
-  </si>
-  <si>
-    <t>IFN563 / IFQ563</t>
-  </si>
-  <si>
-    <t>IFN564 / IFQ564</t>
-  </si>
-  <si>
-    <t>IFN644</t>
-  </si>
-  <si>
-    <t>IFN647</t>
-  </si>
-  <si>
-    <t>IFN648</t>
-  </si>
-  <si>
-    <t>IFN657</t>
-  </si>
-  <si>
-    <t>IFN666</t>
-  </si>
-  <si>
-    <t>IFN704</t>
-  </si>
-  <si>
-    <t>IFN712</t>
-  </si>
-  <si>
-    <t>IGB100</t>
-  </si>
-  <si>
-    <t>IGB181</t>
-  </si>
-  <si>
-    <t>IGB180</t>
-  </si>
-  <si>
-    <t>IGB200</t>
-  </si>
-  <si>
-    <t>IGB220</t>
-  </si>
-  <si>
-    <t>IGB321</t>
-  </si>
-  <si>
     <t>IGB381</t>
   </si>
   <si>
@@ -231,42 +231,96 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Programming Principles</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
+    <t>Micro Proc and Dig Sys</t>
+  </si>
+  <si>
     <t>Fund of Data Science</t>
   </si>
   <si>
+    <t>People Context &amp; Tech</t>
+  </si>
+  <si>
+    <t>Web Computing</t>
+  </si>
+  <si>
     <t>Algorithms &amp; Complexity</t>
   </si>
   <si>
+    <t>Information Security</t>
+  </si>
+  <si>
     <t>Networks</t>
   </si>
   <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Interaction &amp; Experience Design</t>
+  </si>
+  <si>
     <t>Data and Web Analytics</t>
   </si>
   <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>High Performance and Parallel Computing</t>
+  </si>
+  <si>
+    <t>Programming Paradigms</t>
+  </si>
+  <si>
     <t>Systems Programming</t>
   </si>
   <si>
+    <t>Data and Information Integration</t>
+  </si>
+  <si>
     <t>Search Engine Technology</t>
   </si>
   <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
     <t>Network and Security Administration</t>
   </si>
   <si>
+    <t>Network Security</t>
+  </si>
+  <si>
     <t>Advanced Network Engineering</t>
   </si>
   <si>
+    <t>Mobile Network Engineering</t>
+  </si>
+  <si>
+    <t>Research Methods for Engineers</t>
+  </si>
+  <si>
+    <t>Network Systems</t>
+  </si>
+  <si>
+    <t>Capstone (Phase 1)</t>
+  </si>
+  <si>
     <t>Comp Tech Fundamentals</t>
   </si>
   <si>
-    <t>Capstone (Phase 1)</t>
-  </si>
-  <si>
     <t>Building IT Systems</t>
   </si>
   <si>
     <t>Data Exploration and Mining</t>
   </si>
   <si>
+    <t>Information Security Management</t>
+  </si>
+  <si>
     <t>Computer Systems Fundamentals</t>
   </si>
   <si>
@@ -276,135 +330,81 @@
     <t>Introduction to Programming</t>
   </si>
   <si>
+    <t>Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>Object Oriented Design</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
     <t>Principles of UX</t>
   </si>
   <si>
     <t>Large Scale Data Mining</t>
   </si>
   <si>
+    <t>Network Operations and Security</t>
+  </si>
+  <si>
+    <t>Advanced Topics in AI</t>
+  </si>
+  <si>
+    <t>Principles of Software Security</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App Development</t>
+  </si>
+  <si>
+    <t>Applied Crytography</t>
+  </si>
+  <si>
+    <t>Text, Web and Media Analytics</t>
+  </si>
+  <si>
+    <t>Interaction Design for Emerging Tech</t>
+  </si>
+  <si>
     <t>Biomedical Data Science</t>
   </si>
   <si>
-    <t>Interaction Design for Emerging Tech</t>
-  </si>
-  <si>
-    <t>Advanced Topics in AI</t>
-  </si>
-  <si>
     <t>Advanced Project</t>
   </si>
   <si>
+    <t>Research in IT Practice</t>
+  </si>
+  <si>
+    <t>Game Studio 1</t>
+  </si>
+  <si>
+    <t>Computer Games Studies</t>
+  </si>
+  <si>
+    <t>Game Production and Technology</t>
+  </si>
+  <si>
+    <t>Game Studio 2</t>
+  </si>
+  <si>
+    <t>Fundamentals of game Design</t>
+  </si>
+  <si>
+    <t>Capstone (Game Design)</t>
+  </si>
+  <si>
     <t>Capstone (Game Development)</t>
   </si>
   <si>
+    <t>Game Engine Theory and Application</t>
+  </si>
+  <si>
+    <t>Immersive Game Level Design</t>
+  </si>
+  <si>
     <t>Game Design in Different Contexts</t>
   </si>
   <si>
-    <t>Capstone (Game Design)</t>
-  </si>
-  <si>
-    <t>Game Engine Theory and Application</t>
-  </si>
-  <si>
-    <t>Programming Principles</t>
-  </si>
-  <si>
-    <t>Micro Proc and Dig Sys</t>
-  </si>
-  <si>
-    <t>Discrete Structures</t>
-  </si>
-  <si>
-    <t>People Context &amp; Tech</t>
-  </si>
-  <si>
-    <t>Web Computing</t>
-  </si>
-  <si>
-    <t>Information Security</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>Interaction &amp; Experience Design</t>
-  </si>
-  <si>
-    <t>Cryptography</t>
-  </si>
-  <si>
-    <t>High Performance and Parallel Computing</t>
-  </si>
-  <si>
-    <t>Programming Paradigms</t>
-  </si>
-  <si>
-    <t>Data and Information Integration</t>
-  </si>
-  <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>Network Security</t>
-  </si>
-  <si>
-    <t>Mobile Network Engineering</t>
-  </si>
-  <si>
-    <t>Research Methods for Engineers</t>
-  </si>
-  <si>
-    <t>Network Systems</t>
-  </si>
-  <si>
-    <t>Information Security Management</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming</t>
-  </si>
-  <si>
-    <t>Object Oriented Design</t>
-  </si>
-  <si>
-    <t>Data Structures and Algorithms</t>
-  </si>
-  <si>
-    <t>Network Operations and Security</t>
-  </si>
-  <si>
-    <t>Text, Web and Media Analytics</t>
-  </si>
-  <si>
-    <t>Applied Crytography</t>
-  </si>
-  <si>
-    <t>Principles of Software Security</t>
-  </si>
-  <si>
-    <t>Web &amp; Mobile App Development</t>
-  </si>
-  <si>
-    <t>Research in IT Practice</t>
-  </si>
-  <si>
-    <t>Game Studio 1</t>
-  </si>
-  <si>
-    <t>Game Production and Technology</t>
-  </si>
-  <si>
-    <t>Computer Games Studies</t>
-  </si>
-  <si>
-    <t>Game Studio 2</t>
-  </si>
-  <si>
-    <t>Fundamentals of game Design</t>
-  </si>
-  <si>
-    <t>Immersive Game Level Design</t>
-  </si>
-  <si>
     <t>Game Engine Technology</t>
   </si>
   <si>
@@ -453,57 +453,102 @@
     <t>Load Error</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr First Academic </t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Second Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Third Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr Fourth Academic </t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Second Academic </t>
+    <t xml:space="preserve">Dr Fifth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Sixth Academic </t>
   </si>
   <si>
     <t xml:space="preserve">Dr Seventh Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr Fifth Academic </t>
+    <t xml:space="preserve">Dr Eighth Academic </t>
   </si>
   <si>
     <t xml:space="preserve">Dr Nineth Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">Dr Tenth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">D First Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">D Second Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">D Third Academic </t>
   </si>
   <si>
     <t xml:space="preserve">D Fourth Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">D Fifth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Sixth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">D Seventh Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">D Eighth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Nineth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Tenth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">r First Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">D Nineth Academic </t>
-  </si>
-  <si>
     <t xml:space="preserve">r Second Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">r Third Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">r Fourth Academic </t>
   </si>
   <si>
     <t xml:space="preserve">r Fifth Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">r Sixth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Seventh Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">r Eighth Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">r Nineth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Tenth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Drs First Academic </t>
   </si>
   <si>
@@ -513,73 +558,31 @@
     <t xml:space="preserve">Drs Third Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">Drs Fifth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Drs Sixth Academic </t>
   </si>
   <si>
+    <t xml:space="preserve">Drs Fourth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Seventh Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Eighth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Drs Nineth Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr First Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Eighth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Second Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Fifth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Eighth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Nineth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Fourth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Fifth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Eighth Academic </t>
-  </si>
-  <si>
     <t xml:space="preserve">Drs Tenth Academic </t>
   </si>
   <si>
-    <t>40 Bodies</t>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>41 Bodies</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ZZ50"/>
+  <dimension ref="A1:ZZ51"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="H1" sqref="H1"/>
@@ -989,70 +992,70 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -1073,103 +1076,103 @@
         <v>27</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>53</v>
@@ -1178,16 +1181,16 @@
         <v>54</v>
       </c>
       <c r="BT1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>58</v>
@@ -1844,7 +1847,7 @@
         <v>69</v>
       </c>
       <c r="C2">
-        <f>CJ6/D50</f>
+        <f>CJ6/D51</f>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -1853,52 +1856,52 @@
         <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>86</v>
@@ -1919,106 +1922,106 @@
         <v>91</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>114</v>
@@ -2030,31 +2033,31 @@
         <v>116</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BS2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>122</v>
@@ -2708,13 +2711,13 @@
         <v>132</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -2726,13 +2729,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2744,46 +2747,46 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
         <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>2</v>
       </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
       </c>
       <c r="AF3">
         <v>2</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2792,16 +2795,16 @@
         <v>2</v>
       </c>
       <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>2</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2819,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="AS3">
+        <v>2</v>
+      </c>
+      <c r="AT3">
         <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>2</v>
       </c>
       <c r="AU3">
         <v>2</v>
@@ -2831,16 +2834,16 @@
         <v>1</v>
       </c>
       <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>2</v>
       </c>
       <c r="AY3">
         <v>2</v>
       </c>
       <c r="AZ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -2849,19 +2852,19 @@
         <v>1</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD3">
         <v>1</v>
       </c>
       <c r="BE3">
+        <v>2</v>
+      </c>
+      <c r="BF3">
         <v>1</v>
       </c>
-      <c r="BF3">
-        <v>2</v>
-      </c>
       <c r="BG3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH3">
         <v>1</v>
@@ -2870,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -2879,28 +2882,28 @@
         <v>1</v>
       </c>
       <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
         <v>2</v>
       </c>
-      <c r="BN3">
-        <v>1</v>
-      </c>
       <c r="BO3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP3">
         <v>2</v>
       </c>
       <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
         <v>2</v>
-      </c>
-      <c r="BR3">
-        <v>1</v>
       </c>
       <c r="BS3">
         <v>1</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU3">
         <v>2</v>
@@ -2912,19 +2915,19 @@
         <v>1</v>
       </c>
       <c r="BX3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY3">
         <v>2</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA3">
         <v>1</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC3">
         <v>2</v>
@@ -2933,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="CE3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF3">
         <v>2</v>
@@ -2949,485 +2952,11 @@
       <c r="G4" t="s">
         <v>133</v>
       </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4">
-        <v>630</v>
-      </c>
-      <c r="K4">
-        <v>60</v>
-      </c>
-      <c r="L4">
-        <v>350</v>
-      </c>
-      <c r="M4">
-        <v>35</v>
-      </c>
-      <c r="N4">
-        <v>130</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>275</v>
-      </c>
-      <c r="Q4">
-        <v>170</v>
-      </c>
-      <c r="R4">
-        <v>710</v>
-      </c>
-      <c r="S4">
-        <v>80</v>
-      </c>
-      <c r="T4">
-        <v>108</v>
-      </c>
-      <c r="U4">
-        <v>108</v>
-      </c>
-      <c r="V4">
-        <v>108</v>
-      </c>
-      <c r="W4">
-        <v>54</v>
-      </c>
-      <c r="X4">
-        <v>70</v>
-      </c>
-      <c r="Y4">
-        <v>70</v>
-      </c>
-      <c r="Z4">
-        <v>135</v>
-      </c>
-      <c r="AA4">
-        <v>70</v>
-      </c>
-      <c r="AB4">
-        <v>70</v>
-      </c>
-      <c r="AC4">
-        <v>139</v>
-      </c>
-      <c r="AD4">
-        <v>40</v>
-      </c>
-      <c r="AE4">
-        <v>40</v>
-      </c>
-      <c r="AF4">
-        <v>74</v>
-      </c>
-      <c r="AG4">
-        <v>50</v>
-      </c>
-      <c r="AH4">
-        <v>74</v>
-      </c>
-      <c r="AI4">
-        <v>70</v>
-      </c>
-      <c r="AJ4">
-        <v>490</v>
-      </c>
-      <c r="AK4">
-        <v>610</v>
-      </c>
-      <c r="AL4">
-        <v>610</v>
-      </c>
-      <c r="AM4">
-        <v>670</v>
-      </c>
-      <c r="AN4">
-        <v>680</v>
-      </c>
-      <c r="AO4">
-        <v>180</v>
-      </c>
-      <c r="AP4">
-        <v>400</v>
-      </c>
-      <c r="AQ4">
-        <v>550</v>
-      </c>
-      <c r="AR4">
-        <v>600</v>
-      </c>
-      <c r="AS4">
-        <v>40</v>
-      </c>
-      <c r="AT4">
-        <v>140</v>
-      </c>
-      <c r="AU4">
-        <v>150</v>
-      </c>
-      <c r="AV4">
-        <v>140</v>
-      </c>
-      <c r="AW4">
-        <v>40</v>
-      </c>
-      <c r="AX4">
-        <v>180</v>
-      </c>
-      <c r="AY4">
-        <v>85</v>
-      </c>
-      <c r="AZ4">
-        <v>80</v>
-      </c>
-      <c r="BA4">
-        <v>120</v>
-      </c>
-      <c r="BB4">
-        <v>800</v>
-      </c>
-      <c r="BC4">
-        <v>720</v>
-      </c>
-      <c r="BD4">
-        <v>81</v>
-      </c>
-      <c r="BE4">
-        <v>450</v>
-      </c>
-      <c r="BF4">
-        <v>81</v>
-      </c>
-      <c r="BG4">
-        <v>80</v>
-      </c>
-      <c r="BH4">
-        <v>53</v>
-      </c>
-      <c r="BI4">
-        <v>53</v>
-      </c>
-      <c r="BJ4">
-        <v>108</v>
-      </c>
-      <c r="BK4">
-        <v>108</v>
-      </c>
-      <c r="BL4">
-        <v>108</v>
-      </c>
-      <c r="BM4">
-        <v>54</v>
-      </c>
-      <c r="BN4">
-        <v>70</v>
-      </c>
-      <c r="BO4">
-        <v>70</v>
-      </c>
-      <c r="BP4">
-        <v>70</v>
-      </c>
-      <c r="BQ4">
-        <v>70</v>
-      </c>
-      <c r="BR4">
-        <v>88</v>
-      </c>
-      <c r="BS4">
-        <v>140</v>
-      </c>
-      <c r="BT4">
-        <v>74</v>
-      </c>
-      <c r="BU4">
-        <v>136</v>
-      </c>
-      <c r="BV4">
-        <v>70</v>
-      </c>
-      <c r="BW4">
-        <v>40</v>
-      </c>
-      <c r="BX4">
-        <v>40</v>
-      </c>
-      <c r="BY4">
-        <v>200</v>
-      </c>
-      <c r="BZ4">
-        <v>100</v>
-      </c>
-      <c r="CA4">
-        <v>158</v>
-      </c>
-      <c r="CB4">
-        <v>280</v>
-      </c>
-      <c r="CC4">
-        <v>69</v>
-      </c>
-      <c r="CD4">
-        <v>121</v>
-      </c>
-      <c r="CE4">
-        <v>59</v>
-      </c>
-      <c r="CF4">
-        <v>36</v>
-      </c>
-      <c r="CG4">
-        <v>36</v>
-      </c>
-      <c r="CH4">
-        <v>77</v>
-      </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="7:86" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0.5</v>
-      </c>
-      <c r="U5">
-        <v>0.5</v>
-      </c>
-      <c r="V5">
-        <v>0.7</v>
-      </c>
-      <c r="W5">
-        <v>0.5</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>0.6</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>1</v>
-      </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BE5">
-        <v>1</v>
-      </c>
-      <c r="BF5">
-        <v>1.2</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1.2</v>
-      </c>
-      <c r="BJ5">
-        <v>0.7</v>
-      </c>
-      <c r="BK5">
-        <v>0.7</v>
-      </c>
-      <c r="BL5">
-        <v>0.7</v>
-      </c>
-      <c r="BM5">
-        <v>0.5</v>
-      </c>
-      <c r="BN5">
-        <v>0.5</v>
-      </c>
-      <c r="BO5">
-        <v>0.5</v>
-      </c>
-      <c r="BP5">
-        <v>0.5</v>
-      </c>
-      <c r="BQ5">
-        <v>0.5</v>
-      </c>
-      <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>1</v>
-      </c>
-      <c r="BV5">
-        <v>1</v>
-      </c>
-      <c r="BW5">
-        <v>1</v>
-      </c>
-      <c r="BX5">
-        <v>1</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-      <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3440,232 +2969,229 @@
         <v>136</v>
       </c>
       <c r="H6">
+        <v>1.845098</v>
+      </c>
+      <c r="I6">
+        <v>1.9402318</v>
+      </c>
+      <c r="J6">
+        <v>1.9874109</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.42693597</v>
       </c>
-      <c r="I6">
+      <c r="M6">
+        <v>1.164139</v>
+      </c>
+      <c r="N6">
+        <v>1.4101745</v>
+      </c>
+      <c r="O6">
+        <v>1.756962</v>
+      </c>
+      <c r="P6">
         <v>1.853872</v>
       </c>
-      <c r="J6">
+      <c r="Q6">
+        <v>1.8952646</v>
+      </c>
+      <c r="R6">
         <v>1.9542425</v>
       </c>
-      <c r="K6">
+      <c r="S6">
+        <v>1.9330533</v>
+      </c>
+      <c r="T6">
+        <v>0.8</v>
+      </c>
+      <c r="U6">
         <v>0.9330532</v>
       </c>
-      <c r="L6">
+      <c r="V6">
+        <v>1.30103</v>
+      </c>
+      <c r="W6">
+        <v>1.3309932</v>
+      </c>
+      <c r="X6">
+        <v>1.30103</v>
+      </c>
+      <c r="Y6">
         <v>1.69897</v>
       </c>
-      <c r="M6">
+      <c r="Z6">
         <v>0.8</v>
       </c>
-      <c r="N6">
+      <c r="AA6">
+        <v>0.8</v>
+      </c>
+      <c r="AB6">
+        <v>1.4101745</v>
+      </c>
+      <c r="AC6">
         <v>1.2688453</v>
       </c>
-      <c r="O6">
+      <c r="AD6">
+        <v>1.0843209</v>
+      </c>
+      <c r="AE6">
         <v>1.154902</v>
       </c>
-      <c r="P6">
+      <c r="AF6">
+        <v>1.057992</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>1.063387</v>
+      </c>
+      <c r="AI6">
+        <v>1.3853508</v>
+      </c>
+      <c r="AJ6">
         <v>1.5942347</v>
       </c>
-      <c r="Q6">
-        <v>1.3853508</v>
-      </c>
-      <c r="R6">
+      <c r="AK6">
+        <v>2.0122344</v>
+      </c>
+      <c r="AL6">
+        <v>1.2760644</v>
+      </c>
+      <c r="AM6">
+        <v>2.057992</v>
+      </c>
+      <c r="AN6">
+        <v>1.057992</v>
+      </c>
+      <c r="AO6">
+        <v>1.057992</v>
+      </c>
+      <c r="AP6">
+        <v>1.8081145</v>
+      </c>
+      <c r="AQ6">
         <v>2.0061603</v>
       </c>
-      <c r="S6">
-        <v>1.057992</v>
-      </c>
-      <c r="T6">
+      <c r="AR6">
+        <v>0.8791778</v>
+      </c>
+      <c r="AS6">
+        <v>1.0550134</v>
+      </c>
+      <c r="AT6">
+        <v>0.831828</v>
+      </c>
+      <c r="AU6">
         <v>0.5941629</v>
       </c>
-      <c r="U6">
+      <c r="AV6">
+        <v>0.831828</v>
+      </c>
+      <c r="AW6">
         <v>0.5941629</v>
       </c>
-      <c r="V6">
+      <c r="AX6">
         <v>0.831828</v>
       </c>
-      <c r="W6">
+      <c r="AY6">
         <v>0.44364786</v>
       </c>
-      <c r="X6">
+      <c r="AZ6">
+        <v>0.831828</v>
+      </c>
+      <c r="BA6">
+        <v>0.44364786</v>
+      </c>
+      <c r="BB6">
+        <v>0.5</v>
+      </c>
+      <c r="BC6">
+        <v>0.5</v>
+      </c>
+      <c r="BD6">
+        <v>0.5</v>
+      </c>
+      <c r="BF6">
         <v>1</v>
       </c>
-      <c r="Y6">
+      <c r="BG6">
+        <v>1.2852358</v>
+      </c>
+      <c r="BH6">
+        <v>1.0993847</v>
+      </c>
+      <c r="BI6">
+        <v>0.6489584</v>
+      </c>
+      <c r="BJ6">
+        <v>1.2884408</v>
+      </c>
+      <c r="BK6">
         <v>1</v>
       </c>
-      <c r="Z6">
-        <v>1.2852358</v>
-      </c>
-      <c r="AA6">
+      <c r="BL6">
+        <v>1.0241337</v>
+      </c>
+      <c r="BM6">
+        <v>1.30103</v>
+      </c>
+      <c r="BN6">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="BO6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>0.6489584</v>
-      </c>
-      <c r="AD6">
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
         <v>0.8</v>
       </c>
-      <c r="AE6">
+      <c r="BR6">
         <v>0.8</v>
       </c>
-      <c r="AF6">
+      <c r="BS6">
+        <v>0.8</v>
+      </c>
+      <c r="BT6">
+        <v>0.8</v>
+      </c>
+      <c r="BU6">
+        <v>1.4559319</v>
+      </c>
+      <c r="BV6">
+        <v>1.154902</v>
+      </c>
+      <c r="BW6">
+        <v>1.60206</v>
+      </c>
+      <c r="BX6">
+        <v>1.353559</v>
+      </c>
+      <c r="BY6">
+        <v>0.99375105</v>
+      </c>
+      <c r="BZ6">
+        <v>1.2376873</v>
+      </c>
+      <c r="CA6">
         <v>1.0241337</v>
       </c>
-      <c r="AG6">
+      <c r="CB6">
+        <v>1.0241337</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>0.92575395</v>
+      </c>
+      <c r="CE6">
         <v>0.85387194</v>
-      </c>
-      <c r="AH6">
-        <v>1.0241337</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1.845098</v>
-      </c>
-      <c r="AK6">
-        <v>1.9402318</v>
-      </c>
-      <c r="AL6">
-        <v>1.164139</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>1.9874109</v>
-      </c>
-      <c r="AO6">
-        <v>1.4101745</v>
-      </c>
-      <c r="AP6">
-        <v>1.756962</v>
-      </c>
-      <c r="AQ6">
-        <v>1.8952646</v>
-      </c>
-      <c r="AR6">
-        <v>1.9330533</v>
-      </c>
-      <c r="AS6">
-        <v>0.8</v>
-      </c>
-      <c r="AT6">
-        <v>1.30103</v>
-      </c>
-      <c r="AU6">
-        <v>1.3309932</v>
-      </c>
-      <c r="AV6">
-        <v>1.30103</v>
-      </c>
-      <c r="AW6">
-        <v>0.8</v>
-      </c>
-      <c r="AX6">
-        <v>1.4101745</v>
-      </c>
-      <c r="AY6">
-        <v>1.0843209</v>
-      </c>
-      <c r="AZ6">
-        <v>1.057992</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>2.057992</v>
-      </c>
-      <c r="BC6">
-        <v>2.0122344</v>
-      </c>
-      <c r="BD6">
-        <v>1.063387</v>
-      </c>
-      <c r="BE6">
-        <v>1.8081145</v>
-      </c>
-      <c r="BF6">
-        <v>1.2760644</v>
-      </c>
-      <c r="BG6">
-        <v>1.057992</v>
-      </c>
-      <c r="BH6">
-        <v>0.8791778</v>
-      </c>
-      <c r="BI6">
-        <v>1.0550134</v>
-      </c>
-      <c r="BJ6">
-        <v>0.831828</v>
-      </c>
-      <c r="BK6">
-        <v>0.831828</v>
-      </c>
-      <c r="BL6">
-        <v>0.831828</v>
-      </c>
-      <c r="BM6">
-        <v>0.44364786</v>
-      </c>
-      <c r="BN6">
-        <v>0.5</v>
-      </c>
-      <c r="BO6">
-        <v>0.5</v>
-      </c>
-      <c r="BP6">
-        <v>0.5</v>
-      </c>
-      <c r="BQ6">
-        <v>0.5</v>
-      </c>
-      <c r="BR6">
-        <v>1.0993847</v>
-      </c>
-      <c r="BS6">
-        <v>1.30103</v>
-      </c>
-      <c r="BT6">
-        <v>1.0241337</v>
-      </c>
-      <c r="BU6">
-        <v>1.2884408</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>0.8</v>
-      </c>
-      <c r="BX6">
-        <v>0.8</v>
-      </c>
-      <c r="BY6">
-        <v>1.4559319</v>
-      </c>
-      <c r="BZ6">
-        <v>1.154902</v>
-      </c>
-      <c r="CA6">
-        <v>1.353559</v>
-      </c>
-      <c r="CB6">
-        <v>1.60206</v>
-      </c>
-      <c r="CC6">
-        <v>0.99375105</v>
-      </c>
-      <c r="CD6">
-        <v>1.2376873</v>
-      </c>
-      <c r="CE6">
-        <v>0.92575395</v>
       </c>
       <c r="CF6">
         <v>0.8</v>
@@ -4204,8 +3730,8 @@
       <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="I9">
-        <v>0.5</v>
+      <c r="I9" t="s">
+        <v>147</v>
       </c>
       <c r="J9" t="s">
         <v>147</v>
@@ -4234,8 +3760,8 @@
       <c r="R9" t="s">
         <v>147</v>
       </c>
-      <c r="S9" t="s">
-        <v>147</v>
+      <c r="S9">
+        <v>0.8</v>
       </c>
       <c r="T9" t="s">
         <v>147</v>
@@ -4252,8 +3778,8 @@
       <c r="X9" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" t="s">
-        <v>147</v>
+      <c r="Y9">
+        <v>1</v>
       </c>
       <c r="Z9" t="s">
         <v>147</v>
@@ -4378,14 +3904,14 @@
       <c r="BN9" t="s">
         <v>147</v>
       </c>
-      <c r="BO9">
-        <v>1</v>
+      <c r="BO9" t="s">
+        <v>147</v>
       </c>
       <c r="BP9" t="s">
         <v>147</v>
       </c>
-      <c r="BQ9">
-        <v>1</v>
+      <c r="BQ9" t="s">
+        <v>147</v>
       </c>
       <c r="BR9" t="s">
         <v>147</v>
@@ -4488,66 +4014,66 @@
       <c r="Q10" t="s">
         <v>147</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" t="s">
-        <v>147</v>
-      </c>
-      <c r="V10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" t="s">
-        <v>147</v>
-      </c>
-      <c r="X10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>147</v>
-      </c>
       <c r="AL10" t="s">
         <v>147</v>
       </c>
@@ -4563,8 +4089,8 @@
       <c r="AP10" t="s">
         <v>147</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>147</v>
+      <c r="AQ10">
+        <v>1</v>
       </c>
       <c r="AR10" t="s">
         <v>147</v>
@@ -4599,8 +4125,8 @@
       <c r="BB10" t="s">
         <v>147</v>
       </c>
-      <c r="BC10">
-        <v>1</v>
+      <c r="BC10" t="s">
+        <v>147</v>
       </c>
       <c r="BD10" t="s">
         <v>147</v>
@@ -4742,59 +4268,59 @@
       <c r="P11" t="s">
         <v>147</v>
       </c>
-      <c r="Q11">
-        <v>0.4</v>
-      </c>
-      <c r="R11">
+      <c r="Q11" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" t="s">
+        <v>147</v>
+      </c>
+      <c r="S11" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" t="s">
+        <v>147</v>
+      </c>
+      <c r="U11" t="s">
+        <v>147</v>
+      </c>
+      <c r="V11" t="s">
+        <v>147</v>
+      </c>
+      <c r="W11" t="s">
+        <v>147</v>
+      </c>
+      <c r="X11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE11">
         <v>0.5</v>
       </c>
-      <c r="S11" t="s">
-        <v>147</v>
-      </c>
-      <c r="T11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U11" t="s">
-        <v>147</v>
-      </c>
-      <c r="V11" t="s">
-        <v>147</v>
-      </c>
-      <c r="W11" t="s">
-        <v>147</v>
-      </c>
-      <c r="X11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>147</v>
-      </c>
       <c r="AF11" t="s">
         <v>147</v>
       </c>
       <c r="AG11" t="s">
         <v>147</v>
       </c>
-      <c r="AH11" t="s">
-        <v>147</v>
+      <c r="AH11">
+        <v>1</v>
       </c>
       <c r="AI11" t="s">
         <v>147</v>
@@ -4802,11 +4328,11 @@
       <c r="AJ11" t="s">
         <v>147</v>
       </c>
-      <c r="AK11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>147</v>
+      <c r="AK11">
+        <v>0.5</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
       </c>
       <c r="AM11" t="s">
         <v>147</v>
@@ -4820,8 +4346,8 @@
       <c r="AP11" t="s">
         <v>147</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>147</v>
+      <c r="AQ11">
+        <v>0.5</v>
       </c>
       <c r="AR11" t="s">
         <v>147</v>
@@ -4856,14 +4382,14 @@
       <c r="BB11" t="s">
         <v>147</v>
       </c>
-      <c r="BC11">
-        <v>0.5</v>
+      <c r="BC11" t="s">
+        <v>147</v>
       </c>
       <c r="BD11" t="s">
         <v>147</v>
       </c>
-      <c r="BE11">
-        <v>0.4</v>
+      <c r="BE11" t="s">
+        <v>147</v>
       </c>
       <c r="BF11" t="s">
         <v>147</v>
@@ -4871,11 +4397,11 @@
       <c r="BG11" t="s">
         <v>147</v>
       </c>
-      <c r="BH11">
-        <v>1</v>
-      </c>
-      <c r="BI11">
-        <v>1</v>
+      <c r="BH11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>147</v>
       </c>
       <c r="BJ11" t="s">
         <v>147</v>
@@ -4996,8 +4522,8 @@
       <c r="O12" t="s">
         <v>147</v>
       </c>
-      <c r="P12" t="s">
-        <v>147</v>
+      <c r="P12">
+        <v>0.5</v>
       </c>
       <c r="Q12" t="s">
         <v>147</v>
@@ -5053,8 +4579,8 @@
       <c r="AH12" t="s">
         <v>147</v>
       </c>
-      <c r="AI12">
-        <v>0.4</v>
+      <c r="AI12" t="s">
+        <v>147</v>
       </c>
       <c r="AJ12" t="s">
         <v>147</v>
@@ -5116,11 +4642,11 @@
       <c r="BC12" t="s">
         <v>147</v>
       </c>
-      <c r="BD12" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>147</v>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
       </c>
       <c r="BF12" t="s">
         <v>147</v>
@@ -5185,8 +4711,8 @@
       <c r="BZ12" t="s">
         <v>147</v>
       </c>
-      <c r="CA12">
-        <v>0.5</v>
+      <c r="CA12" t="s">
+        <v>147</v>
       </c>
       <c r="CB12" t="s">
         <v>147</v>
@@ -5197,14 +4723,14 @@
       <c r="CD12" t="s">
         <v>147</v>
       </c>
-      <c r="CE12">
-        <v>1</v>
+      <c r="CE12" t="s">
+        <v>147</v>
       </c>
       <c r="CF12" t="s">
         <v>147</v>
       </c>
-      <c r="CG12">
-        <v>1</v>
+      <c r="CG12" t="s">
+        <v>147</v>
       </c>
       <c r="CH12" t="s">
         <v>147</v>
@@ -5346,122 +4872,122 @@
       <c r="AT13" t="s">
         <v>147</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX13">
+        <v>0.5</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC13">
+        <v>0.4</v>
+      </c>
+      <c r="CD13">
         <v>1</v>
       </c>
-      <c r="AV13">
+      <c r="CE13" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG13">
         <v>1</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS13">
-        <v>1</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>147</v>
       </c>
       <c r="CH13" t="s">
         <v>147</v>
@@ -5510,11 +5036,11 @@
       <c r="O14" t="s">
         <v>147</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>147</v>
+      <c r="P14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14">
+        <v>0.4</v>
       </c>
       <c r="R14" t="s">
         <v>147</v>
@@ -5567,8 +5093,8 @@
       <c r="AH14" t="s">
         <v>147</v>
       </c>
-      <c r="AI14" t="s">
-        <v>147</v>
+      <c r="AI14">
+        <v>0.8</v>
       </c>
       <c r="AJ14" t="s">
         <v>147</v>
@@ -5588,8 +5114,8 @@
       <c r="AO14" t="s">
         <v>147</v>
       </c>
-      <c r="AP14" t="s">
-        <v>147</v>
+      <c r="AP14">
+        <v>0.8</v>
       </c>
       <c r="AQ14" t="s">
         <v>147</v>
@@ -5624,8 +5150,8 @@
       <c r="BA14" t="s">
         <v>147</v>
       </c>
-      <c r="BB14">
-        <v>1</v>
+      <c r="BB14" t="s">
+        <v>147</v>
       </c>
       <c r="BC14" t="s">
         <v>147</v>
@@ -5660,8 +5186,8 @@
       <c r="BM14" t="s">
         <v>147</v>
       </c>
-      <c r="BN14" t="s">
-        <v>147</v>
+      <c r="BN14">
+        <v>0.6</v>
       </c>
       <c r="BO14" t="s">
         <v>147</v>
@@ -5732,7 +5258,7 @@
         <v>146</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>D15*$C$2</f>
@@ -5767,8 +5293,8 @@
       <c r="O15" t="s">
         <v>147</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
+      <c r="P15" t="s">
+        <v>147</v>
       </c>
       <c r="Q15" t="s">
         <v>147</v>
@@ -5824,8 +5350,8 @@
       <c r="AH15" t="s">
         <v>147</v>
       </c>
-      <c r="AI15" t="s">
-        <v>147</v>
+      <c r="AI15">
+        <v>0.4</v>
       </c>
       <c r="AJ15" t="s">
         <v>147</v>
@@ -5839,23 +5365,23 @@
       <c r="AM15" t="s">
         <v>147</v>
       </c>
-      <c r="AN15">
-        <v>0.9</v>
+      <c r="AN15" t="s">
+        <v>147</v>
       </c>
       <c r="AO15" t="s">
         <v>147</v>
       </c>
-      <c r="AP15" t="s">
-        <v>147</v>
+      <c r="AP15">
+        <v>0.4</v>
       </c>
       <c r="AQ15" t="s">
         <v>147</v>
       </c>
-      <c r="AR15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>147</v>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
       </c>
       <c r="AT15" t="s">
         <v>147</v>
@@ -5881,8 +5407,8 @@
       <c r="BA15" t="s">
         <v>147</v>
       </c>
-      <c r="BB15">
-        <v>0.5</v>
+      <c r="BB15" t="s">
+        <v>147</v>
       </c>
       <c r="BC15" t="s">
         <v>147</v>
@@ -5989,7 +5515,7 @@
         <v>146</v>
       </c>
       <c r="D16">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <f>D16*$C$2</f>
@@ -6081,8 +5607,8 @@
       <c r="AH16" t="s">
         <v>147</v>
       </c>
-      <c r="AI16" t="s">
-        <v>147</v>
+      <c r="AI16">
+        <v>0.4</v>
       </c>
       <c r="AJ16" t="s">
         <v>147</v>
@@ -6102,8 +5628,8 @@
       <c r="AO16" t="s">
         <v>147</v>
       </c>
-      <c r="AP16" t="s">
-        <v>147</v>
+      <c r="AP16">
+        <v>0.4</v>
       </c>
       <c r="AQ16" t="s">
         <v>147</v>
@@ -6174,8 +5700,8 @@
       <c r="BM16" t="s">
         <v>147</v>
       </c>
-      <c r="BN16" t="s">
-        <v>147</v>
+      <c r="BN16">
+        <v>0.4</v>
       </c>
       <c r="BO16" t="s">
         <v>147</v>
@@ -6210,11 +5736,11 @@
       <c r="BY16" t="s">
         <v>147</v>
       </c>
-      <c r="BZ16" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>147</v>
+      <c r="BZ16">
+        <v>1</v>
+      </c>
+      <c r="CA16">
+        <v>1</v>
       </c>
       <c r="CB16" t="s">
         <v>147</v>
@@ -6246,7 +5772,7 @@
         <v>146</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>D17*$C$2</f>
@@ -6281,8 +5807,8 @@
       <c r="O17" t="s">
         <v>147</v>
       </c>
-      <c r="P17">
-        <v>0.5</v>
+      <c r="P17" t="s">
+        <v>147</v>
       </c>
       <c r="Q17" t="s">
         <v>147</v>
@@ -6302,11 +5828,11 @@
       <c r="V17" t="s">
         <v>147</v>
       </c>
-      <c r="W17" t="s">
-        <v>147</v>
-      </c>
-      <c r="X17" t="s">
-        <v>147</v>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
       <c r="Y17" t="s">
         <v>147</v>
@@ -6395,8 +5921,8 @@
       <c r="BA17" t="s">
         <v>147</v>
       </c>
-      <c r="BB17">
-        <v>0.5</v>
+      <c r="BB17" t="s">
+        <v>147</v>
       </c>
       <c r="BC17" t="s">
         <v>147</v>
@@ -6428,8 +5954,8 @@
       <c r="BL17" t="s">
         <v>147</v>
       </c>
-      <c r="BM17" t="s">
-        <v>147</v>
+      <c r="BM17">
+        <v>1</v>
       </c>
       <c r="BN17" t="s">
         <v>147</v>
@@ -6535,8 +6061,8 @@
       <c r="N18" t="s">
         <v>147</v>
       </c>
-      <c r="O18">
-        <v>0.5</v>
+      <c r="O18" t="s">
+        <v>147</v>
       </c>
       <c r="P18" t="s">
         <v>147</v>
@@ -6571,8 +6097,8 @@
       <c r="Z18" t="s">
         <v>147</v>
       </c>
-      <c r="AA18" t="s">
-        <v>147</v>
+      <c r="AA18">
+        <v>1</v>
       </c>
       <c r="AB18" t="s">
         <v>147</v>
@@ -6646,8 +6172,8 @@
       <c r="AY18" t="s">
         <v>147</v>
       </c>
-      <c r="AZ18">
-        <v>1</v>
+      <c r="AZ18" t="s">
+        <v>147</v>
       </c>
       <c r="BA18" t="s">
         <v>147</v>
@@ -6721,8 +6247,8 @@
       <c r="BX18" t="s">
         <v>147</v>
       </c>
-      <c r="BY18">
-        <v>0.6</v>
+      <c r="BY18" t="s">
+        <v>147</v>
       </c>
       <c r="BZ18" t="s">
         <v>147</v>
@@ -6760,7 +6286,7 @@
         <v>146</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>D19*$C$2</f>
@@ -6855,8 +6381,8 @@
       <c r="AI19" t="s">
         <v>147</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>147</v>
+      <c r="AJ19">
+        <v>1</v>
       </c>
       <c r="AK19" t="s">
         <v>147</v>
@@ -6864,8 +6390,8 @@
       <c r="AL19" t="s">
         <v>147</v>
       </c>
-      <c r="AM19" t="s">
-        <v>147</v>
+      <c r="AM19">
+        <v>1</v>
       </c>
       <c r="AN19" t="s">
         <v>147</v>
@@ -6981,17 +6507,17 @@
       <c r="BY19" t="s">
         <v>147</v>
       </c>
-      <c r="BZ19">
-        <v>0.4</v>
+      <c r="BZ19" t="s">
+        <v>147</v>
       </c>
       <c r="CA19" t="s">
         <v>147</v>
       </c>
-      <c r="CB19">
-        <v>0.4</v>
-      </c>
-      <c r="CC19">
-        <v>0.4</v>
+      <c r="CB19" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>147</v>
       </c>
       <c r="CD19" t="s">
         <v>147</v>
@@ -7017,7 +6543,7 @@
         <v>146</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E20">
         <f>D20*$C$2</f>
@@ -7046,8 +6572,8 @@
       <c r="M20" t="s">
         <v>147</v>
       </c>
-      <c r="N20" t="s">
-        <v>147</v>
+      <c r="N20">
+        <v>0.7</v>
       </c>
       <c r="O20" t="s">
         <v>147</v>
@@ -7064,8 +6590,8 @@
       <c r="S20" t="s">
         <v>147</v>
       </c>
-      <c r="T20" t="s">
-        <v>147</v>
+      <c r="T20">
+        <v>0.4</v>
       </c>
       <c r="U20" t="s">
         <v>147</v>
@@ -7100,8 +6626,8 @@
       <c r="AE20" t="s">
         <v>147</v>
       </c>
-      <c r="AF20">
-        <v>1</v>
+      <c r="AF20" t="s">
+        <v>147</v>
       </c>
       <c r="AG20" t="s">
         <v>147</v>
@@ -7112,8 +6638,8 @@
       <c r="AI20" t="s">
         <v>147</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>147</v>
+      <c r="AJ20">
+        <v>0.5</v>
       </c>
       <c r="AK20" t="s">
         <v>147</v>
@@ -7121,8 +6647,8 @@
       <c r="AL20" t="s">
         <v>147</v>
       </c>
-      <c r="AM20" t="s">
-        <v>147</v>
+      <c r="AM20">
+        <v>0.5</v>
       </c>
       <c r="AN20" t="s">
         <v>147</v>
@@ -7241,8 +6767,8 @@
       <c r="BZ20" t="s">
         <v>147</v>
       </c>
-      <c r="CA20">
-        <v>0.5</v>
+      <c r="CA20" t="s">
+        <v>147</v>
       </c>
       <c r="CB20" t="s">
         <v>147</v>
@@ -7256,8 +6782,8 @@
       <c r="CE20" t="s">
         <v>147</v>
       </c>
-      <c r="CF20">
-        <v>1</v>
+      <c r="CF20" t="s">
+        <v>147</v>
       </c>
       <c r="CG20" t="s">
         <v>147</v>
@@ -7274,7 +6800,7 @@
         <v>146</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
         <f>D21*$C$2</f>
@@ -7291,8 +6817,8 @@
       <c r="I21" t="s">
         <v>147</v>
       </c>
-      <c r="J21" t="s">
-        <v>147</v>
+      <c r="J21">
+        <v>0.9</v>
       </c>
       <c r="K21" t="s">
         <v>147</v>
@@ -7369,11 +6895,11 @@
       <c r="AI21" t="s">
         <v>147</v>
       </c>
-      <c r="AJ21">
-        <v>0.5</v>
-      </c>
-      <c r="AK21">
-        <v>0.5</v>
+      <c r="AJ21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>147</v>
       </c>
       <c r="AL21" t="s">
         <v>147</v>
@@ -7393,8 +6919,8 @@
       <c r="AQ21" t="s">
         <v>147</v>
       </c>
-      <c r="AR21">
-        <v>0.2</v>
+      <c r="AR21" t="s">
+        <v>147</v>
       </c>
       <c r="AS21" t="s">
         <v>147</v>
@@ -7531,7 +7057,7 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E22">
         <f>D22*$C$2</f>
@@ -7596,8 +7122,8 @@
       <c r="Y22" t="s">
         <v>147</v>
       </c>
-      <c r="Z22">
-        <v>1</v>
+      <c r="Z22" t="s">
+        <v>147</v>
       </c>
       <c r="AA22" t="s">
         <v>147</v>
@@ -7626,11 +7152,11 @@
       <c r="AI22" t="s">
         <v>147</v>
       </c>
-      <c r="AJ22">
-        <v>0.6</v>
-      </c>
-      <c r="AK22">
-        <v>0.6</v>
+      <c r="AJ22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>147</v>
       </c>
       <c r="AL22" t="s">
         <v>147</v>
@@ -7710,11 +7236,11 @@
       <c r="BK22" t="s">
         <v>147</v>
       </c>
-      <c r="BL22">
-        <v>0.2</v>
-      </c>
-      <c r="BM22">
-        <v>0.2</v>
+      <c r="BL22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>147</v>
       </c>
       <c r="BN22" t="s">
         <v>147</v>
@@ -7740,8 +7266,8 @@
       <c r="BU22" t="s">
         <v>147</v>
       </c>
-      <c r="BV22">
-        <v>1</v>
+      <c r="BV22" t="s">
+        <v>147</v>
       </c>
       <c r="BW22" t="s">
         <v>147</v>
@@ -7788,7 +7314,7 @@
         <v>146</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E23">
         <f>D23*$C$2</f>
@@ -7832,8 +7358,8 @@
       <c r="R23" t="s">
         <v>147</v>
       </c>
-      <c r="S23">
-        <v>0.6</v>
+      <c r="S23" t="s">
+        <v>147</v>
       </c>
       <c r="T23" t="s">
         <v>147</v>
@@ -7856,86 +7382,86 @@
       <c r="Z23" t="s">
         <v>147</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ23">
+        <v>0.5</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT23">
         <v>1</v>
       </c>
-      <c r="AB23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD23">
+      <c r="AU23">
         <v>1</v>
       </c>
-      <c r="AE23">
+      <c r="AV23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX23">
         <v>1</v>
       </c>
-      <c r="AF23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>147</v>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
       </c>
       <c r="BB23" t="s">
         <v>147</v>
@@ -8045,7 +7571,7 @@
         <v>146</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>D24*$C$2</f>
@@ -8065,134 +7591,134 @@
       <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>147</v>
+      </c>
+      <c r="T24" t="s">
+        <v>147</v>
+      </c>
+      <c r="U24" t="s">
+        <v>147</v>
+      </c>
+      <c r="V24" t="s">
+        <v>147</v>
+      </c>
+      <c r="W24" t="s">
+        <v>147</v>
+      </c>
+      <c r="X24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" t="s">
-        <v>147</v>
-      </c>
-      <c r="N24" t="s">
-        <v>147</v>
-      </c>
-      <c r="O24" t="s">
-        <v>147</v>
-      </c>
-      <c r="P24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>147</v>
-      </c>
-      <c r="R24" t="s">
-        <v>147</v>
-      </c>
-      <c r="S24">
-        <v>0.4</v>
-      </c>
-      <c r="T24" t="s">
-        <v>147</v>
-      </c>
-      <c r="U24" t="s">
-        <v>147</v>
-      </c>
-      <c r="V24" t="s">
-        <v>147</v>
-      </c>
-      <c r="W24" t="s">
-        <v>147</v>
-      </c>
-      <c r="X24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD24">
+      <c r="AU24">
         <v>1</v>
       </c>
-      <c r="AE24">
+      <c r="AV24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX24">
         <v>1</v>
       </c>
-      <c r="AF24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>147</v>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>0.8</v>
+      </c>
+      <c r="BA24">
+        <v>0.8</v>
       </c>
       <c r="BB24" t="s">
         <v>147</v>
@@ -8209,8 +7735,8 @@
       <c r="BF24" t="s">
         <v>147</v>
       </c>
-      <c r="BG24">
-        <v>1</v>
+      <c r="BG24" t="s">
+        <v>147</v>
       </c>
       <c r="BH24" t="s">
         <v>147</v>
@@ -8302,7 +7828,7 @@
         <v>146</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>D25*$C$2</f>
@@ -8415,8 +7941,8 @@
       <c r="AO25" t="s">
         <v>147</v>
       </c>
-      <c r="AP25">
-        <v>0.5</v>
+      <c r="AP25" t="s">
+        <v>147</v>
       </c>
       <c r="AQ25" t="s">
         <v>147</v>
@@ -8439,8 +7965,8 @@
       <c r="AW25" t="s">
         <v>147</v>
       </c>
-      <c r="AX25">
-        <v>1</v>
+      <c r="AX25" t="s">
+        <v>147</v>
       </c>
       <c r="AY25" t="s">
         <v>147</v>
@@ -8559,7 +8085,7 @@
         <v>146</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>D26*$C$2</f>
@@ -8744,14 +8270,14 @@
       <c r="BM26" t="s">
         <v>147</v>
       </c>
-      <c r="BN26">
-        <v>1</v>
+      <c r="BN26" t="s">
+        <v>147</v>
       </c>
       <c r="BO26" t="s">
         <v>147</v>
       </c>
-      <c r="BP26">
-        <v>1</v>
+      <c r="BP26" t="s">
+        <v>147</v>
       </c>
       <c r="BQ26" t="s">
         <v>147</v>
@@ -8765,8 +8291,8 @@
       <c r="BT26" t="s">
         <v>147</v>
       </c>
-      <c r="BU26">
-        <v>1</v>
+      <c r="BU26" t="s">
+        <v>147</v>
       </c>
       <c r="BV26" t="s">
         <v>147</v>
@@ -8816,7 +8342,7 @@
         <v>146</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E27">
         <f>D27*$C$2</f>
@@ -8941,8 +8467,8 @@
       <c r="AS27" t="s">
         <v>147</v>
       </c>
-      <c r="AT27">
-        <v>1</v>
+      <c r="AT27" t="s">
+        <v>147</v>
       </c>
       <c r="AU27" t="s">
         <v>147</v>
@@ -9013,29 +8539,29 @@
       <c r="BQ27" t="s">
         <v>147</v>
       </c>
-      <c r="BR27">
-        <v>0.3</v>
+      <c r="BR27" t="s">
+        <v>147</v>
       </c>
       <c r="BS27" t="s">
         <v>147</v>
       </c>
-      <c r="BT27">
-        <v>0.6</v>
+      <c r="BT27" t="s">
+        <v>147</v>
       </c>
       <c r="BU27" t="s">
         <v>147</v>
       </c>
-      <c r="BV27" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>147</v>
+      <c r="BV27">
+        <v>0.4</v>
+      </c>
+      <c r="BW27">
+        <v>0.4</v>
       </c>
       <c r="BX27" t="s">
         <v>147</v>
       </c>
-      <c r="BY27" t="s">
-        <v>147</v>
+      <c r="BY27">
+        <v>0.4</v>
       </c>
       <c r="BZ27" t="s">
         <v>147</v>
@@ -9073,7 +8599,7 @@
         <v>146</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
         <f>D28*$C$2</f>
@@ -9159,8 +8685,8 @@
       <c r="AF28" t="s">
         <v>147</v>
       </c>
-      <c r="AG28">
-        <v>1</v>
+      <c r="AG28" t="s">
+        <v>147</v>
       </c>
       <c r="AH28" t="s">
         <v>147</v>
@@ -9234,8 +8760,8 @@
       <c r="BE28" t="s">
         <v>147</v>
       </c>
-      <c r="BF28" t="s">
-        <v>147</v>
+      <c r="BF28">
+        <v>0.3</v>
       </c>
       <c r="BG28" t="s">
         <v>147</v>
@@ -9264,8 +8790,8 @@
       <c r="BO28" t="s">
         <v>147</v>
       </c>
-      <c r="BP28" t="s">
-        <v>147</v>
+      <c r="BP28">
+        <v>0.4</v>
       </c>
       <c r="BQ28" t="s">
         <v>147</v>
@@ -9300,8 +8826,8 @@
       <c r="CA28" t="s">
         <v>147</v>
       </c>
-      <c r="CB28">
-        <v>0.2</v>
+      <c r="CB28" t="s">
+        <v>147</v>
       </c>
       <c r="CC28" t="s">
         <v>147</v>
@@ -9353,77 +8879,77 @@
       <c r="K29" t="s">
         <v>147</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" t="s">
+        <v>147</v>
+      </c>
+      <c r="O29" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>147</v>
+      </c>
+      <c r="R29" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" t="s">
+        <v>147</v>
+      </c>
+      <c r="T29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U29" t="s">
+        <v>147</v>
+      </c>
+      <c r="V29" t="s">
+        <v>147</v>
+      </c>
+      <c r="W29" t="s">
+        <v>147</v>
+      </c>
+      <c r="X29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE29">
+        <v>0.5</v>
+      </c>
+      <c r="AF29">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
-        <v>147</v>
-      </c>
-      <c r="N29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O29" t="s">
-        <v>147</v>
-      </c>
-      <c r="P29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>147</v>
-      </c>
-      <c r="R29" t="s">
-        <v>147</v>
-      </c>
-      <c r="S29" t="s">
-        <v>147</v>
-      </c>
-      <c r="T29" t="s">
-        <v>147</v>
-      </c>
-      <c r="U29" t="s">
-        <v>147</v>
-      </c>
-      <c r="V29" t="s">
-        <v>147</v>
-      </c>
-      <c r="W29" t="s">
-        <v>147</v>
-      </c>
-      <c r="X29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>147</v>
-      </c>
       <c r="AG29" t="s">
         <v>147</v>
       </c>
       <c r="AH29" t="s">
         <v>147</v>
       </c>
-      <c r="AI29" t="s">
-        <v>147</v>
+      <c r="AI29">
+        <v>0.3</v>
       </c>
       <c r="AJ29" t="s">
         <v>147</v>
@@ -9443,14 +8969,14 @@
       <c r="AO29" t="s">
         <v>147</v>
       </c>
-      <c r="AP29" t="s">
-        <v>147</v>
+      <c r="AP29">
+        <v>0.3</v>
       </c>
       <c r="AQ29" t="s">
         <v>147</v>
       </c>
-      <c r="AR29">
-        <v>0.8</v>
+      <c r="AR29" t="s">
+        <v>147</v>
       </c>
       <c r="AS29" t="s">
         <v>147</v>
@@ -9536,8 +9062,8 @@
       <c r="BT29" t="s">
         <v>147</v>
       </c>
-      <c r="BU29" t="s">
-        <v>147</v>
+      <c r="BU29">
+        <v>0.6</v>
       </c>
       <c r="BV29" t="s">
         <v>147</v>
@@ -9619,215 +9145,215 @@
       <c r="N30" t="s">
         <v>147</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" t="s">
+        <v>147</v>
+      </c>
+      <c r="S30" t="s">
+        <v>147</v>
+      </c>
+      <c r="T30" t="s">
+        <v>147</v>
+      </c>
+      <c r="U30" t="s">
+        <v>147</v>
+      </c>
+      <c r="V30" t="s">
+        <v>147</v>
+      </c>
+      <c r="W30" t="s">
+        <v>147</v>
+      </c>
+      <c r="X30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX30">
         <v>0.5</v>
       </c>
-      <c r="P30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>147</v>
-      </c>
-      <c r="R30" t="s">
-        <v>147</v>
-      </c>
-      <c r="S30" t="s">
-        <v>147</v>
-      </c>
-      <c r="T30" t="s">
-        <v>147</v>
-      </c>
-      <c r="U30" t="s">
-        <v>147</v>
-      </c>
-      <c r="V30" t="s">
-        <v>147</v>
-      </c>
-      <c r="W30" t="s">
-        <v>147</v>
-      </c>
-      <c r="X30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD30">
+      <c r="BY30" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB30">
         <v>1</v>
       </c>
-      <c r="BE30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF30">
+      <c r="CC30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF30">
         <v>1</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY30" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE30" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF30" t="s">
-        <v>147</v>
       </c>
       <c r="CG30" t="s">
         <v>147</v>
@@ -9844,7 +9370,7 @@
         <v>146</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E31">
         <f>D31*$C$2</f>
@@ -9882,11 +9408,11 @@
       <c r="P31" t="s">
         <v>147</v>
       </c>
-      <c r="Q31">
-        <v>0.8</v>
-      </c>
-      <c r="R31" t="s">
-        <v>147</v>
+      <c r="Q31" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
       </c>
       <c r="S31" t="s">
         <v>147</v>
@@ -9915,11 +9441,11 @@
       <c r="AA31" t="s">
         <v>147</v>
       </c>
-      <c r="AB31">
-        <v>0.6</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>147</v>
+      <c r="AB31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC31">
+        <v>0.4</v>
       </c>
       <c r="AD31" t="s">
         <v>147</v>
@@ -9960,8 +9486,8 @@
       <c r="AP31" t="s">
         <v>147</v>
       </c>
-      <c r="AQ31">
-        <v>0.4</v>
+      <c r="AQ31" t="s">
+        <v>147</v>
       </c>
       <c r="AR31" t="s">
         <v>147</v>
@@ -10002,8 +9528,8 @@
       <c r="BD31" t="s">
         <v>147</v>
       </c>
-      <c r="BE31">
-        <v>0.8</v>
+      <c r="BE31" t="s">
+        <v>147</v>
       </c>
       <c r="BF31" t="s">
         <v>147</v>
@@ -10112,11 +9638,11 @@
       <c r="G32">
         <f>F32-E32</f>
       </c>
-      <c r="H32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" t="s">
-        <v>147</v>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
       </c>
       <c r="J32" t="s">
         <v>147</v>
@@ -10139,14 +9665,14 @@
       <c r="P32" t="s">
         <v>147</v>
       </c>
-      <c r="Q32">
-        <v>0.4</v>
+      <c r="Q32" t="s">
+        <v>147</v>
       </c>
       <c r="R32" t="s">
         <v>147</v>
       </c>
-      <c r="S32" t="s">
-        <v>147</v>
+      <c r="S32">
+        <v>0.2</v>
       </c>
       <c r="T32" t="s">
         <v>147</v>
@@ -10172,8 +9698,8 @@
       <c r="AA32" t="s">
         <v>147</v>
       </c>
-      <c r="AB32">
-        <v>0.4</v>
+      <c r="AB32" t="s">
+        <v>147</v>
       </c>
       <c r="AC32" t="s">
         <v>147</v>
@@ -10190,8 +9716,8 @@
       <c r="AG32" t="s">
         <v>147</v>
       </c>
-      <c r="AH32">
-        <v>1</v>
+      <c r="AH32" t="s">
+        <v>147</v>
       </c>
       <c r="AI32" t="s">
         <v>147</v>
@@ -10259,8 +9785,8 @@
       <c r="BD32" t="s">
         <v>147</v>
       </c>
-      <c r="BE32">
-        <v>0.4</v>
+      <c r="BE32" t="s">
+        <v>147</v>
       </c>
       <c r="BF32" t="s">
         <v>147</v>
@@ -10334,8 +9860,8 @@
       <c r="CC32" t="s">
         <v>147</v>
       </c>
-      <c r="CD32">
-        <v>1</v>
+      <c r="CD32" t="s">
+        <v>147</v>
       </c>
       <c r="CE32" t="s">
         <v>147</v>
@@ -10369,11 +9895,11 @@
       <c r="G33">
         <f>F33-E33</f>
       </c>
-      <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" t="s">
-        <v>147</v>
+      <c r="H33">
+        <v>0.6</v>
+      </c>
+      <c r="I33">
+        <v>0.6</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
@@ -10384,147 +9910,147 @@
       <c r="L33" t="s">
         <v>147</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>147</v>
+      </c>
+      <c r="R33" t="s">
+        <v>147</v>
+      </c>
+      <c r="S33" t="s">
+        <v>147</v>
+      </c>
+      <c r="T33" t="s">
+        <v>147</v>
+      </c>
+      <c r="U33" t="s">
+        <v>147</v>
+      </c>
+      <c r="V33" t="s">
+        <v>147</v>
+      </c>
+      <c r="W33" t="s">
+        <v>147</v>
+      </c>
+      <c r="X33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG33">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>147</v>
-      </c>
-      <c r="O33" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>147</v>
-      </c>
-      <c r="R33" t="s">
-        <v>147</v>
-      </c>
-      <c r="S33" t="s">
-        <v>147</v>
-      </c>
-      <c r="T33" t="s">
-        <v>147</v>
-      </c>
-      <c r="U33" t="s">
-        <v>147</v>
-      </c>
-      <c r="V33" t="s">
-        <v>147</v>
-      </c>
-      <c r="W33" t="s">
-        <v>147</v>
-      </c>
-      <c r="X33" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>147</v>
-      </c>
       <c r="BH33" t="s">
         <v>147</v>
       </c>
@@ -10534,8 +10060,8 @@
       <c r="BJ33" t="s">
         <v>147</v>
       </c>
-      <c r="BK33" t="s">
-        <v>147</v>
+      <c r="BK33">
+        <v>1</v>
       </c>
       <c r="BL33" t="s">
         <v>147</v>
@@ -10615,7 +10141,7 @@
         <v>146</v>
       </c>
       <c r="D34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <f>D34*$C$2</f>
@@ -10656,8 +10182,8 @@
       <c r="Q34" t="s">
         <v>147</v>
       </c>
-      <c r="R34" t="s">
-        <v>147</v>
+      <c r="R34">
+        <v>0.5</v>
       </c>
       <c r="S34" t="s">
         <v>147</v>
@@ -10689,8 +10215,8 @@
       <c r="AB34" t="s">
         <v>147</v>
       </c>
-      <c r="AC34" t="s">
-        <v>147</v>
+      <c r="AC34">
+        <v>0.6</v>
       </c>
       <c r="AD34" t="s">
         <v>147</v>
@@ -10725,8 +10251,8 @@
       <c r="AN34" t="s">
         <v>147</v>
       </c>
-      <c r="AO34">
-        <v>0.7</v>
+      <c r="AO34" t="s">
+        <v>147</v>
       </c>
       <c r="AP34" t="s">
         <v>147</v>
@@ -10737,8 +10263,8 @@
       <c r="AR34" t="s">
         <v>147</v>
       </c>
-      <c r="AS34">
-        <v>0.4</v>
+      <c r="AS34" t="s">
+        <v>147</v>
       </c>
       <c r="AT34" t="s">
         <v>147</v>
@@ -10746,11 +10272,11 @@
       <c r="AU34" t="s">
         <v>147</v>
       </c>
-      <c r="AV34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>147</v>
+      <c r="AV34">
+        <v>0.5</v>
+      </c>
+      <c r="AW34">
+        <v>0.5</v>
       </c>
       <c r="AX34" t="s">
         <v>147</v>
@@ -10758,11 +10284,11 @@
       <c r="AY34" t="s">
         <v>147</v>
       </c>
-      <c r="AZ34" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>147</v>
+      <c r="AZ34">
+        <v>0.2</v>
+      </c>
+      <c r="BA34">
+        <v>0.2</v>
       </c>
       <c r="BB34" t="s">
         <v>147</v>
@@ -10872,7 +10398,7 @@
         <v>146</v>
       </c>
       <c r="D35">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="E35">
         <f>D35*$C$2</f>
@@ -10919,17 +10445,17 @@
       <c r="S35" t="s">
         <v>147</v>
       </c>
-      <c r="T35">
-        <v>1</v>
+      <c r="T35" t="s">
+        <v>147</v>
       </c>
       <c r="U35" t="s">
         <v>147</v>
       </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
+      <c r="V35" t="s">
+        <v>147</v>
+      </c>
+      <c r="W35" t="s">
+        <v>147</v>
       </c>
       <c r="X35" t="s">
         <v>147</v>
@@ -11003,11 +10529,11 @@
       <c r="AU35" t="s">
         <v>147</v>
       </c>
-      <c r="AV35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>147</v>
+      <c r="AV35">
+        <v>0.5</v>
+      </c>
+      <c r="AW35">
+        <v>0.5</v>
       </c>
       <c r="AX35" t="s">
         <v>147</v>
@@ -11045,17 +10571,17 @@
       <c r="BI35" t="s">
         <v>147</v>
       </c>
-      <c r="BJ35">
-        <v>1</v>
+      <c r="BJ35" t="s">
+        <v>147</v>
       </c>
       <c r="BK35" t="s">
         <v>147</v>
       </c>
-      <c r="BL35">
-        <v>1</v>
-      </c>
-      <c r="BM35">
-        <v>1</v>
+      <c r="BL35" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>147</v>
       </c>
       <c r="BN35" t="s">
         <v>147</v>
@@ -11081,17 +10607,17 @@
       <c r="BU35" t="s">
         <v>147</v>
       </c>
-      <c r="BV35" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>147</v>
+      <c r="BV35">
+        <v>0.6</v>
+      </c>
+      <c r="BW35">
+        <v>0.4</v>
       </c>
       <c r="BX35" t="s">
         <v>147</v>
       </c>
-      <c r="BY35" t="s">
-        <v>147</v>
+      <c r="BY35">
+        <v>0.6</v>
       </c>
       <c r="BZ35" t="s">
         <v>147</v>
@@ -11129,7 +10655,7 @@
         <v>146</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f>D36*$C$2</f>
@@ -11176,158 +10702,158 @@
       <c r="S36" t="s">
         <v>147</v>
       </c>
-      <c r="T36">
+      <c r="T36" t="s">
+        <v>147</v>
+      </c>
+      <c r="U36" t="s">
+        <v>147</v>
+      </c>
+      <c r="V36" t="s">
+        <v>147</v>
+      </c>
+      <c r="W36" t="s">
+        <v>147</v>
+      </c>
+      <c r="X36" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN36">
+        <v>0.6</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO36">
         <v>1</v>
       </c>
-      <c r="U36" t="s">
-        <v>147</v>
-      </c>
-      <c r="V36">
+      <c r="BP36" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ36">
         <v>1</v>
       </c>
-      <c r="W36">
+      <c r="BR36">
         <v>1</v>
-      </c>
-      <c r="X36" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ36">
-        <v>1</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL36">
-        <v>0.8</v>
-      </c>
-      <c r="BM36">
-        <v>0.8</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>147</v>
       </c>
       <c r="BS36" t="s">
         <v>147</v>
@@ -11386,7 +10912,7 @@
         <v>146</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
         <f>D37*$C$2</f>
@@ -11406,14 +10932,14 @@
       <c r="J37" t="s">
         <v>147</v>
       </c>
-      <c r="K37" t="s">
-        <v>147</v>
+      <c r="K37">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>147</v>
       </c>
-      <c r="M37" t="s">
-        <v>147</v>
+      <c r="M37">
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>147</v>
@@ -11580,11 +11106,11 @@
       <c r="BP37" t="s">
         <v>147</v>
       </c>
-      <c r="BQ37" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>147</v>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37">
+        <v>1</v>
       </c>
       <c r="BS37" t="s">
         <v>147</v>
@@ -11643,7 +11169,7 @@
         <v>146</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f>D38*$C$2</f>
@@ -11702,14 +11228,14 @@
       <c r="W38" t="s">
         <v>147</v>
       </c>
-      <c r="X38">
-        <v>0.4</v>
-      </c>
-      <c r="Y38">
-        <v>0.3</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>147</v>
+      <c r="X38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
       </c>
       <c r="AA38" t="s">
         <v>147</v>
@@ -11813,8 +11339,8 @@
       <c r="BH38" t="s">
         <v>147</v>
       </c>
-      <c r="BI38" t="s">
-        <v>147</v>
+      <c r="BI38">
+        <v>1</v>
       </c>
       <c r="BJ38" t="s">
         <v>147</v>
@@ -11900,7 +11426,7 @@
         <v>146</v>
       </c>
       <c r="D39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <f>D39*$C$2</f>
@@ -11911,15 +11437,15 @@
       <c r="G39">
         <f>F39-E39</f>
       </c>
-      <c r="H39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39">
+      <c r="H39">
         <v>0.5</v>
       </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>147</v>
+      </c>
       <c r="K39" t="s">
         <v>147</v>
       </c>
@@ -11929,89 +11455,89 @@
       <c r="M39" t="s">
         <v>147</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>147</v>
+      </c>
+      <c r="R39" t="s">
+        <v>147</v>
+      </c>
+      <c r="S39" t="s">
+        <v>147</v>
+      </c>
+      <c r="T39" t="s">
+        <v>147</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>147</v>
+      </c>
+      <c r="W39" t="s">
+        <v>147</v>
+      </c>
+      <c r="X39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN39">
         <v>0.4</v>
       </c>
-      <c r="O39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39">
-        <v>0.3</v>
-      </c>
-      <c r="R39" t="s">
-        <v>147</v>
-      </c>
-      <c r="S39" t="s">
-        <v>147</v>
-      </c>
-      <c r="T39" t="s">
-        <v>147</v>
-      </c>
-      <c r="U39" t="s">
-        <v>147</v>
-      </c>
-      <c r="V39" t="s">
-        <v>147</v>
-      </c>
-      <c r="W39" t="s">
-        <v>147</v>
-      </c>
-      <c r="X39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>147</v>
+      <c r="AO39">
+        <v>1</v>
       </c>
       <c r="AP39" t="s">
         <v>147</v>
@@ -12058,8 +11584,8 @@
       <c r="BD39" t="s">
         <v>147</v>
       </c>
-      <c r="BE39">
-        <v>0.3</v>
+      <c r="BE39" t="s">
+        <v>147</v>
       </c>
       <c r="BF39" t="s">
         <v>147</v>
@@ -12174,24 +11700,24 @@
       <c r="I40" t="s">
         <v>147</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M40" t="s">
+        <v>147</v>
+      </c>
+      <c r="N40" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40">
         <v>0.5</v>
       </c>
-      <c r="K40" t="s">
-        <v>147</v>
-      </c>
-      <c r="L40" t="s">
-        <v>147</v>
-      </c>
-      <c r="M40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N40">
-        <v>0.6</v>
-      </c>
-      <c r="O40" t="s">
-        <v>147</v>
-      </c>
       <c r="P40" t="s">
         <v>147</v>
       </c>
@@ -12207,8 +11733,8 @@
       <c r="T40" t="s">
         <v>147</v>
       </c>
-      <c r="U40">
-        <v>0.5</v>
+      <c r="U40" t="s">
+        <v>147</v>
       </c>
       <c r="V40" t="s">
         <v>147</v>
@@ -12228,8 +11754,8 @@
       <c r="AA40" t="s">
         <v>147</v>
       </c>
-      <c r="AB40" t="s">
-        <v>147</v>
+      <c r="AB40">
+        <v>1</v>
       </c>
       <c r="AC40" t="s">
         <v>147</v>
@@ -12333,8 +11859,8 @@
       <c r="BJ40" t="s">
         <v>147</v>
       </c>
-      <c r="BK40">
-        <v>0.5</v>
+      <c r="BK40" t="s">
+        <v>147</v>
       </c>
       <c r="BL40" t="s">
         <v>147</v>
@@ -12414,7 +11940,7 @@
         <v>146</v>
       </c>
       <c r="D41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f>D41*$C$2</f>
@@ -12464,8 +11990,8 @@
       <c r="T41" t="s">
         <v>147</v>
       </c>
-      <c r="U41">
-        <v>0.5</v>
+      <c r="U41" t="s">
+        <v>147</v>
       </c>
       <c r="V41" t="s">
         <v>147</v>
@@ -12563,11 +12089,11 @@
       <c r="BA41" t="s">
         <v>147</v>
       </c>
-      <c r="BB41" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>147</v>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+      <c r="BC41">
+        <v>1</v>
       </c>
       <c r="BD41" t="s">
         <v>147</v>
@@ -12587,11 +12113,11 @@
       <c r="BI41" t="s">
         <v>147</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK41">
-        <v>0.5</v>
+      <c r="BJ41">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>147</v>
       </c>
       <c r="BL41" t="s">
         <v>147</v>
@@ -12635,17 +12161,17 @@
       <c r="BY41" t="s">
         <v>147</v>
       </c>
-      <c r="BZ41">
-        <v>0.6</v>
+      <c r="BZ41" t="s">
+        <v>147</v>
       </c>
       <c r="CA41" t="s">
         <v>147</v>
       </c>
-      <c r="CB41">
-        <v>0.4</v>
-      </c>
-      <c r="CC41">
-        <v>0.6</v>
+      <c r="CB41" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>147</v>
       </c>
       <c r="CD41" t="s">
         <v>147</v>
@@ -12671,7 +12197,7 @@
         <v>146</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f>D42*$C$2</f>
@@ -12688,8 +12214,8 @@
       <c r="I42" t="s">
         <v>147</v>
       </c>
-      <c r="J42" t="s">
-        <v>147</v>
+      <c r="J42">
+        <v>0.2</v>
       </c>
       <c r="K42" t="s">
         <v>147</v>
@@ -12748,8 +12274,8 @@
       <c r="AC42" t="s">
         <v>147</v>
       </c>
-      <c r="AD42" t="s">
-        <v>147</v>
+      <c r="AD42">
+        <v>1</v>
       </c>
       <c r="AE42" t="s">
         <v>147</v>
@@ -12772,11 +12298,11 @@
       <c r="AK42" t="s">
         <v>147</v>
       </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
+      <c r="AL42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>147</v>
       </c>
       <c r="AN42" t="s">
         <v>147</v>
@@ -12838,8 +12364,8 @@
       <c r="BG42" t="s">
         <v>147</v>
       </c>
-      <c r="BH42" t="s">
-        <v>147</v>
+      <c r="BH42">
+        <v>0.7</v>
       </c>
       <c r="BI42" t="s">
         <v>147</v>
@@ -12981,8 +12507,8 @@
       <c r="U43" t="s">
         <v>147</v>
       </c>
-      <c r="V43" t="s">
-        <v>147</v>
+      <c r="V43">
+        <v>1</v>
       </c>
       <c r="W43" t="s">
         <v>147</v>
@@ -13002,8 +12528,8 @@
       <c r="AB43" t="s">
         <v>147</v>
       </c>
-      <c r="AC43">
-        <v>1</v>
+      <c r="AC43" t="s">
+        <v>147</v>
       </c>
       <c r="AD43" t="s">
         <v>147</v>
@@ -13062,8 +12588,8 @@
       <c r="AV43" t="s">
         <v>147</v>
       </c>
-      <c r="AW43">
-        <v>1</v>
+      <c r="AW43" t="s">
+        <v>147</v>
       </c>
       <c r="AX43" t="s">
         <v>147</v>
@@ -13095,8 +12621,8 @@
       <c r="BG43" t="s">
         <v>147</v>
       </c>
-      <c r="BH43" t="s">
-        <v>147</v>
+      <c r="BH43">
+        <v>0.3</v>
       </c>
       <c r="BI43" t="s">
         <v>147</v>
@@ -13107,8 +12633,8 @@
       <c r="BK43" t="s">
         <v>147</v>
       </c>
-      <c r="BL43" t="s">
-        <v>147</v>
+      <c r="BL43">
+        <v>0.6</v>
       </c>
       <c r="BM43" t="s">
         <v>147</v>
@@ -13223,8 +12749,8 @@
       <c r="P44" t="s">
         <v>147</v>
       </c>
-      <c r="Q44" t="s">
-        <v>147</v>
+      <c r="Q44">
+        <v>0.6</v>
       </c>
       <c r="R44" t="s">
         <v>147</v>
@@ -13280,11 +12806,11 @@
       <c r="AI44" t="s">
         <v>147</v>
       </c>
-      <c r="AJ44">
-        <v>0.5</v>
-      </c>
-      <c r="AK44">
-        <v>0.5</v>
+      <c r="AJ44" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>147</v>
       </c>
       <c r="AL44" t="s">
         <v>147</v>
@@ -13301,8 +12827,8 @@
       <c r="AP44" t="s">
         <v>147</v>
       </c>
-      <c r="AQ44">
-        <v>0.6</v>
+      <c r="AQ44" t="s">
+        <v>147</v>
       </c>
       <c r="AR44" t="s">
         <v>147</v>
@@ -13364,8 +12890,8 @@
       <c r="BK44" t="s">
         <v>147</v>
       </c>
-      <c r="BL44" t="s">
-        <v>147</v>
+      <c r="BL44">
+        <v>0.4</v>
       </c>
       <c r="BM44" t="s">
         <v>147</v>
@@ -13388,8 +12914,8 @@
       <c r="BS44" t="s">
         <v>147</v>
       </c>
-      <c r="BT44">
-        <v>0.4</v>
+      <c r="BT44" t="s">
+        <v>147</v>
       </c>
       <c r="BU44" t="s">
         <v>147</v>
@@ -13465,8 +12991,8 @@
       <c r="K45" t="s">
         <v>147</v>
       </c>
-      <c r="L45" t="s">
-        <v>147</v>
+      <c r="L45">
+        <v>1</v>
       </c>
       <c r="M45" t="s">
         <v>147</v>
@@ -13492,161 +13018,161 @@
       <c r="T45" t="s">
         <v>147</v>
       </c>
-      <c r="U45">
+      <c r="U45" t="s">
+        <v>147</v>
+      </c>
+      <c r="V45" t="s">
+        <v>147</v>
+      </c>
+      <c r="W45" t="s">
+        <v>147</v>
+      </c>
+      <c r="X45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV45">
         <v>0.5</v>
       </c>
-      <c r="V45" t="s">
-        <v>147</v>
-      </c>
-      <c r="W45" t="s">
-        <v>147</v>
-      </c>
-      <c r="X45" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN45">
-        <v>0.2</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>147</v>
+      <c r="AW45">
+        <v>0.5</v>
       </c>
       <c r="AX45" t="s">
         <v>147</v>
       </c>
-      <c r="AY45">
+      <c r="AY45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS45">
         <v>1</v>
       </c>
-      <c r="AZ45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK45">
-        <v>0.5</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR45">
-        <v>0.7</v>
-      </c>
-      <c r="BS45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT45" t="s">
-        <v>147</v>
+      <c r="BT45">
+        <v>1</v>
       </c>
       <c r="BU45" t="s">
         <v>147</v>
@@ -13710,200 +13236,200 @@
       <c r="G46">
         <f>F46-E46</f>
       </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" t="s">
+        <v>147</v>
+      </c>
+      <c r="N46" t="s">
+        <v>147</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>147</v>
+      </c>
+      <c r="R46" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T46" t="s">
+        <v>147</v>
+      </c>
+      <c r="U46" t="s">
+        <v>147</v>
+      </c>
+      <c r="V46" t="s">
+        <v>147</v>
+      </c>
+      <c r="W46" t="s">
+        <v>147</v>
+      </c>
+      <c r="X46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK46">
+        <v>0.5</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV46">
+        <v>0.5</v>
+      </c>
+      <c r="AW46">
+        <v>0.5</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" t="s">
-        <v>147</v>
-      </c>
-      <c r="K46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" t="s">
-        <v>147</v>
-      </c>
-      <c r="M46" t="s">
-        <v>147</v>
-      </c>
-      <c r="N46" t="s">
-        <v>147</v>
-      </c>
-      <c r="O46" t="s">
-        <v>147</v>
-      </c>
-      <c r="P46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>147</v>
-      </c>
-      <c r="R46" t="s">
-        <v>147</v>
-      </c>
-      <c r="S46" t="s">
-        <v>147</v>
-      </c>
-      <c r="T46" t="s">
-        <v>147</v>
-      </c>
-      <c r="U46">
-        <v>0.5</v>
-      </c>
-      <c r="V46" t="s">
-        <v>147</v>
-      </c>
-      <c r="W46" t="s">
-        <v>147</v>
-      </c>
-      <c r="X46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK46">
-        <v>0.5</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS46" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT46" t="s">
-        <v>147</v>
+      <c r="BT46">
+        <v>1</v>
       </c>
       <c r="BU46" t="s">
         <v>147</v>
@@ -13911,11 +13437,11 @@
       <c r="BV46" t="s">
         <v>147</v>
       </c>
-      <c r="BW46">
-        <v>1</v>
-      </c>
-      <c r="BX46">
-        <v>1</v>
+      <c r="BW46" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>147</v>
       </c>
       <c r="BY46" t="s">
         <v>147</v>
@@ -13929,8 +13455,8 @@
       <c r="CB46" t="s">
         <v>147</v>
       </c>
-      <c r="CC46" t="s">
-        <v>147</v>
+      <c r="CC46">
+        <v>0.6</v>
       </c>
       <c r="CD46" t="s">
         <v>147</v>
@@ -13967,11 +13493,11 @@
       <c r="G47">
         <f>F47-E47</f>
       </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" t="s">
-        <v>147</v>
+      <c r="H47">
+        <v>0.4</v>
+      </c>
+      <c r="I47">
+        <v>0.4</v>
       </c>
       <c r="J47" t="s">
         <v>147</v>
@@ -13997,8 +13523,8 @@
       <c r="Q47" t="s">
         <v>147</v>
       </c>
-      <c r="R47">
-        <v>0.5</v>
+      <c r="R47" t="s">
+        <v>147</v>
       </c>
       <c r="S47" t="s">
         <v>147</v>
@@ -14048,8 +13574,8 @@
       <c r="AH47" t="s">
         <v>147</v>
       </c>
-      <c r="AI47">
-        <v>0.6</v>
+      <c r="AI47" t="s">
+        <v>147</v>
       </c>
       <c r="AJ47" t="s">
         <v>147</v>
@@ -14069,8 +13595,8 @@
       <c r="AO47" t="s">
         <v>147</v>
       </c>
-      <c r="AP47">
-        <v>0.5</v>
+      <c r="AP47" t="s">
+        <v>147</v>
       </c>
       <c r="AQ47" t="s">
         <v>147</v>
@@ -14108,8 +13634,8 @@
       <c r="BB47" t="s">
         <v>147</v>
       </c>
-      <c r="BC47">
-        <v>0.5</v>
+      <c r="BC47" t="s">
+        <v>147</v>
       </c>
       <c r="BD47" t="s">
         <v>147</v>
@@ -14169,31 +13695,31 @@
         <v>147</v>
       </c>
       <c r="BW47">
+        <v>0.2</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE47">
         <v>1</v>
-      </c>
-      <c r="BX47">
-        <v>1</v>
-      </c>
-      <c r="BY47" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ47" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA47" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB47" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC47" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD47" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE47" t="s">
-        <v>147</v>
       </c>
       <c r="CF47" t="s">
         <v>147</v>
@@ -14242,8 +13768,8 @@
       <c r="M48" t="s">
         <v>147</v>
       </c>
-      <c r="N48" t="s">
-        <v>147</v>
+      <c r="N48">
+        <v>0.4</v>
       </c>
       <c r="O48" t="s">
         <v>147</v>
@@ -14260,8 +13786,8 @@
       <c r="S48" t="s">
         <v>147</v>
       </c>
-      <c r="T48" t="s">
-        <v>147</v>
+      <c r="T48">
+        <v>0.5</v>
       </c>
       <c r="U48" t="s">
         <v>147</v>
@@ -14272,141 +13798,141 @@
       <c r="W48" t="s">
         <v>147</v>
       </c>
-      <c r="X48">
+      <c r="X48" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF48">
+        <v>0.7</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP48">
         <v>0.6</v>
       </c>
-      <c r="Y48">
-        <v>0.7</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ48">
-        <v>0.4</v>
-      </c>
-      <c r="AK48">
-        <v>0.4</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO48">
-        <v>0.4</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS48">
-        <v>0.5</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP48" t="s">
-        <v>147</v>
-      </c>
       <c r="BQ48" t="s">
         <v>147</v>
       </c>
@@ -14462,7 +13988,49 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="16:76" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>D49*$C$2</f>
+      </c>
+      <c r="F49">
+        <f>SUMPRODUCT(H$6:CI$6,H9:CI9)</f>
+      </c>
+      <c r="G49">
+        <f>F49-E49</f>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M49" t="s">
+        <v>147</v>
+      </c>
+      <c r="N49" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49" t="s">
+        <v>147</v>
+      </c>
       <c r="P49" t="s">
         <v>147</v>
       </c>
@@ -14472,6 +14040,9 @@
       <c r="R49" t="s">
         <v>147</v>
       </c>
+      <c r="S49" t="s">
+        <v>147</v>
+      </c>
       <c r="T49" t="s">
         <v>147</v>
       </c>
@@ -14484,27 +14055,120 @@
       <c r="W49" t="s">
         <v>147</v>
       </c>
+      <c r="X49" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>147</v>
+      </c>
       <c r="AD49" t="s">
         <v>147</v>
       </c>
       <c r="AE49" t="s">
         <v>147</v>
       </c>
+      <c r="AF49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ49" t="s">
         <v>147</v>
       </c>
       <c r="AK49" t="s">
         <v>147</v>
       </c>
+      <c r="AL49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>147</v>
+      </c>
       <c r="BB49" t="s">
         <v>147</v>
       </c>
       <c r="BC49" t="s">
         <v>147</v>
       </c>
+      <c r="BD49" t="s">
+        <v>147</v>
+      </c>
       <c r="BE49" t="s">
         <v>147</v>
       </c>
+      <c r="BF49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>147</v>
+      </c>
       <c r="BJ49" t="s">
         <v>147</v>
       </c>
@@ -14517,27 +14181,146 @@
       <c r="BM49" t="s">
         <v>147</v>
       </c>
+      <c r="BN49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>147</v>
+      </c>
       <c r="BW49" t="s">
         <v>147</v>
       </c>
       <c r="BX49" t="s">
         <v>147</v>
       </c>
+      <c r="BY49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="50" spans="8:72" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
         <v>137</v>
       </c>
-      <c r="D50">
-        <f>SUM(D9:D49)</f>
-      </c>
-      <c r="U50" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK50" t="s">
+      <c r="D51">
+        <f>SUM(D9:D50)</f>
+      </c>
+      <c r="AV51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW51" t="s">
         <v>147</v>
       </c>
     </row>

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -16,77 +16,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>CAB210</t>
+  </si>
+  <si>
+    <t>CAB220</t>
+  </si>
+  <si>
+    <t>CAB230</t>
+  </si>
+  <si>
+    <t>CAB240</t>
+  </si>
+  <si>
+    <t>CAB301</t>
+  </si>
+  <si>
+    <t>CAB302</t>
+  </si>
+  <si>
+    <t>CAB303</t>
+  </si>
+  <si>
+    <t>CAB202</t>
+  </si>
+  <si>
     <t>CAB201</t>
   </si>
   <si>
-    <t>CAB202</t>
-  </si>
-  <si>
     <t>CAB203</t>
   </si>
   <si>
-    <t>CAB210</t>
-  </si>
-  <si>
-    <t>CAB220</t>
-  </si>
-  <si>
-    <t>CAB230</t>
-  </si>
-  <si>
-    <t>CAB240</t>
-  </si>
-  <si>
-    <t>CAB301</t>
-  </si>
-  <si>
-    <t>CAB302</t>
-  </si>
-  <si>
-    <t>CAB303</t>
-  </si>
-  <si>
     <t>Standard Load:</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>People Context &amp; Tech</t>
+  </si>
+  <si>
+    <t>Fund of Data Science</t>
+  </si>
+  <si>
+    <t>Web Computing</t>
+  </si>
+  <si>
+    <t>Information Security</t>
+  </si>
+  <si>
+    <t>Algorithms &amp; Complexity</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Micro Proc and Dig Sys</t>
+  </si>
+  <si>
     <t>Programming Principles</t>
   </si>
   <si>
-    <t>Micro Proc and Dig Sys</t>
-  </si>
-  <si>
     <t>Discrete Structures</t>
   </si>
   <si>
-    <t>People Context &amp; Tech</t>
-  </si>
-  <si>
-    <t>Fund of Data Science</t>
-  </si>
-  <si>
-    <t>Web Computing</t>
-  </si>
-  <si>
-    <t>Information Security</t>
-  </si>
-  <si>
-    <t>Algorithms &amp; Complexity</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>Networks</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
@@ -126,37 +126,37 @@
     <t>Load Error</t>
   </si>
   <si>
+    <t xml:space="preserve"> Kom Poota</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sergine Aldéric </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dennis Darren </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timotha Lanny </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorrie Sheila </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nia Kerena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellen Tatianna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avice Preston </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mantis Tobogan</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dennis Darren </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sergine Aldéric </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kom Poota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorrie Sheila </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nia Kerena </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Timotha Lanny </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hellen Tatianna </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avice Preston </t>
   </si>
   <si>
     <t>9 Bodies</t>
@@ -569,34 +569,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
@@ -1299,34 +1299,34 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>22</v>
@@ -2020,7 +2020,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2035,25 +2035,25 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="17.45" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2061,40 +2061,40 @@
         <v>24</v>
       </c>
       <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>400</v>
+      </c>
+      <c r="K4">
+        <v>550</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>600</v>
+      </c>
+      <c r="N4">
+        <v>630</v>
+      </c>
+      <c r="O4">
+        <v>670</v>
+      </c>
+      <c r="P4">
         <v>490</v>
       </c>
-      <c r="I4">
+      <c r="Q4">
         <v>610</v>
       </c>
-      <c r="J4">
+      <c r="R4">
         <v>610</v>
       </c>
-      <c r="K4">
-        <v>670</v>
-      </c>
-      <c r="L4">
+      <c r="S4">
         <v>680</v>
-      </c>
-      <c r="M4">
-        <v>180</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
-        <v>400</v>
-      </c>
-      <c r="P4">
-        <v>550</v>
-      </c>
-      <c r="Q4">
-        <v>500</v>
-      </c>
-      <c r="R4">
-        <v>600</v>
-      </c>
-      <c r="S4">
-        <v>630</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2105,34 +2105,34 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>0.6</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0.5</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2149,40 +2149,40 @@
         <v>27</v>
       </c>
       <c r="H6">
-        <v>1.845098</v>
+        <v>1.4101745</v>
       </c>
       <c r="I6">
-        <v>1.9402318</v>
+        <v>0.42693597</v>
       </c>
       <c r="J6">
-        <v>1.164139</v>
+        <v>1.756962</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.8952646</v>
       </c>
       <c r="L6">
-        <v>1.9874109</v>
+        <v>1.853872</v>
       </c>
       <c r="M6">
-        <v>1.4101745</v>
+        <v>1.9330533</v>
       </c>
       <c r="N6">
-        <v>0.42693597</v>
+        <v>1.9542425</v>
       </c>
       <c r="O6">
-        <v>1.756962</v>
+        <v>NaN</v>
       </c>
       <c r="P6">
-        <v>1.8952646</v>
+        <v>NaN</v>
       </c>
       <c r="Q6">
-        <v>1.853872</v>
+        <v>NaN</v>
       </c>
       <c r="R6">
-        <v>1.9330533</v>
+        <v>NaN</v>
       </c>
       <c r="S6">
-        <v>1.9542425</v>
+        <v>NaN</v>
       </c>
       <c r="T6" t="s">
         <v>28</v>
@@ -2307,11 +2307,11 @@
       <c r="G9">
         <f>F9-E9</f>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
@@ -2331,11 +2331,11 @@
       <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>38</v>
@@ -2375,8 +2375,8 @@
       <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="L10" t="s">
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
@@ -2384,8 +2384,8 @@
       <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="O10" t="s">
-        <v>38</v>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2393,8 +2393,8 @@
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" t="s">
-        <v>38</v>
+      <c r="R10">
+        <v>1</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -2425,11 +2425,11 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -2452,8 +2452,8 @@
       <c r="R11" t="s">
         <v>38</v>
       </c>
-      <c r="S11" t="s">
-        <v>38</v>
+      <c r="S11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2537,8 +2537,8 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" t="s">
-        <v>38</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -2552,8 +2552,8 @@
       <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="O13">
-        <v>1</v>
+      <c r="O13" t="s">
+        <v>38</v>
       </c>
       <c r="P13" t="s">
         <v>38</v>
@@ -2596,8 +2596,8 @@
       <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
-        <v>38</v>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
@@ -2611,8 +2611,8 @@
       <c r="O14" t="s">
         <v>38</v>
       </c>
-      <c r="P14">
-        <v>1</v>
+      <c r="P14" t="s">
+        <v>38</v>
       </c>
       <c r="Q14" t="s">
         <v>38</v>
@@ -2661,8 +2661,8 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
+      <c r="N15" t="s">
+        <v>38</v>
       </c>
       <c r="O15" t="s">
         <v>38</v>
@@ -2729,8 +2729,8 @@
       <c r="Q16" t="s">
         <v>38</v>
       </c>
-      <c r="R16">
-        <v>1</v>
+      <c r="R16" t="s">
+        <v>38</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
@@ -2779,8 +2779,8 @@
       <c r="O17" t="s">
         <v>38</v>
       </c>
-      <c r="P17" t="s">
-        <v>38</v>
+      <c r="P17">
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>CAB201</t>
+  </si>
+  <si>
+    <t>CAB202</t>
+  </si>
+  <si>
+    <t>CAB203</t>
+  </si>
+  <si>
     <t>CAB210</t>
   </si>
   <si>
@@ -42,21 +51,21 @@
     <t>CAB303</t>
   </si>
   <si>
-    <t>CAB202</t>
-  </si>
-  <si>
-    <t>CAB201</t>
-  </si>
-  <si>
-    <t>CAB203</t>
-  </si>
-  <si>
     <t>Standard Load:</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Programming Principles</t>
+  </si>
+  <si>
+    <t>Micro Proc and Dig Sys</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
     <t>People Context &amp; Tech</t>
   </si>
   <si>
@@ -78,15 +87,6 @@
     <t>Networks</t>
   </si>
   <si>
-    <t>Micro Proc and Dig Sys</t>
-  </si>
-  <si>
-    <t>Programming Principles</t>
-  </si>
-  <si>
-    <t>Discrete Structures</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
@@ -126,37 +126,37 @@
     <t>Load Error</t>
   </si>
   <si>
+    <t xml:space="preserve"> Mantis Tobogan</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve"> Kom Poota</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve"> Dennis Darren </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timotha Lanny </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorrie Sheila </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nia Kerena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avice Preston </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellen Tatianna </t>
   </si>
   <si>
     <t xml:space="preserve"> Sergine Aldéric </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dennis Darren </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Timotha Lanny </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorrie Sheila </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nia Kerena </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hellen Tatianna </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avice Preston </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mantis Tobogan</t>
   </si>
   <si>
     <t>9 Bodies</t>
@@ -569,34 +569,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
@@ -1299,34 +1299,34 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>22</v>
@@ -2020,7 +2020,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2035,25 +2035,25 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" ht="17.45" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2061,40 +2061,40 @@
         <v>24</v>
       </c>
       <c r="H4">
+        <v>490</v>
+      </c>
+      <c r="I4">
+        <v>610</v>
+      </c>
+      <c r="J4">
+        <v>610</v>
+      </c>
+      <c r="K4">
+        <v>670</v>
+      </c>
+      <c r="L4">
+        <v>680</v>
+      </c>
+      <c r="M4">
         <v>180</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>400</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>550</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>500</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>600</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>630</v>
-      </c>
-      <c r="O4">
-        <v>670</v>
-      </c>
-      <c r="P4">
-        <v>490</v>
-      </c>
-      <c r="Q4">
-        <v>610</v>
-      </c>
-      <c r="R4">
-        <v>610</v>
-      </c>
-      <c r="S4">
-        <v>680</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2105,25 +2105,25 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2149,40 +2149,40 @@
         <v>27</v>
       </c>
       <c r="H6">
+        <v>1.845098</v>
+      </c>
+      <c r="I6">
+        <v>1.9402318</v>
+      </c>
+      <c r="J6">
+        <v>1.164139</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.9874109</v>
+      </c>
+      <c r="M6">
         <v>1.4101745</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>0.42693597</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>1.756962</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <v>1.8952646</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>1.853872</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>1.9330533</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>1.9542425</v>
-      </c>
-      <c r="O6">
-        <v>NaN</v>
-      </c>
-      <c r="P6">
-        <v>NaN</v>
-      </c>
-      <c r="Q6">
-        <v>NaN</v>
-      </c>
-      <c r="R6">
-        <v>NaN</v>
-      </c>
-      <c r="S6">
-        <v>NaN</v>
       </c>
       <c r="T6" t="s">
         <v>28</v>
@@ -2307,11 +2307,11 @@
       <c r="G9">
         <f>F9-E9</f>
       </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
@@ -2331,11 +2331,11 @@
       <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
       </c>
       <c r="R9" t="s">
         <v>38</v>
@@ -2363,11 +2363,11 @@
       <c r="G10">
         <f>F10-E10</f>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -2375,8 +2375,8 @@
       <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
-        <v>38</v>
+      <c r="L10">
+        <v>3</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
@@ -2384,8 +2384,8 @@
       <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="O10">
-        <v>1</v>
+      <c r="O10" t="s">
+        <v>38</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2393,8 +2393,8 @@
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="R10" t="s">
+        <v>38</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -2431,8 +2431,8 @@
       <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s">
-        <v>38</v>
+      <c r="L11">
+        <v>1</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
@@ -2452,8 +2452,8 @@
       <c r="R11" t="s">
         <v>38</v>
       </c>
-      <c r="S11">
-        <v>1</v>
+      <c r="S11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2475,11 +2475,11 @@
       <c r="G12">
         <f>F12-E12</f>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
@@ -2490,11 +2490,11 @@
       <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>38</v>
@@ -2537,8 +2537,8 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -2552,8 +2552,8 @@
       <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="O13" t="s">
-        <v>38</v>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>38</v>
@@ -2596,8 +2596,8 @@
       <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>38</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
@@ -2611,8 +2611,8 @@
       <c r="O14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
-        <v>38</v>
+      <c r="P14">
+        <v>1</v>
       </c>
       <c r="Q14" t="s">
         <v>38</v>
@@ -2658,8 +2658,8 @@
       <c r="L15" t="s">
         <v>38</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>38</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -2670,8 +2670,8 @@
       <c r="P15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
-        <v>38</v>
+      <c r="Q15">
+        <v>1</v>
       </c>
       <c r="R15" t="s">
         <v>38</v>
@@ -2729,8 +2729,8 @@
       <c r="Q16" t="s">
         <v>38</v>
       </c>
-      <c r="R16" t="s">
-        <v>38</v>
+      <c r="R16">
+        <v>1</v>
       </c>
       <c r="S16" t="s">
         <v>38</v>
@@ -2761,11 +2761,11 @@
       <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
@@ -2779,11 +2779,11 @@
       <c r="O17" t="s">
         <v>38</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
       </c>
       <c r="R17" t="s">
         <v>38</v>

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>CAB201</t>
+  </si>
+  <si>
+    <t>CAB202</t>
+  </si>
+  <si>
+    <t>CAB203</t>
+  </si>
+  <si>
     <t>CAB210</t>
   </si>
   <si>
@@ -42,21 +51,21 @@
     <t>CAB303</t>
   </si>
   <si>
-    <t>CAB202</t>
-  </si>
-  <si>
-    <t>CAB201</t>
-  </si>
-  <si>
-    <t>CAB203</t>
-  </si>
-  <si>
     <t>Standard Load:</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Programming Principles</t>
+  </si>
+  <si>
+    <t>Micro Proc and Dig Sys</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
     <t>People Context &amp; Tech</t>
   </si>
   <si>
@@ -78,15 +87,6 @@
     <t>Networks</t>
   </si>
   <si>
-    <t>Micro Proc and Dig Sys</t>
-  </si>
-  <si>
-    <t>Programming Principles</t>
-  </si>
-  <si>
-    <t>Discrete Structures</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
@@ -126,15 +126,18 @@
     <t>Load Error</t>
   </si>
   <si>
+    <t xml:space="preserve"> Mantis Tobogan</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve"> Kom Poota</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve"> Sergine Aldéric </t>
   </si>
   <si>
@@ -150,16 +153,16 @@
     <t xml:space="preserve"> Nia Kerena </t>
   </si>
   <si>
+    <t xml:space="preserve"> Avice Preston </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Hellen Tatianna </t>
   </si>
   <si>
-    <t xml:space="preserve"> Avice Preston </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mantis Tobogan</t>
-  </si>
-  <si>
-    <t>9 Bodies</t>
+    <t>Joel Mehonoshen</t>
+  </si>
+  <si>
+    <t>10 Bodies</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ZZ19"/>
+  <dimension ref="A1:ZZ20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="H1" sqref="H1"/>
@@ -569,34 +572,34 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
@@ -1290,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <f>U6/D19</f>
+        <f>U6/D20</f>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1299,34 +1302,34 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>22</v>
@@ -2020,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2035,25 +2038,25 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" ht="17.45" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2061,40 +2064,40 @@
         <v>24</v>
       </c>
       <c r="H4">
+        <v>490</v>
+      </c>
+      <c r="I4">
+        <v>610</v>
+      </c>
+      <c r="J4">
+        <v>610</v>
+      </c>
+      <c r="K4">
+        <v>670</v>
+      </c>
+      <c r="L4">
+        <v>680</v>
+      </c>
+      <c r="M4">
         <v>180</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>400</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>550</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>500</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>600</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>630</v>
-      </c>
-      <c r="O4">
-        <v>670</v>
-      </c>
-      <c r="P4">
-        <v>490</v>
-      </c>
-      <c r="Q4">
-        <v>610</v>
-      </c>
-      <c r="R4">
-        <v>610</v>
-      </c>
-      <c r="S4">
-        <v>680</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="7:19" x14ac:dyDescent="0.25">
@@ -2105,25 +2108,25 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -2132,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2149,40 +2152,40 @@
         <v>27</v>
       </c>
       <c r="H6">
+        <v>1.845098</v>
+      </c>
+      <c r="I6">
+        <v>1.9402318</v>
+      </c>
+      <c r="J6">
+        <v>1.164139</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.9874109</v>
+      </c>
+      <c r="M6">
         <v>1.4101745</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>0.42693597</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>1.756962</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <v>1.8952646</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>1.853872</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>1.9330533</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>1.9542425</v>
-      </c>
-      <c r="O6">
-        <v>NaN</v>
-      </c>
-      <c r="P6">
-        <v>NaN</v>
-      </c>
-      <c r="Q6">
-        <v>NaN</v>
-      </c>
-      <c r="R6">
-        <v>NaN</v>
-      </c>
-      <c r="S6">
-        <v>NaN</v>
       </c>
       <c r="T6" t="s">
         <v>28</v>
@@ -2307,11 +2310,11 @@
       <c r="G9">
         <f>F9-E9</f>
       </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
@@ -2331,11 +2334,11 @@
       <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
       </c>
       <c r="R9" t="s">
         <v>38</v>
@@ -2363,11 +2366,11 @@
       <c r="G10">
         <f>F10-E10</f>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -2384,8 +2387,8 @@
       <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="O10">
-        <v>1</v>
+      <c r="O10" t="s">
+        <v>38</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2393,8 +2396,8 @@
       <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="R10" t="s">
+        <v>38</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -2425,11 +2428,11 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -2452,8 +2455,8 @@
       <c r="R11" t="s">
         <v>38</v>
       </c>
-      <c r="S11">
-        <v>1</v>
+      <c r="S11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2475,11 +2478,11 @@
       <c r="G12">
         <f>F12-E12</f>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
@@ -2487,8 +2490,8 @@
       <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" t="s">
-        <v>38</v>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
         <v>38</v>
@@ -2537,8 +2540,8 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -2546,11 +2549,11 @@
       <c r="L13" t="s">
         <v>38</v>
       </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
@@ -2596,8 +2599,8 @@
       <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>38</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
@@ -2608,8 +2611,8 @@
       <c r="N14" t="s">
         <v>38</v>
       </c>
-      <c r="O14" t="s">
-        <v>38</v>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>38</v>
@@ -2658,8 +2661,8 @@
       <c r="L15" t="s">
         <v>38</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>38</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -2667,8 +2670,8 @@
       <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" t="s">
-        <v>38</v>
+      <c r="P15">
+        <v>1</v>
       </c>
       <c r="Q15" t="s">
         <v>38</v>
@@ -2726,8 +2729,8 @@
       <c r="P16" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" t="s">
-        <v>38</v>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="R16" t="s">
         <v>38</v>
@@ -2779,28 +2782,84 @@
       <c r="O17" t="s">
         <v>38</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
-        <v>38</v>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
       </c>
       <c r="S17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <f>D18*$C$2</f>
+      </c>
+      <c r="F18">
+        <f>SUMPRODUCT(H$6:T$6,H9:T9)</f>
+      </c>
+      <c r="G18">
+        <f>F18-E18</f>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D19">
-        <f>SUM(D9:D18)</f>
+      <c r="D20">
+        <f>SUM(D9:D19)</f>
       </c>
     </row>
   </sheetData>

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6576" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="190">
   <si>
     <t>Code</t>
   </si>
@@ -516,9 +516,6 @@
     <t xml:space="preserve">D Nineth Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">D Tenth Academic </t>
-  </si>
-  <si>
     <t xml:space="preserve">r First Academic </t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t xml:space="preserve">r Nineth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Tenth Academic </t>
   </si>
   <si>
     <t>40 Bodies</t>
@@ -5989,9 +5989,6 @@
       <c r="G9">
         <f>F9-E9</f>
       </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
       <c r="I9">
         <v>0.1</v>
       </c>
@@ -6297,9 +6294,6 @@
       </c>
       <c r="DF9">
         <v>0.1</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>149</v>
       </c>
       <c r="DH9">
         <v>1</v>
@@ -6489,9 +6483,6 @@
       <c r="G10">
         <f>F10-E10</f>
       </c>
-      <c r="H10" t="s">
-        <v>149</v>
-      </c>
       <c r="I10" t="s">
         <v>149</v>
       </c>
@@ -6796,9 +6787,6 @@
         <v>149</v>
       </c>
       <c r="DF10" t="s">
-        <v>149</v>
-      </c>
-      <c r="DG10" t="s">
         <v>149</v>
       </c>
       <c r="DH10" t="s">
@@ -14478,7 +14466,7 @@
         <v>148</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f>D26*$C$2</f>
@@ -14558,11 +14546,11 @@
       <c r="AD26" t="s">
         <v>149</v>
       </c>
-      <c r="AE26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>149</v>
+      <c r="AE26">
+        <v>0.5</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
       </c>
       <c r="AG26" t="s">
         <v>149</v>
@@ -14639,11 +14627,11 @@
       <c r="BE26" t="s">
         <v>149</v>
       </c>
-      <c r="BF26">
-        <v>0.3</v>
-      </c>
-      <c r="BG26">
-        <v>0.4</v>
+      <c r="BF26" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>149</v>
       </c>
       <c r="BH26" t="s">
         <v>149</v>
@@ -14684,8 +14672,8 @@
       <c r="BT26" t="s">
         <v>149</v>
       </c>
-      <c r="BU26" t="s">
-        <v>149</v>
+      <c r="BU26">
+        <v>0.6</v>
       </c>
       <c r="BV26" t="s">
         <v>149</v>
@@ -14741,8 +14729,8 @@
       <c r="CM26" t="s">
         <v>149</v>
       </c>
-      <c r="CN26" t="s">
-        <v>149</v>
+      <c r="CN26">
+        <v>1</v>
       </c>
       <c r="CO26" t="s">
         <v>149</v>
@@ -14765,8 +14753,8 @@
       <c r="CU26" t="s">
         <v>149</v>
       </c>
-      <c r="CV26">
-        <v>0.4</v>
+      <c r="CV26" t="s">
+        <v>149</v>
       </c>
       <c r="CW26" t="s">
         <v>149</v>
@@ -14876,8 +14864,8 @@
       <c r="EF26" t="s">
         <v>149</v>
       </c>
-      <c r="EG26" t="s">
-        <v>149</v>
+      <c r="EG26">
+        <v>0.6</v>
       </c>
       <c r="EH26" t="s">
         <v>149</v>
@@ -14918,8 +14906,8 @@
       <c r="ET26" t="s">
         <v>149</v>
       </c>
-      <c r="EU26" t="s">
-        <v>149</v>
+      <c r="EU26">
+        <v>0.5</v>
       </c>
       <c r="EV26" t="s">
         <v>149</v>
@@ -14942,8 +14930,8 @@
       <c r="FB26" t="s">
         <v>149</v>
       </c>
-      <c r="FC26">
-        <v>0.3</v>
+      <c r="FC26" t="s">
+        <v>149</v>
       </c>
       <c r="FD26" t="s">
         <v>149</v>
@@ -15058,144 +15046,144 @@
       <c r="AD27" t="s">
         <v>149</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX27">
         <v>0.5</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL27">
-        <v>0.3</v>
-      </c>
-      <c r="AM27">
-        <v>0.3</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU27">
-        <v>0.6</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>149</v>
-      </c>
       <c r="BY27" t="s">
         <v>149</v>
       </c>
@@ -15208,8 +15196,8 @@
       <c r="CB27" t="s">
         <v>149</v>
       </c>
-      <c r="CC27" t="s">
-        <v>149</v>
+      <c r="CC27">
+        <v>1</v>
       </c>
       <c r="CD27" t="s">
         <v>149</v>
@@ -15217,8 +15205,8 @@
       <c r="CE27" t="s">
         <v>149</v>
       </c>
-      <c r="CF27" t="s">
-        <v>149</v>
+      <c r="CF27">
+        <v>1</v>
       </c>
       <c r="CG27" t="s">
         <v>149</v>
@@ -15241,14 +15229,14 @@
       <c r="CM27" t="s">
         <v>149</v>
       </c>
-      <c r="CN27">
-        <v>1</v>
+      <c r="CN27" t="s">
+        <v>149</v>
       </c>
       <c r="CO27" t="s">
         <v>149</v>
       </c>
-      <c r="CP27">
-        <v>0.3</v>
+      <c r="CP27" t="s">
+        <v>149</v>
       </c>
       <c r="CQ27" t="s">
         <v>149</v>
@@ -15280,8 +15268,8 @@
       <c r="CZ27" t="s">
         <v>149</v>
       </c>
-      <c r="DA27" t="s">
-        <v>149</v>
+      <c r="DA27">
+        <v>0.5</v>
       </c>
       <c r="DB27" t="s">
         <v>149</v>
@@ -15376,8 +15364,8 @@
       <c r="EF27" t="s">
         <v>149</v>
       </c>
-      <c r="EG27">
-        <v>0.6</v>
+      <c r="EG27" t="s">
+        <v>149</v>
       </c>
       <c r="EH27" t="s">
         <v>149</v>
@@ -15391,8 +15379,8 @@
       <c r="EK27" t="s">
         <v>149</v>
       </c>
-      <c r="EL27" t="s">
-        <v>149</v>
+      <c r="EL27">
+        <v>1</v>
       </c>
       <c r="EM27" t="s">
         <v>149</v>
@@ -15418,14 +15406,14 @@
       <c r="ET27" t="s">
         <v>149</v>
       </c>
-      <c r="EU27">
-        <v>0.5</v>
+      <c r="EU27" t="s">
+        <v>149</v>
       </c>
       <c r="EV27" t="s">
         <v>149</v>
       </c>
-      <c r="EW27">
-        <v>0.3</v>
+      <c r="EW27" t="s">
+        <v>149</v>
       </c>
       <c r="EX27" t="s">
         <v>149</v>
@@ -15463,8 +15451,8 @@
       <c r="FI27" t="s">
         <v>149</v>
       </c>
-      <c r="FJ27" t="s">
-        <v>149</v>
+      <c r="FJ27">
+        <v>1</v>
       </c>
       <c r="FK27" t="s">
         <v>149</v>
@@ -15492,8 +15480,8 @@
       <c r="H28" t="s">
         <v>149</v>
       </c>
-      <c r="I28" t="s">
-        <v>149</v>
+      <c r="I28">
+        <v>0.6</v>
       </c>
       <c r="J28" t="s">
         <v>149</v>
@@ -15519,8 +15507,8 @@
       <c r="Q28" t="s">
         <v>149</v>
       </c>
-      <c r="R28" t="s">
-        <v>149</v>
+      <c r="R28">
+        <v>0.2</v>
       </c>
       <c r="S28" t="s">
         <v>149</v>
@@ -15693,8 +15681,8 @@
       <c r="BW28" t="s">
         <v>149</v>
       </c>
-      <c r="BX28">
-        <v>0.5</v>
+      <c r="BX28" t="s">
+        <v>149</v>
       </c>
       <c r="BY28" t="s">
         <v>149</v>
@@ -15708,8 +15696,8 @@
       <c r="CB28" t="s">
         <v>149</v>
       </c>
-      <c r="CC28">
-        <v>1</v>
+      <c r="CC28" t="s">
+        <v>149</v>
       </c>
       <c r="CD28" t="s">
         <v>149</v>
@@ -15717,8 +15705,8 @@
       <c r="CE28" t="s">
         <v>149</v>
       </c>
-      <c r="CF28">
-        <v>1</v>
+      <c r="CF28" t="s">
+        <v>149</v>
       </c>
       <c r="CG28" t="s">
         <v>149</v>
@@ -15780,8 +15768,8 @@
       <c r="CZ28" t="s">
         <v>149</v>
       </c>
-      <c r="DA28">
-        <v>0.5</v>
+      <c r="DA28" t="s">
+        <v>149</v>
       </c>
       <c r="DB28" t="s">
         <v>149</v>
@@ -15792,11 +15780,11 @@
       <c r="DD28" t="s">
         <v>149</v>
       </c>
-      <c r="DE28" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF28" t="s">
-        <v>149</v>
+      <c r="DE28">
+        <v>0.6</v>
+      </c>
+      <c r="DF28">
+        <v>0.6</v>
       </c>
       <c r="DG28" t="s">
         <v>149</v>
@@ -15891,11 +15879,11 @@
       <c r="EK28" t="s">
         <v>149</v>
       </c>
-      <c r="EL28">
-        <v>1</v>
-      </c>
-      <c r="EM28" t="s">
-        <v>149</v>
+      <c r="EL28" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM28">
+        <v>0.6</v>
       </c>
       <c r="EN28" t="s">
         <v>149</v>
@@ -15906,8 +15894,8 @@
       <c r="EP28" t="s">
         <v>149</v>
       </c>
-      <c r="EQ28" t="s">
-        <v>149</v>
+      <c r="EQ28">
+        <v>0.2</v>
       </c>
       <c r="ER28" t="s">
         <v>149</v>
@@ -15963,8 +15951,8 @@
       <c r="FI28" t="s">
         <v>149</v>
       </c>
-      <c r="FJ28">
-        <v>1</v>
+      <c r="FJ28" t="s">
+        <v>149</v>
       </c>
       <c r="FK28" t="s">
         <v>149</v>
@@ -15993,7 +15981,7 @@
         <v>149</v>
       </c>
       <c r="I29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J29" t="s">
         <v>149</v>
@@ -16019,8 +16007,8 @@
       <c r="Q29" t="s">
         <v>149</v>
       </c>
-      <c r="R29">
-        <v>0.2</v>
+      <c r="R29" t="s">
+        <v>149</v>
       </c>
       <c r="S29" t="s">
         <v>149</v>
@@ -16031,8 +16019,8 @@
       <c r="U29" t="s">
         <v>149</v>
       </c>
-      <c r="V29" t="s">
-        <v>149</v>
+      <c r="V29">
+        <v>0.4</v>
       </c>
       <c r="W29" t="s">
         <v>149</v>
@@ -16148,8 +16136,8 @@
       <c r="BH29" t="s">
         <v>149</v>
       </c>
-      <c r="BI29" t="s">
-        <v>149</v>
+      <c r="BI29">
+        <v>1</v>
       </c>
       <c r="BJ29" t="s">
         <v>149</v>
@@ -16163,8 +16151,8 @@
       <c r="BM29" t="s">
         <v>149</v>
       </c>
-      <c r="BN29" t="s">
-        <v>149</v>
+      <c r="BN29">
+        <v>1</v>
       </c>
       <c r="BO29" t="s">
         <v>149</v>
@@ -16232,8 +16220,8 @@
       <c r="CJ29" t="s">
         <v>149</v>
       </c>
-      <c r="CK29" t="s">
-        <v>149</v>
+      <c r="CK29">
+        <v>0.4</v>
       </c>
       <c r="CL29" t="s">
         <v>149</v>
@@ -16271,8 +16259,8 @@
       <c r="CW29" t="s">
         <v>149</v>
       </c>
-      <c r="CX29" t="s">
-        <v>149</v>
+      <c r="CX29">
+        <v>1</v>
       </c>
       <c r="CY29" t="s">
         <v>149</v>
@@ -16293,10 +16281,10 @@
         <v>149</v>
       </c>
       <c r="DE29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DF29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DG29" t="s">
         <v>149</v>
@@ -16395,7 +16383,7 @@
         <v>149</v>
       </c>
       <c r="EM29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="EN29" t="s">
         <v>149</v>
@@ -16406,8 +16394,8 @@
       <c r="EP29" t="s">
         <v>149</v>
       </c>
-      <c r="EQ29">
-        <v>0.2</v>
+      <c r="EQ29" t="s">
+        <v>149</v>
       </c>
       <c r="ER29" t="s">
         <v>149</v>
@@ -16445,8 +16433,8 @@
       <c r="FC29" t="s">
         <v>149</v>
       </c>
-      <c r="FD29" t="s">
-        <v>149</v>
+      <c r="FD29">
+        <v>1</v>
       </c>
       <c r="FE29" t="s">
         <v>149</v>
@@ -16492,47 +16480,47 @@
       <c r="H30" t="s">
         <v>149</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>149</v>
+      </c>
+      <c r="R30" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30">
         <v>0.5</v>
       </c>
-      <c r="J30" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" t="s">
-        <v>149</v>
-      </c>
-      <c r="M30" t="s">
-        <v>149</v>
-      </c>
-      <c r="N30" t="s">
-        <v>149</v>
-      </c>
-      <c r="O30" t="s">
-        <v>149</v>
-      </c>
-      <c r="P30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>149</v>
-      </c>
-      <c r="R30" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30" t="s">
-        <v>149</v>
-      </c>
       <c r="T30" t="s">
         <v>149</v>
       </c>
       <c r="U30" t="s">
         <v>149</v>
       </c>
-      <c r="V30">
-        <v>0.4</v>
+      <c r="V30" t="s">
+        <v>149</v>
       </c>
       <c r="W30" t="s">
         <v>149</v>
@@ -16552,8 +16540,8 @@
       <c r="AB30" t="s">
         <v>149</v>
       </c>
-      <c r="AC30" t="s">
-        <v>149</v>
+      <c r="AC30">
+        <v>0.6</v>
       </c>
       <c r="AD30" t="s">
         <v>149</v>
@@ -16609,11 +16597,11 @@
       <c r="AU30" t="s">
         <v>149</v>
       </c>
-      <c r="AV30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>149</v>
+      <c r="AV30">
+        <v>0.5</v>
+      </c>
+      <c r="AW30">
+        <v>0.5</v>
       </c>
       <c r="AX30" t="s">
         <v>149</v>
@@ -16621,11 +16609,11 @@
       <c r="AY30" t="s">
         <v>149</v>
       </c>
-      <c r="AZ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>149</v>
+      <c r="AZ30">
+        <v>0.2</v>
+      </c>
+      <c r="BA30">
+        <v>0.2</v>
       </c>
       <c r="BB30" t="s">
         <v>149</v>
@@ -16648,8 +16636,8 @@
       <c r="BH30" t="s">
         <v>149</v>
       </c>
-      <c r="BI30">
-        <v>1</v>
+      <c r="BI30" t="s">
+        <v>149</v>
       </c>
       <c r="BJ30" t="s">
         <v>149</v>
@@ -16663,8 +16651,8 @@
       <c r="BM30" t="s">
         <v>149</v>
       </c>
-      <c r="BN30">
-        <v>1</v>
+      <c r="BN30" t="s">
+        <v>149</v>
       </c>
       <c r="BO30" t="s">
         <v>149</v>
@@ -16729,17 +16717,17 @@
       <c r="CI30" t="s">
         <v>149</v>
       </c>
-      <c r="CJ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="CK30">
-        <v>0.4</v>
+      <c r="CJ30">
+        <v>0.5</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>149</v>
       </c>
       <c r="CL30" t="s">
         <v>149</v>
       </c>
-      <c r="CM30" t="s">
-        <v>149</v>
+      <c r="CM30">
+        <v>0.6</v>
       </c>
       <c r="CN30" t="s">
         <v>149</v>
@@ -16756,11 +16744,11 @@
       <c r="CR30" t="s">
         <v>149</v>
       </c>
-      <c r="CS30" t="s">
-        <v>149</v>
-      </c>
-      <c r="CT30" t="s">
-        <v>149</v>
+      <c r="CS30">
+        <v>0.5</v>
+      </c>
+      <c r="CT30">
+        <v>0.2</v>
       </c>
       <c r="CU30" t="s">
         <v>149</v>
@@ -16771,8 +16759,8 @@
       <c r="CW30" t="s">
         <v>149</v>
       </c>
-      <c r="CX30">
-        <v>1</v>
+      <c r="CX30" t="s">
+        <v>149</v>
       </c>
       <c r="CY30" t="s">
         <v>149</v>
@@ -16792,150 +16780,150 @@
       <c r="DD30" t="s">
         <v>149</v>
       </c>
-      <c r="DE30">
+      <c r="DE30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DV30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY30">
+        <v>0.2</v>
+      </c>
+      <c r="DZ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC30" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EJ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EP30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER30" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES30" t="s">
+        <v>149</v>
+      </c>
+      <c r="ET30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EX30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EY30" t="s">
+        <v>149</v>
+      </c>
+      <c r="EZ30">
         <v>0.5</v>
       </c>
-      <c r="DF30">
-        <v>0.5</v>
-      </c>
-      <c r="DG30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DN30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DO30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DP30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DQ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DR30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DS30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DT30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DV30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DW30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DX30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY30" t="s">
-        <v>149</v>
-      </c>
-      <c r="DZ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EA30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EB30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EC30" t="s">
-        <v>149</v>
-      </c>
-      <c r="ED30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EE30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EF30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EG30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EH30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EI30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EJ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM30">
-        <v>0.5</v>
-      </c>
-      <c r="EN30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EO30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EQ30" t="s">
-        <v>149</v>
-      </c>
-      <c r="ER30" t="s">
-        <v>149</v>
-      </c>
-      <c r="ES30" t="s">
-        <v>149</v>
-      </c>
-      <c r="ET30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EW30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EX30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY30" t="s">
-        <v>149</v>
-      </c>
-      <c r="EZ30" t="s">
-        <v>149</v>
-      </c>
       <c r="FA30" t="s">
         <v>149</v>
       </c>
@@ -16945,8 +16933,8 @@
       <c r="FC30" t="s">
         <v>149</v>
       </c>
-      <c r="FD30">
-        <v>1</v>
+      <c r="FD30" t="s">
+        <v>149</v>
       </c>
       <c r="FE30" t="s">
         <v>149</v>
@@ -17022,8 +17010,8 @@
       <c r="R31" t="s">
         <v>149</v>
       </c>
-      <c r="S31">
-        <v>0.5</v>
+      <c r="S31" t="s">
+        <v>149</v>
       </c>
       <c r="T31" t="s">
         <v>149</v>
@@ -17052,47 +17040,47 @@
       <c r="AB31" t="s">
         <v>149</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP31">
         <v>0.6</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>149</v>
       </c>
       <c r="AQ31" t="s">
         <v>149</v>
@@ -17121,11 +17109,11 @@
       <c r="AY31" t="s">
         <v>149</v>
       </c>
-      <c r="AZ31">
-        <v>0.2</v>
-      </c>
-      <c r="BA31">
-        <v>0.2</v>
+      <c r="AZ31" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>149</v>
       </c>
       <c r="BB31" t="s">
         <v>149</v>
@@ -17151,8 +17139,8 @@
       <c r="BI31" t="s">
         <v>149</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>149</v>
+      <c r="BJ31">
+        <v>1</v>
       </c>
       <c r="BK31" t="s">
         <v>149</v>
@@ -17172,11 +17160,11 @@
       <c r="BP31" t="s">
         <v>149</v>
       </c>
-      <c r="BQ31" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>149</v>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31">
+        <v>1</v>
       </c>
       <c r="BS31" t="s">
         <v>149</v>
@@ -17229,8 +17217,8 @@
       <c r="CI31" t="s">
         <v>149</v>
       </c>
-      <c r="CJ31">
-        <v>0.5</v>
+      <c r="CJ31" t="s">
+        <v>149</v>
       </c>
       <c r="CK31" t="s">
         <v>149</v>
@@ -17238,20 +17226,20 @@
       <c r="CL31" t="s">
         <v>149</v>
       </c>
-      <c r="CM31">
+      <c r="CM31" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>149</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>149</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>149</v>
+      </c>
+      <c r="CQ31">
         <v>0.6</v>
-      </c>
-      <c r="CN31" t="s">
-        <v>149</v>
-      </c>
-      <c r="CO31" t="s">
-        <v>149</v>
-      </c>
-      <c r="CP31" t="s">
-        <v>149</v>
-      </c>
-      <c r="CQ31" t="s">
-        <v>149</v>
       </c>
       <c r="CR31" t="s">
         <v>149</v>
@@ -17259,8 +17247,8 @@
       <c r="CS31">
         <v>0.5</v>
       </c>
-      <c r="CT31">
-        <v>0.2</v>
+      <c r="CT31" t="s">
+        <v>149</v>
       </c>
       <c r="CU31" t="s">
         <v>149</v>
@@ -17268,14 +17256,14 @@
       <c r="CV31" t="s">
         <v>149</v>
       </c>
-      <c r="CW31" t="s">
-        <v>149</v>
+      <c r="CW31">
+        <v>1</v>
       </c>
       <c r="CX31" t="s">
         <v>149</v>
       </c>
-      <c r="CY31" t="s">
-        <v>149</v>
+      <c r="CY31">
+        <v>1</v>
       </c>
       <c r="CZ31" t="s">
         <v>149</v>
@@ -17352,8 +17340,8 @@
       <c r="DX31" t="s">
         <v>149</v>
       </c>
-      <c r="DY31">
-        <v>0.2</v>
+      <c r="DY31" t="s">
+        <v>149</v>
       </c>
       <c r="DZ31" t="s">
         <v>149</v>
@@ -17373,8 +17361,8 @@
       <c r="EE31" t="s">
         <v>149</v>
       </c>
-      <c r="EF31" t="s">
-        <v>149</v>
+      <c r="EF31">
+        <v>1</v>
       </c>
       <c r="EG31" t="s">
         <v>149</v>
@@ -17543,8 +17531,8 @@
       <c r="Y32" t="s">
         <v>149</v>
       </c>
-      <c r="Z32" t="s">
-        <v>149</v>
+      <c r="Z32">
+        <v>1</v>
       </c>
       <c r="AA32" t="s">
         <v>149</v>
@@ -17591,8 +17579,8 @@
       <c r="AO32" t="s">
         <v>149</v>
       </c>
-      <c r="AP32">
-        <v>0.6</v>
+      <c r="AP32" t="s">
+        <v>149</v>
       </c>
       <c r="AQ32" t="s">
         <v>149</v>
@@ -17609,11 +17597,11 @@
       <c r="AU32" t="s">
         <v>149</v>
       </c>
-      <c r="AV32">
-        <v>0.5</v>
-      </c>
-      <c r="AW32">
-        <v>0.5</v>
+      <c r="AV32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>149</v>
       </c>
       <c r="AX32" t="s">
         <v>149</v>
@@ -17651,8 +17639,8 @@
       <c r="BI32" t="s">
         <v>149</v>
       </c>
-      <c r="BJ32">
-        <v>1</v>
+      <c r="BJ32" t="s">
+        <v>149</v>
       </c>
       <c r="BK32" t="s">
         <v>149</v>
@@ -17666,8 +17654,8 @@
       <c r="BN32" t="s">
         <v>149</v>
       </c>
-      <c r="BO32" t="s">
-        <v>149</v>
+      <c r="BO32">
+        <v>1</v>
       </c>
       <c r="BP32" t="s">
         <v>149</v>
@@ -17735,8 +17723,8 @@
       <c r="CK32" t="s">
         <v>149</v>
       </c>
-      <c r="CL32" t="s">
-        <v>149</v>
+      <c r="CL32">
+        <v>1</v>
       </c>
       <c r="CM32" t="s">
         <v>149</v>
@@ -17750,14 +17738,14 @@
       <c r="CP32" t="s">
         <v>149</v>
       </c>
-      <c r="CQ32">
-        <v>0.6</v>
+      <c r="CQ32" t="s">
+        <v>149</v>
       </c>
       <c r="CR32" t="s">
         <v>149</v>
       </c>
-      <c r="CS32">
-        <v>0.5</v>
+      <c r="CS32" t="s">
+        <v>149</v>
       </c>
       <c r="CT32" t="s">
         <v>149</v>
@@ -17768,8 +17756,8 @@
       <c r="CV32" t="s">
         <v>149</v>
       </c>
-      <c r="CW32">
-        <v>1</v>
+      <c r="CW32" t="s">
+        <v>149</v>
       </c>
       <c r="CX32" t="s">
         <v>149</v>
@@ -17870,8 +17858,8 @@
       <c r="ED32" t="s">
         <v>149</v>
       </c>
-      <c r="EE32" t="s">
-        <v>149</v>
+      <c r="EE32">
+        <v>1</v>
       </c>
       <c r="EF32">
         <v>1</v>
@@ -17933,8 +17921,8 @@
       <c r="EY32" t="s">
         <v>149</v>
       </c>
-      <c r="EZ32">
-        <v>0.5</v>
+      <c r="EZ32" t="s">
+        <v>149</v>
       </c>
       <c r="FA32" t="s">
         <v>149</v>
@@ -17992,8 +17980,8 @@
       <c r="H33" t="s">
         <v>149</v>
       </c>
-      <c r="I33" t="s">
-        <v>149</v>
+      <c r="I33">
+        <v>0.5</v>
       </c>
       <c r="J33" t="s">
         <v>149</v>
@@ -18028,8 +18016,8 @@
       <c r="T33" t="s">
         <v>149</v>
       </c>
-      <c r="U33" t="s">
-        <v>149</v>
+      <c r="U33">
+        <v>1</v>
       </c>
       <c r="V33" t="s">
         <v>149</v>
@@ -18043,8 +18031,8 @@
       <c r="Y33" t="s">
         <v>149</v>
       </c>
-      <c r="Z33">
-        <v>1</v>
+      <c r="Z33" t="s">
+        <v>149</v>
       </c>
       <c r="AA33" t="s">
         <v>149</v>
@@ -18091,11 +18079,11 @@
       <c r="AO33" t="s">
         <v>149</v>
       </c>
-      <c r="AP33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>149</v>
+      <c r="AP33">
+        <v>0.4</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
       </c>
       <c r="AR33" t="s">
         <v>149</v>
@@ -18166,17 +18154,17 @@
       <c r="BN33" t="s">
         <v>149</v>
       </c>
-      <c r="BO33">
-        <v>1</v>
+      <c r="BO33" t="s">
+        <v>149</v>
       </c>
       <c r="BP33" t="s">
         <v>149</v>
       </c>
-      <c r="BQ33">
-        <v>1</v>
-      </c>
-      <c r="BR33">
-        <v>1</v>
+      <c r="BQ33" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>149</v>
       </c>
       <c r="BS33" t="s">
         <v>149</v>
@@ -18235,8 +18223,8 @@
       <c r="CK33" t="s">
         <v>149</v>
       </c>
-      <c r="CL33">
-        <v>1</v>
+      <c r="CL33" t="s">
+        <v>149</v>
       </c>
       <c r="CM33" t="s">
         <v>149</v>
@@ -18250,8 +18238,8 @@
       <c r="CP33" t="s">
         <v>149</v>
       </c>
-      <c r="CQ33" t="s">
-        <v>149</v>
+      <c r="CQ33">
+        <v>0.4</v>
       </c>
       <c r="CR33" t="s">
         <v>149</v>
@@ -18274,8 +18262,8 @@
       <c r="CX33" t="s">
         <v>149</v>
       </c>
-      <c r="CY33">
-        <v>1</v>
+      <c r="CY33" t="s">
+        <v>149</v>
       </c>
       <c r="CZ33" t="s">
         <v>149</v>
@@ -18292,11 +18280,11 @@
       <c r="DD33" t="s">
         <v>149</v>
       </c>
-      <c r="DE33" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF33" t="s">
-        <v>149</v>
+      <c r="DE33">
+        <v>0.5</v>
+      </c>
+      <c r="DF33">
+        <v>0.5</v>
       </c>
       <c r="DG33" t="s">
         <v>149</v>
@@ -18340,8 +18328,8 @@
       <c r="DT33" t="s">
         <v>149</v>
       </c>
-      <c r="DU33" t="s">
-        <v>149</v>
+      <c r="DU33">
+        <v>1</v>
       </c>
       <c r="DV33" t="s">
         <v>149</v>
@@ -18370,11 +18358,11 @@
       <c r="ED33" t="s">
         <v>149</v>
       </c>
-      <c r="EE33">
-        <v>1</v>
-      </c>
-      <c r="EF33">
-        <v>1</v>
+      <c r="EE33" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>149</v>
       </c>
       <c r="EG33" t="s">
         <v>149</v>
@@ -18394,8 +18382,8 @@
       <c r="EL33" t="s">
         <v>149</v>
       </c>
-      <c r="EM33" t="s">
-        <v>149</v>
+      <c r="EM33">
+        <v>0.5</v>
       </c>
       <c r="EN33" t="s">
         <v>149</v>
@@ -18409,8 +18397,8 @@
       <c r="EQ33" t="s">
         <v>149</v>
       </c>
-      <c r="ER33" t="s">
-        <v>149</v>
+      <c r="ER33">
+        <v>1</v>
       </c>
       <c r="ES33" t="s">
         <v>149</v>
@@ -18492,27 +18480,27 @@
       <c r="H34" t="s">
         <v>149</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34">
         <v>0.5</v>
       </c>
-      <c r="J34" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" t="s">
-        <v>149</v>
-      </c>
-      <c r="N34" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" t="s">
-        <v>149</v>
-      </c>
       <c r="P34" t="s">
         <v>149</v>
       </c>
@@ -18528,8 +18516,8 @@
       <c r="T34" t="s">
         <v>149</v>
       </c>
-      <c r="U34">
-        <v>1</v>
+      <c r="U34" t="s">
+        <v>149</v>
       </c>
       <c r="V34" t="s">
         <v>149</v>
@@ -18549,8 +18537,8 @@
       <c r="AA34" t="s">
         <v>149</v>
       </c>
-      <c r="AB34" t="s">
-        <v>149</v>
+      <c r="AB34">
+        <v>1</v>
       </c>
       <c r="AC34" t="s">
         <v>149</v>
@@ -18591,11 +18579,11 @@
       <c r="AO34" t="s">
         <v>149</v>
       </c>
-      <c r="AP34">
-        <v>0.4</v>
-      </c>
-      <c r="AQ34">
-        <v>1</v>
+      <c r="AP34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>149</v>
       </c>
       <c r="AR34" t="s">
         <v>149</v>
@@ -18750,8 +18738,8 @@
       <c r="CP34" t="s">
         <v>149</v>
       </c>
-      <c r="CQ34">
-        <v>0.4</v>
+      <c r="CQ34" t="s">
+        <v>149</v>
       </c>
       <c r="CR34" t="s">
         <v>149</v>
@@ -18792,131 +18780,131 @@
       <c r="DD34" t="s">
         <v>149</v>
       </c>
-      <c r="DE34">
+      <c r="DE34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>149</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC34" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EJ34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO34" t="s">
+        <v>149</v>
+      </c>
+      <c r="EP34">
         <v>0.5</v>
       </c>
-      <c r="DF34">
-        <v>0.5</v>
-      </c>
-      <c r="DG34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DN34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DO34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DP34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DR34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DS34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DT34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU34">
-        <v>1</v>
-      </c>
-      <c r="DV34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DW34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DX34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY34" t="s">
-        <v>149</v>
-      </c>
-      <c r="DZ34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EA34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EB34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EC34" t="s">
-        <v>149</v>
-      </c>
-      <c r="ED34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EE34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EF34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EG34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EH34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EI34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EJ34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM34">
-        <v>0.5</v>
-      </c>
-      <c r="EN34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EO34" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP34" t="s">
-        <v>149</v>
-      </c>
       <c r="EQ34" t="s">
         <v>149</v>
       </c>
-      <c r="ER34">
-        <v>1</v>
+      <c r="ER34" t="s">
+        <v>149</v>
       </c>
       <c r="ES34" t="s">
         <v>149</v>
       </c>
-      <c r="ET34" t="s">
-        <v>149</v>
+      <c r="ET34">
+        <v>1</v>
       </c>
       <c r="EU34" t="s">
         <v>149</v>
@@ -19010,8 +18998,8 @@
       <c r="N35" t="s">
         <v>149</v>
       </c>
-      <c r="O35">
-        <v>0.5</v>
+      <c r="O35" t="s">
+        <v>149</v>
       </c>
       <c r="P35" t="s">
         <v>149</v>
@@ -19049,8 +19037,8 @@
       <c r="AA35" t="s">
         <v>149</v>
       </c>
-      <c r="AB35">
-        <v>1</v>
+      <c r="AB35" t="s">
+        <v>149</v>
       </c>
       <c r="AC35" t="s">
         <v>149</v>
@@ -19127,11 +19115,11 @@
       <c r="BA35" t="s">
         <v>149</v>
       </c>
-      <c r="BB35" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>149</v>
+      <c r="BB35">
+        <v>1</v>
+      </c>
+      <c r="BC35">
+        <v>1</v>
       </c>
       <c r="BD35" t="s">
         <v>149</v>
@@ -19160,8 +19148,8 @@
       <c r="BL35" t="s">
         <v>149</v>
       </c>
-      <c r="BM35" t="s">
-        <v>149</v>
+      <c r="BM35">
+        <v>1</v>
       </c>
       <c r="BN35" t="s">
         <v>149</v>
@@ -19355,8 +19343,8 @@
       <c r="DY35" t="s">
         <v>149</v>
       </c>
-      <c r="DZ35" t="s">
-        <v>149</v>
+      <c r="DZ35">
+        <v>1</v>
       </c>
       <c r="EA35" t="s">
         <v>149</v>
@@ -19403,8 +19391,8 @@
       <c r="EO35" t="s">
         <v>149</v>
       </c>
-      <c r="EP35">
-        <v>0.5</v>
+      <c r="EP35" t="s">
+        <v>149</v>
       </c>
       <c r="EQ35" t="s">
         <v>149</v>
@@ -19415,8 +19403,8 @@
       <c r="ES35" t="s">
         <v>149</v>
       </c>
-      <c r="ET35">
-        <v>1</v>
+      <c r="ET35" t="s">
+        <v>149</v>
       </c>
       <c r="EU35" t="s">
         <v>149</v>
@@ -19439,8 +19427,8 @@
       <c r="FA35" t="s">
         <v>149</v>
       </c>
-      <c r="FB35" t="s">
-        <v>149</v>
+      <c r="FB35">
+        <v>1</v>
       </c>
       <c r="FC35" t="s">
         <v>149</v>
@@ -19448,8 +19436,8 @@
       <c r="FD35" t="s">
         <v>149</v>
       </c>
-      <c r="FE35" t="s">
-        <v>149</v>
+      <c r="FE35">
+        <v>1</v>
       </c>
       <c r="FF35" t="s">
         <v>149</v>
@@ -19513,8 +19501,8 @@
       <c r="O36" t="s">
         <v>149</v>
       </c>
-      <c r="P36" t="s">
-        <v>149</v>
+      <c r="P36">
+        <v>0.6</v>
       </c>
       <c r="Q36" t="s">
         <v>149</v>
@@ -19627,11 +19615,11 @@
       <c r="BA36" t="s">
         <v>149</v>
       </c>
-      <c r="BB36">
-        <v>1</v>
-      </c>
-      <c r="BC36">
-        <v>1</v>
+      <c r="BB36" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>149</v>
       </c>
       <c r="BD36" t="s">
         <v>149</v>
@@ -19657,11 +19645,11 @@
       <c r="BK36" t="s">
         <v>149</v>
       </c>
-      <c r="BL36" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM36">
-        <v>1</v>
+      <c r="BL36">
+        <v>0.4</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>149</v>
       </c>
       <c r="BN36" t="s">
         <v>149</v>
@@ -19726,8 +19714,8 @@
       <c r="CH36" t="s">
         <v>149</v>
       </c>
-      <c r="CI36" t="s">
-        <v>149</v>
+      <c r="CI36">
+        <v>0.6</v>
       </c>
       <c r="CJ36" t="s">
         <v>149</v>
@@ -19855,8 +19843,8 @@
       <c r="DY36" t="s">
         <v>149</v>
       </c>
-      <c r="DZ36">
-        <v>1</v>
+      <c r="DZ36" t="s">
+        <v>149</v>
       </c>
       <c r="EA36" t="s">
         <v>149</v>
@@ -19867,8 +19855,8 @@
       <c r="EC36" t="s">
         <v>149</v>
       </c>
-      <c r="ED36" t="s">
-        <v>149</v>
+      <c r="ED36">
+        <v>0.4</v>
       </c>
       <c r="EE36" t="s">
         <v>149</v>
@@ -19939,8 +19927,8 @@
       <c r="FA36" t="s">
         <v>149</v>
       </c>
-      <c r="FB36">
-        <v>1</v>
+      <c r="FB36" t="s">
+        <v>149</v>
       </c>
       <c r="FC36" t="s">
         <v>149</v>
@@ -19948,8 +19936,8 @@
       <c r="FD36" t="s">
         <v>149</v>
       </c>
-      <c r="FE36">
-        <v>1</v>
+      <c r="FE36" t="s">
+        <v>149</v>
       </c>
       <c r="FF36" t="s">
         <v>149</v>
@@ -20001,8 +19989,8 @@
       <c r="K37" t="s">
         <v>149</v>
       </c>
-      <c r="L37" t="s">
-        <v>149</v>
+      <c r="L37">
+        <v>0.2</v>
       </c>
       <c r="M37" t="s">
         <v>149</v>
@@ -20013,8 +20001,8 @@
       <c r="O37" t="s">
         <v>149</v>
       </c>
-      <c r="P37">
-        <v>0.6</v>
+      <c r="P37" t="s">
+        <v>149</v>
       </c>
       <c r="Q37" t="s">
         <v>149</v>
@@ -20055,8 +20043,8 @@
       <c r="AC37" t="s">
         <v>149</v>
       </c>
-      <c r="AD37" t="s">
-        <v>149</v>
+      <c r="AD37">
+        <v>1</v>
       </c>
       <c r="AE37" t="s">
         <v>149</v>
@@ -20109,11 +20097,11 @@
       <c r="AU37" t="s">
         <v>149</v>
       </c>
-      <c r="AV37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>149</v>
+      <c r="AV37">
+        <v>0.5</v>
+      </c>
+      <c r="AW37">
+        <v>0.5</v>
       </c>
       <c r="AX37" t="s">
         <v>149</v>
@@ -20139,14 +20127,14 @@
       <c r="BE37" t="s">
         <v>149</v>
       </c>
-      <c r="BF37" t="s">
-        <v>149</v>
+      <c r="BF37">
+        <v>0.5</v>
       </c>
       <c r="BG37" t="s">
         <v>149</v>
       </c>
-      <c r="BH37" t="s">
-        <v>149</v>
+      <c r="BH37">
+        <v>0.7</v>
       </c>
       <c r="BI37" t="s">
         <v>149</v>
@@ -20157,8 +20145,8 @@
       <c r="BK37" t="s">
         <v>149</v>
       </c>
-      <c r="BL37">
-        <v>0.4</v>
+      <c r="BL37" t="s">
+        <v>149</v>
       </c>
       <c r="BM37" t="s">
         <v>149</v>
@@ -20226,8 +20214,8 @@
       <c r="CH37" t="s">
         <v>149</v>
       </c>
-      <c r="CI37">
-        <v>0.6</v>
+      <c r="CI37" t="s">
+        <v>149</v>
       </c>
       <c r="CJ37" t="s">
         <v>149</v>
@@ -20256,8 +20244,8 @@
       <c r="CR37" t="s">
         <v>149</v>
       </c>
-      <c r="CS37" t="s">
-        <v>149</v>
+      <c r="CS37">
+        <v>0.5</v>
       </c>
       <c r="CT37" t="s">
         <v>149</v>
@@ -20304,8 +20292,8 @@
       <c r="DH37" t="s">
         <v>149</v>
       </c>
-      <c r="DI37" t="s">
-        <v>149</v>
+      <c r="DI37">
+        <v>0.2</v>
       </c>
       <c r="DJ37" t="s">
         <v>149</v>
@@ -20325,8 +20313,8 @@
       <c r="DO37" t="s">
         <v>149</v>
       </c>
-      <c r="DP37" t="s">
-        <v>149</v>
+      <c r="DP37">
+        <v>1</v>
       </c>
       <c r="DQ37" t="s">
         <v>149</v>
@@ -20361,14 +20349,14 @@
       <c r="EA37" t="s">
         <v>149</v>
       </c>
-      <c r="EB37" t="s">
-        <v>149</v>
+      <c r="EB37">
+        <v>0.7</v>
       </c>
       <c r="EC37" t="s">
         <v>149</v>
       </c>
-      <c r="ED37">
-        <v>0.4</v>
+      <c r="ED37" t="s">
+        <v>149</v>
       </c>
       <c r="EE37" t="s">
         <v>149</v>
@@ -20433,8 +20421,8 @@
       <c r="EY37" t="s">
         <v>149</v>
       </c>
-      <c r="EZ37" t="s">
-        <v>149</v>
+      <c r="EZ37">
+        <v>0.5</v>
       </c>
       <c r="FA37" t="s">
         <v>149</v>
@@ -20442,8 +20430,8 @@
       <c r="FB37" t="s">
         <v>149</v>
       </c>
-      <c r="FC37" t="s">
-        <v>149</v>
+      <c r="FC37">
+        <v>0.5</v>
       </c>
       <c r="FD37" t="s">
         <v>149</v>
@@ -20501,8 +20489,8 @@
       <c r="K38" t="s">
         <v>149</v>
       </c>
-      <c r="L38">
-        <v>0.2</v>
+      <c r="L38" t="s">
+        <v>149</v>
       </c>
       <c r="M38" t="s">
         <v>149</v>
@@ -20531,8 +20519,8 @@
       <c r="U38" t="s">
         <v>149</v>
       </c>
-      <c r="V38" t="s">
-        <v>149</v>
+      <c r="V38">
+        <v>1</v>
       </c>
       <c r="W38" t="s">
         <v>149</v>
@@ -20555,8 +20543,8 @@
       <c r="AC38" t="s">
         <v>149</v>
       </c>
-      <c r="AD38">
-        <v>1</v>
+      <c r="AD38" t="s">
+        <v>149</v>
       </c>
       <c r="AE38" t="s">
         <v>149</v>
@@ -20639,14 +20627,14 @@
       <c r="BE38" t="s">
         <v>149</v>
       </c>
-      <c r="BF38">
-        <v>0.5</v>
+      <c r="BF38" t="s">
+        <v>149</v>
       </c>
       <c r="BG38" t="s">
         <v>149</v>
       </c>
       <c r="BH38">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="BI38" t="s">
         <v>149</v>
@@ -20657,8 +20645,8 @@
       <c r="BK38" t="s">
         <v>149</v>
       </c>
-      <c r="BL38" t="s">
-        <v>149</v>
+      <c r="BL38">
+        <v>0.6</v>
       </c>
       <c r="BM38" t="s">
         <v>149</v>
@@ -20732,8 +20720,8 @@
       <c r="CJ38" t="s">
         <v>149</v>
       </c>
-      <c r="CK38" t="s">
-        <v>149</v>
+      <c r="CK38">
+        <v>1</v>
       </c>
       <c r="CL38" t="s">
         <v>149</v>
@@ -20804,8 +20792,8 @@
       <c r="DH38" t="s">
         <v>149</v>
       </c>
-      <c r="DI38">
-        <v>0.2</v>
+      <c r="DI38" t="s">
+        <v>149</v>
       </c>
       <c r="DJ38" t="s">
         <v>149</v>
@@ -20825,8 +20813,8 @@
       <c r="DO38" t="s">
         <v>149</v>
       </c>
-      <c r="DP38">
-        <v>1</v>
+      <c r="DP38" t="s">
+        <v>149</v>
       </c>
       <c r="DQ38" t="s">
         <v>149</v>
@@ -20862,13 +20850,13 @@
         <v>149</v>
       </c>
       <c r="EB38">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="EC38" t="s">
         <v>149</v>
       </c>
-      <c r="ED38" t="s">
-        <v>149</v>
+      <c r="ED38">
+        <v>0.6</v>
       </c>
       <c r="EE38" t="s">
         <v>149</v>
@@ -20942,8 +20930,8 @@
       <c r="FB38" t="s">
         <v>149</v>
       </c>
-      <c r="FC38">
-        <v>0.5</v>
+      <c r="FC38" t="s">
+        <v>149</v>
       </c>
       <c r="FD38" t="s">
         <v>149</v>
@@ -21007,8 +20995,8 @@
       <c r="M39" t="s">
         <v>149</v>
       </c>
-      <c r="N39" t="s">
-        <v>149</v>
+      <c r="N39">
+        <v>1</v>
       </c>
       <c r="O39" t="s">
         <v>149</v>
@@ -21031,8 +21019,8 @@
       <c r="U39" t="s">
         <v>149</v>
       </c>
-      <c r="V39">
-        <v>1</v>
+      <c r="V39" t="s">
+        <v>149</v>
       </c>
       <c r="W39" t="s">
         <v>149</v>
@@ -21109,11 +21097,11 @@
       <c r="AU39" t="s">
         <v>149</v>
       </c>
-      <c r="AV39">
-        <v>0.5</v>
-      </c>
-      <c r="AW39">
-        <v>0.5</v>
+      <c r="AV39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>149</v>
       </c>
       <c r="AX39" t="s">
         <v>149</v>
@@ -21145,8 +21133,8 @@
       <c r="BG39" t="s">
         <v>149</v>
       </c>
-      <c r="BH39">
-        <v>0.3</v>
+      <c r="BH39" t="s">
+        <v>149</v>
       </c>
       <c r="BI39" t="s">
         <v>149</v>
@@ -21157,8 +21145,8 @@
       <c r="BK39" t="s">
         <v>149</v>
       </c>
-      <c r="BL39">
-        <v>0.6</v>
+      <c r="BL39" t="s">
+        <v>149</v>
       </c>
       <c r="BM39" t="s">
         <v>149</v>
@@ -21178,11 +21166,11 @@
       <c r="BR39" t="s">
         <v>149</v>
       </c>
-      <c r="BS39" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT39" t="s">
-        <v>149</v>
+      <c r="BS39">
+        <v>1</v>
+      </c>
+      <c r="BT39">
+        <v>1</v>
       </c>
       <c r="BU39" t="s">
         <v>149</v>
@@ -21232,8 +21220,8 @@
       <c r="CJ39" t="s">
         <v>149</v>
       </c>
-      <c r="CK39">
-        <v>1</v>
+      <c r="CK39" t="s">
+        <v>149</v>
       </c>
       <c r="CL39" t="s">
         <v>149</v>
@@ -21256,8 +21244,8 @@
       <c r="CR39" t="s">
         <v>149</v>
       </c>
-      <c r="CS39">
-        <v>0.5</v>
+      <c r="CS39" t="s">
+        <v>149</v>
       </c>
       <c r="CT39" t="s">
         <v>149</v>
@@ -21277,8 +21265,8 @@
       <c r="CY39" t="s">
         <v>149</v>
       </c>
-      <c r="CZ39" t="s">
-        <v>149</v>
+      <c r="CZ39">
+        <v>1</v>
       </c>
       <c r="DA39" t="s">
         <v>149</v>
@@ -21307,8 +21295,8 @@
       <c r="DI39" t="s">
         <v>149</v>
       </c>
-      <c r="DJ39" t="s">
-        <v>149</v>
+      <c r="DJ39">
+        <v>1</v>
       </c>
       <c r="DK39" t="s">
         <v>149</v>
@@ -21361,14 +21349,14 @@
       <c r="EA39" t="s">
         <v>149</v>
       </c>
-      <c r="EB39">
-        <v>0.3</v>
+      <c r="EB39" t="s">
+        <v>149</v>
       </c>
       <c r="EC39" t="s">
         <v>149</v>
       </c>
-      <c r="ED39">
-        <v>0.6</v>
+      <c r="ED39" t="s">
+        <v>149</v>
       </c>
       <c r="EE39" t="s">
         <v>149</v>
@@ -21433,8 +21421,8 @@
       <c r="EY39" t="s">
         <v>149</v>
       </c>
-      <c r="EZ39">
-        <v>0.5</v>
+      <c r="EZ39" t="s">
+        <v>149</v>
       </c>
       <c r="FA39" t="s">
         <v>149</v>
@@ -21454,8 +21442,8 @@
       <c r="FF39" t="s">
         <v>149</v>
       </c>
-      <c r="FG39" t="s">
-        <v>149</v>
+      <c r="FG39">
+        <v>1</v>
       </c>
       <c r="FH39" t="s">
         <v>149</v>
@@ -21507,11 +21495,11 @@
       <c r="M40" t="s">
         <v>149</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>149</v>
+      <c r="N40" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40">
+        <v>0.5</v>
       </c>
       <c r="P40" t="s">
         <v>149</v>
@@ -21573,11 +21561,11 @@
       <c r="AI40" t="s">
         <v>149</v>
       </c>
-      <c r="AJ40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>149</v>
+      <c r="AJ40">
+        <v>0.5</v>
+      </c>
+      <c r="AK40">
+        <v>0.5</v>
       </c>
       <c r="AL40" t="s">
         <v>149</v>
@@ -21702,8 +21690,8 @@
       <c r="BZ40" t="s">
         <v>149</v>
       </c>
-      <c r="CA40" t="s">
-        <v>149</v>
+      <c r="CA40">
+        <v>0.6</v>
       </c>
       <c r="CB40" t="s">
         <v>149</v>
@@ -21744,8 +21732,8 @@
       <c r="CN40" t="s">
         <v>149</v>
       </c>
-      <c r="CO40" t="s">
-        <v>149</v>
+      <c r="CO40">
+        <v>0.5</v>
       </c>
       <c r="CP40" t="s">
         <v>149</v>
@@ -21783,8 +21771,8 @@
       <c r="DA40" t="s">
         <v>149</v>
       </c>
-      <c r="DB40" t="s">
-        <v>149</v>
+      <c r="DB40">
+        <v>0.6</v>
       </c>
       <c r="DC40" t="s">
         <v>149</v>
@@ -21807,8 +21795,8 @@
       <c r="DI40" t="s">
         <v>149</v>
       </c>
-      <c r="DJ40">
-        <v>1</v>
+      <c r="DJ40" t="s">
+        <v>149</v>
       </c>
       <c r="DK40" t="s">
         <v>149</v>
@@ -21834,8 +21822,8 @@
       <c r="DR40" t="s">
         <v>149</v>
       </c>
-      <c r="DS40" t="s">
-        <v>149</v>
+      <c r="DS40">
+        <v>0.5</v>
       </c>
       <c r="DT40" t="s">
         <v>149</v>
@@ -21903,8 +21891,8 @@
       <c r="EO40" t="s">
         <v>149</v>
       </c>
-      <c r="EP40" t="s">
-        <v>149</v>
+      <c r="EP40">
+        <v>0.5</v>
       </c>
       <c r="EQ40" t="s">
         <v>149</v>
@@ -21992,8 +21980,8 @@
       <c r="H41" t="s">
         <v>149</v>
       </c>
-      <c r="I41" t="s">
-        <v>149</v>
+      <c r="I41">
+        <v>0.4</v>
       </c>
       <c r="J41" t="s">
         <v>149</v>
@@ -22010,8 +21998,8 @@
       <c r="N41" t="s">
         <v>149</v>
       </c>
-      <c r="O41">
-        <v>0.5</v>
+      <c r="O41" t="s">
+        <v>149</v>
       </c>
       <c r="P41" t="s">
         <v>149</v>
@@ -22073,11 +22061,11 @@
       <c r="AI41" t="s">
         <v>149</v>
       </c>
-      <c r="AJ41">
-        <v>0.5</v>
-      </c>
-      <c r="AK41">
-        <v>0.5</v>
+      <c r="AJ41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>149</v>
       </c>
       <c r="AL41" t="s">
         <v>149</v>
@@ -22178,11 +22166,11 @@
       <c r="BR41" t="s">
         <v>149</v>
       </c>
-      <c r="BS41">
-        <v>1</v>
-      </c>
-      <c r="BT41">
-        <v>1</v>
+      <c r="BS41" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>149</v>
       </c>
       <c r="BU41" t="s">
         <v>149</v>
@@ -22190,8 +22178,8 @@
       <c r="BV41" t="s">
         <v>149</v>
       </c>
-      <c r="BW41" t="s">
-        <v>149</v>
+      <c r="BW41">
+        <v>0.2</v>
       </c>
       <c r="BX41" t="s">
         <v>149</v>
@@ -22202,8 +22190,8 @@
       <c r="BZ41" t="s">
         <v>149</v>
       </c>
-      <c r="CA41">
-        <v>0.6</v>
+      <c r="CA41" t="s">
+        <v>149</v>
       </c>
       <c r="CB41" t="s">
         <v>149</v>
@@ -22211,8 +22199,8 @@
       <c r="CC41" t="s">
         <v>149</v>
       </c>
-      <c r="CD41" t="s">
-        <v>149</v>
+      <c r="CD41">
+        <v>1</v>
       </c>
       <c r="CE41" t="s">
         <v>149</v>
@@ -22244,8 +22232,8 @@
       <c r="CN41" t="s">
         <v>149</v>
       </c>
-      <c r="CO41">
-        <v>0.5</v>
+      <c r="CO41" t="s">
+        <v>149</v>
       </c>
       <c r="CP41" t="s">
         <v>149</v>
@@ -22277,26 +22265,26 @@
       <c r="CY41" t="s">
         <v>149</v>
       </c>
-      <c r="CZ41">
-        <v>1</v>
+      <c r="CZ41" t="s">
+        <v>149</v>
       </c>
       <c r="DA41" t="s">
         <v>149</v>
       </c>
-      <c r="DB41">
-        <v>0.6</v>
-      </c>
-      <c r="DC41" t="s">
-        <v>149</v>
+      <c r="DB41" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC41">
+        <v>1</v>
       </c>
       <c r="DD41" t="s">
         <v>149</v>
       </c>
-      <c r="DE41" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF41" t="s">
-        <v>149</v>
+      <c r="DE41">
+        <v>0.4</v>
+      </c>
+      <c r="DF41">
+        <v>0.4</v>
       </c>
       <c r="DG41" t="s">
         <v>149</v>
@@ -22334,8 +22322,8 @@
       <c r="DR41" t="s">
         <v>149</v>
       </c>
-      <c r="DS41">
-        <v>0.5</v>
+      <c r="DS41" t="s">
+        <v>149</v>
       </c>
       <c r="DT41" t="s">
         <v>149</v>
@@ -22394,8 +22382,8 @@
       <c r="EL41" t="s">
         <v>149</v>
       </c>
-      <c r="EM41" t="s">
-        <v>149</v>
+      <c r="EM41">
+        <v>0.4</v>
       </c>
       <c r="EN41" t="s">
         <v>149</v>
@@ -22403,8 +22391,8 @@
       <c r="EO41" t="s">
         <v>149</v>
       </c>
-      <c r="EP41">
-        <v>0.5</v>
+      <c r="EP41" t="s">
+        <v>149</v>
       </c>
       <c r="EQ41" t="s">
         <v>149</v>
@@ -22454,11 +22442,11 @@
       <c r="FF41" t="s">
         <v>149</v>
       </c>
-      <c r="FG41">
-        <v>1</v>
-      </c>
-      <c r="FH41" t="s">
-        <v>149</v>
+      <c r="FG41" t="s">
+        <v>149</v>
+      </c>
+      <c r="FH41">
+        <v>0.2</v>
       </c>
       <c r="FI41" t="s">
         <v>149</v>
@@ -22492,21 +22480,21 @@
       <c r="H42" t="s">
         <v>149</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42">
         <v>0.4</v>
       </c>
-      <c r="J42" t="s">
-        <v>149</v>
-      </c>
-      <c r="K42" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42" t="s">
-        <v>149</v>
-      </c>
       <c r="N42" t="s">
         <v>149</v>
       </c>
@@ -22525,8 +22513,8 @@
       <c r="S42" t="s">
         <v>149</v>
       </c>
-      <c r="T42" t="s">
-        <v>149</v>
+      <c r="T42">
+        <v>0.5</v>
       </c>
       <c r="U42" t="s">
         <v>149</v>
@@ -22639,11 +22627,11 @@
       <c r="BE42" t="s">
         <v>149</v>
       </c>
-      <c r="BF42" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG42" t="s">
-        <v>149</v>
+      <c r="BF42">
+        <v>0.7</v>
+      </c>
+      <c r="BG42">
+        <v>0.6</v>
       </c>
       <c r="BH42" t="s">
         <v>149</v>
@@ -22690,8 +22678,8 @@
       <c r="BV42" t="s">
         <v>149</v>
       </c>
-      <c r="BW42">
-        <v>0.2</v>
+      <c r="BW42" t="s">
+        <v>149</v>
       </c>
       <c r="BX42" t="s">
         <v>149</v>
@@ -22711,8 +22699,8 @@
       <c r="CC42" t="s">
         <v>149</v>
       </c>
-      <c r="CD42">
-        <v>1</v>
+      <c r="CD42" t="s">
+        <v>149</v>
       </c>
       <c r="CE42" t="s">
         <v>149</v>
@@ -22765,8 +22753,8 @@
       <c r="CU42" t="s">
         <v>149</v>
       </c>
-      <c r="CV42" t="s">
-        <v>149</v>
+      <c r="CV42">
+        <v>0.6</v>
       </c>
       <c r="CW42" t="s">
         <v>149</v>
@@ -22786,123 +22774,123 @@
       <c r="DB42" t="s">
         <v>149</v>
       </c>
-      <c r="DC42">
-        <v>1</v>
+      <c r="DC42" t="s">
+        <v>149</v>
       </c>
       <c r="DD42" t="s">
         <v>149</v>
       </c>
-      <c r="DE42">
+      <c r="DE42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL42">
+        <v>0.5</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DV42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DZ42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC42" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EJ42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN42" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO42">
         <v>0.4</v>
       </c>
-      <c r="DF42">
-        <v>0.4</v>
-      </c>
-      <c r="DG42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DN42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DO42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DP42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DQ42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DR42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DS42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DT42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DV42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DW42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DX42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY42" t="s">
-        <v>149</v>
-      </c>
-      <c r="DZ42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EA42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EB42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EC42" t="s">
-        <v>149</v>
-      </c>
-      <c r="ED42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EE42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EF42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EG42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EH42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EI42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EJ42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM42">
-        <v>0.4</v>
-      </c>
-      <c r="EN42" t="s">
-        <v>149</v>
-      </c>
-      <c r="EO42" t="s">
-        <v>149</v>
-      </c>
       <c r="EP42" t="s">
         <v>149</v>
       </c>
@@ -22942,8 +22930,8 @@
       <c r="FB42" t="s">
         <v>149</v>
       </c>
-      <c r="FC42" t="s">
-        <v>149</v>
+      <c r="FC42">
+        <v>0.7</v>
       </c>
       <c r="FD42" t="s">
         <v>149</v>
@@ -22957,8 +22945,8 @@
       <c r="FG42" t="s">
         <v>149</v>
       </c>
-      <c r="FH42">
-        <v>0.2</v>
+      <c r="FH42" t="s">
+        <v>149</v>
       </c>
       <c r="FI42" t="s">
         <v>149</v>
@@ -22978,7 +22966,7 @@
         <v>148</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E43">
         <f>D43*$C$2</f>
@@ -23004,29 +22992,29 @@
       <c r="L43" t="s">
         <v>149</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="s">
+        <v>149</v>
+      </c>
+      <c r="N43" t="s">
+        <v>149</v>
+      </c>
+      <c r="O43" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>149</v>
+      </c>
+      <c r="R43" t="s">
+        <v>149</v>
+      </c>
+      <c r="S43">
         <v>0.4</v>
       </c>
-      <c r="N43" t="s">
-        <v>149</v>
-      </c>
-      <c r="O43" t="s">
-        <v>149</v>
-      </c>
-      <c r="P43" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>149</v>
-      </c>
-      <c r="R43" t="s">
-        <v>149</v>
-      </c>
-      <c r="S43" t="s">
-        <v>149</v>
-      </c>
-      <c r="T43">
-        <v>0.5</v>
+      <c r="T43" t="s">
+        <v>149</v>
       </c>
       <c r="U43" t="s">
         <v>149</v>
@@ -23139,11 +23127,11 @@
       <c r="BE43" t="s">
         <v>149</v>
       </c>
-      <c r="BF43">
-        <v>0.7</v>
-      </c>
-      <c r="BG43">
-        <v>0.6</v>
+      <c r="BF43" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>149</v>
       </c>
       <c r="BH43" t="s">
         <v>149</v>
@@ -23229,8 +23217,8 @@
       <c r="CI43" t="s">
         <v>149</v>
       </c>
-      <c r="CJ43" t="s">
-        <v>149</v>
+      <c r="CJ43">
+        <v>0.4</v>
       </c>
       <c r="CK43" t="s">
         <v>149</v>
@@ -23265,8 +23253,8 @@
       <c r="CU43" t="s">
         <v>149</v>
       </c>
-      <c r="CV43">
-        <v>0.6</v>
+      <c r="CV43" t="s">
+        <v>149</v>
       </c>
       <c r="CW43" t="s">
         <v>149</v>
@@ -23313,8 +23301,8 @@
       <c r="DK43" t="s">
         <v>149</v>
       </c>
-      <c r="DL43">
-        <v>0.5</v>
+      <c r="DL43" t="s">
+        <v>149</v>
       </c>
       <c r="DM43" t="s">
         <v>149</v>
@@ -23400,8 +23388,8 @@
       <c r="EN43" t="s">
         <v>149</v>
       </c>
-      <c r="EO43">
-        <v>0.4</v>
+      <c r="EO43" t="s">
+        <v>149</v>
       </c>
       <c r="EP43" t="s">
         <v>149</v>
@@ -23442,8 +23430,8 @@
       <c r="FB43" t="s">
         <v>149</v>
       </c>
-      <c r="FC43">
-        <v>0.7</v>
+      <c r="FC43" t="s">
+        <v>149</v>
       </c>
       <c r="FD43" t="s">
         <v>149</v>
@@ -23478,7 +23466,7 @@
         <v>148</v>
       </c>
       <c r="D44">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E44">
         <f>D44*$C$2</f>
@@ -23522,182 +23510,182 @@
       <c r="R44" t="s">
         <v>149</v>
       </c>
-      <c r="S44">
+      <c r="S44" t="s">
+        <v>149</v>
+      </c>
+      <c r="T44" t="s">
+        <v>149</v>
+      </c>
+      <c r="U44" t="s">
+        <v>149</v>
+      </c>
+      <c r="V44" t="s">
+        <v>149</v>
+      </c>
+      <c r="W44" t="s">
+        <v>149</v>
+      </c>
+      <c r="X44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV44">
+        <v>0.6</v>
+      </c>
+      <c r="BW44">
         <v>0.4</v>
       </c>
-      <c r="T44" t="s">
-        <v>149</v>
-      </c>
-      <c r="U44" t="s">
-        <v>149</v>
-      </c>
-      <c r="V44" t="s">
-        <v>149</v>
-      </c>
-      <c r="W44" t="s">
-        <v>149</v>
-      </c>
-      <c r="X44" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BO44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>149</v>
-      </c>
       <c r="BX44" t="s">
         <v>149</v>
       </c>
-      <c r="BY44" t="s">
-        <v>149</v>
+      <c r="BY44">
+        <v>0.6</v>
       </c>
       <c r="BZ44" t="s">
         <v>149</v>
@@ -23729,236 +23717,236 @@
       <c r="CI44" t="s">
         <v>149</v>
       </c>
-      <c r="CJ44">
+      <c r="CJ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CU44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CW44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY44" t="s">
+        <v>149</v>
+      </c>
+      <c r="CZ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DB44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DV44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY44" t="s">
+        <v>149</v>
+      </c>
+      <c r="DZ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC44" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH44">
+        <v>0.6</v>
+      </c>
+      <c r="EI44">
+        <v>0.6</v>
+      </c>
+      <c r="EJ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EP44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER44" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES44" t="s">
+        <v>149</v>
+      </c>
+      <c r="ET44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EX44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EY44" t="s">
+        <v>149</v>
+      </c>
+      <c r="EZ44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FA44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FB44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FC44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FD44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FF44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG44" t="s">
+        <v>149</v>
+      </c>
+      <c r="FH44">
         <v>0.4</v>
-      </c>
-      <c r="CK44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CN44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CO44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CP44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CQ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CR44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CS44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CT44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CV44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CW44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY44" t="s">
-        <v>149</v>
-      </c>
-      <c r="CZ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DA44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DB44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DC44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DD44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DE44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DG44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DM44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DN44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DO44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DP44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DQ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DR44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DS44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DT44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DV44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DW44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DX44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY44" t="s">
-        <v>149</v>
-      </c>
-      <c r="DZ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EA44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EB44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EC44" t="s">
-        <v>149</v>
-      </c>
-      <c r="ED44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EE44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EF44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EG44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EH44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EI44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EJ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EN44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EO44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EQ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="ER44" t="s">
-        <v>149</v>
-      </c>
-      <c r="ES44" t="s">
-        <v>149</v>
-      </c>
-      <c r="ET44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EW44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EX44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY44" t="s">
-        <v>149</v>
-      </c>
-      <c r="EZ44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FA44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FB44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FC44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FE44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FF44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG44" t="s">
-        <v>149</v>
-      </c>
-      <c r="FH44" t="s">
-        <v>149</v>
       </c>
       <c r="FI44" t="s">
         <v>149</v>
@@ -23978,7 +23966,7 @@
         <v>148</v>
       </c>
       <c r="D45">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E45">
         <f>D45*$C$2</f>
@@ -24022,8 +24010,8 @@
       <c r="R45" t="s">
         <v>149</v>
       </c>
-      <c r="S45" t="s">
-        <v>149</v>
+      <c r="S45">
+        <v>0.5</v>
       </c>
       <c r="T45" t="s">
         <v>149</v>
@@ -24052,8 +24040,8 @@
       <c r="AB45" t="s">
         <v>149</v>
       </c>
-      <c r="AC45" t="s">
-        <v>149</v>
+      <c r="AC45">
+        <v>0.4</v>
       </c>
       <c r="AD45" t="s">
         <v>149</v>
@@ -24187,60 +24175,60 @@
       <c r="BU45" t="s">
         <v>149</v>
       </c>
-      <c r="BV45">
-        <v>0.6</v>
-      </c>
-      <c r="BW45">
+      <c r="BV45" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CE45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CF45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CJ45">
+        <v>0.5</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM45">
         <v>0.4</v>
       </c>
-      <c r="BX45" t="s">
-        <v>149</v>
-      </c>
-      <c r="BY45">
-        <v>0.6</v>
-      </c>
-      <c r="BZ45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CA45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CB45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CE45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CF45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CG45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CH45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CI45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CJ45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CK45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL45" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM45" t="s">
-        <v>149</v>
-      </c>
       <c r="CN45" t="s">
         <v>149</v>
       </c>
@@ -24379,11 +24367,11 @@
       <c r="EG45" t="s">
         <v>149</v>
       </c>
-      <c r="EH45">
-        <v>0.6</v>
-      </c>
-      <c r="EI45">
-        <v>0.6</v>
+      <c r="EH45" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI45" t="s">
+        <v>149</v>
       </c>
       <c r="EJ45" t="s">
         <v>149</v>
@@ -24457,8 +24445,8 @@
       <c r="FG45" t="s">
         <v>149</v>
       </c>
-      <c r="FH45">
-        <v>0.4</v>
+      <c r="FH45" t="s">
+        <v>149</v>
       </c>
       <c r="FI45" t="s">
         <v>149</v>
@@ -24504,8 +24492,8 @@
       <c r="L46" t="s">
         <v>149</v>
       </c>
-      <c r="M46" t="s">
-        <v>149</v>
+      <c r="M46">
+        <v>0.7</v>
       </c>
       <c r="N46" t="s">
         <v>149</v>
@@ -24522,11 +24510,11 @@
       <c r="R46" t="s">
         <v>149</v>
       </c>
-      <c r="S46">
-        <v>0.5</v>
-      </c>
-      <c r="T46" t="s">
-        <v>149</v>
+      <c r="S46" t="s">
+        <v>149</v>
+      </c>
+      <c r="T46">
+        <v>0.4</v>
       </c>
       <c r="U46" t="s">
         <v>149</v>
@@ -24552,270 +24540,270 @@
       <c r="AB46" t="s">
         <v>149</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CW46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY46" t="s">
+        <v>149</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DB46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL46">
         <v>0.4</v>
       </c>
-      <c r="AD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BO46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BW46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BY46" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CA46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CB46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CE46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CF46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CG46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CH46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CI46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CJ46">
-        <v>0.5</v>
-      </c>
-      <c r="CK46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM46">
-        <v>0.4</v>
-      </c>
-      <c r="CN46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CO46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CP46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CQ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CR46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CS46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CT46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CU46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CV46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CW46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CY46" t="s">
-        <v>149</v>
-      </c>
-      <c r="CZ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DA46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DB46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DC46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DD46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DE46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DG46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DJ46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK46" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL46" t="s">
-        <v>149</v>
-      </c>
       <c r="DM46" t="s">
         <v>149</v>
       </c>
@@ -24900,8 +24888,8 @@
       <c r="EN46" t="s">
         <v>149</v>
       </c>
-      <c r="EO46" t="s">
-        <v>149</v>
+      <c r="EO46">
+        <v>0.7</v>
       </c>
       <c r="EP46" t="s">
         <v>149</v>
@@ -24995,17 +24983,17 @@
       <c r="I47" t="s">
         <v>149</v>
       </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" t="s">
-        <v>149</v>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>149</v>
       </c>
-      <c r="M47">
-        <v>0.7</v>
+      <c r="M47" t="s">
+        <v>149</v>
       </c>
       <c r="N47" t="s">
         <v>149</v>
@@ -25025,8 +25013,8 @@
       <c r="S47" t="s">
         <v>149</v>
       </c>
-      <c r="T47">
-        <v>0.4</v>
+      <c r="T47" t="s">
+        <v>149</v>
       </c>
       <c r="U47" t="s">
         <v>149</v>
@@ -25301,8 +25289,8 @@
       <c r="DG47" t="s">
         <v>149</v>
       </c>
-      <c r="DH47" t="s">
-        <v>149</v>
+      <c r="DH47">
+        <v>1</v>
       </c>
       <c r="DI47" t="s">
         <v>149</v>
@@ -25313,8 +25301,8 @@
       <c r="DK47" t="s">
         <v>149</v>
       </c>
-      <c r="DL47">
-        <v>0.4</v>
+      <c r="DL47" t="s">
+        <v>149</v>
       </c>
       <c r="DM47" t="s">
         <v>149</v>
@@ -25397,11 +25385,11 @@
       <c r="EM47" t="s">
         <v>149</v>
       </c>
-      <c r="EN47" t="s">
-        <v>149</v>
-      </c>
-      <c r="EO47">
-        <v>0.7</v>
+      <c r="EN47">
+        <v>1</v>
+      </c>
+      <c r="EO47" t="s">
+        <v>149</v>
       </c>
       <c r="EP47" t="s">
         <v>149</v>
@@ -25478,7 +25466,7 @@
         <v>148</v>
       </c>
       <c r="D48">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
         <f>D48*$C$2</f>
@@ -25495,11 +25483,11 @@
       <c r="I48" t="s">
         <v>149</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" t="s">
+        <v>149</v>
       </c>
       <c r="L48" t="s">
         <v>149</v>
@@ -25639,11 +25627,11 @@
       <c r="BE48" t="s">
         <v>149</v>
       </c>
-      <c r="BF48" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG48" t="s">
-        <v>149</v>
+      <c r="BF48">
+        <v>0.3</v>
+      </c>
+      <c r="BG48">
+        <v>0.4</v>
       </c>
       <c r="BH48" t="s">
         <v>149</v>
@@ -25765,8 +25753,8 @@
       <c r="CU48" t="s">
         <v>149</v>
       </c>
-      <c r="CV48" t="s">
-        <v>149</v>
+      <c r="CV48">
+        <v>0.4</v>
       </c>
       <c r="CW48" t="s">
         <v>149</v>
@@ -25801,8 +25789,8 @@
       <c r="DG48" t="s">
         <v>149</v>
       </c>
-      <c r="DH48">
-        <v>1</v>
+      <c r="DH48" t="s">
+        <v>149</v>
       </c>
       <c r="DI48" t="s">
         <v>149</v>
@@ -25897,8 +25885,8 @@
       <c r="EM48" t="s">
         <v>149</v>
       </c>
-      <c r="EN48">
-        <v>1</v>
+      <c r="EN48" t="s">
+        <v>149</v>
       </c>
       <c r="EO48" t="s">
         <v>149</v>
@@ -25942,8 +25930,8 @@
       <c r="FB48" t="s">
         <v>149</v>
       </c>
-      <c r="FC48" t="s">
-        <v>149</v>
+      <c r="FC48">
+        <v>0.3</v>
       </c>
       <c r="FD48" t="s">
         <v>149</v>
@@ -25970,7 +25958,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="9:163" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:163" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>149</v>
+      </c>
       <c r="I49" t="s">
         <v>149</v>
       </c>
@@ -25986,11 +25977,11 @@
       <c r="AK49" t="s">
         <v>149</v>
       </c>
-      <c r="AL49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>149</v>
+      <c r="AL49">
+        <v>0.3</v>
+      </c>
+      <c r="AM49">
+        <v>0.3</v>
       </c>
       <c r="AT49" t="s">
         <v>149</v>
@@ -26031,8 +26022,8 @@
       <c r="CO49" t="s">
         <v>149</v>
       </c>
-      <c r="CP49" t="s">
-        <v>149</v>
+      <c r="CP49">
+        <v>0.3</v>
       </c>
       <c r="CR49" t="s">
         <v>149</v>
@@ -26055,6 +26046,9 @@
       <c r="DF49" t="s">
         <v>149</v>
       </c>
+      <c r="DG49" t="s">
+        <v>149</v>
+      </c>
       <c r="DR49" t="s">
         <v>149</v>
       </c>
@@ -26079,8 +26073,8 @@
       <c r="EV49" t="s">
         <v>149</v>
       </c>
-      <c r="EW49" t="s">
-        <v>149</v>
+      <c r="EW49">
+        <v>0.3</v>
       </c>
       <c r="EZ49" t="s">
         <v>149</v>

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -19,9 +19,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="190">
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>CAB000</t>
   </si>
   <si>
     <t>CAB201</t>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>CAB340</t>
-  </si>
-  <si>
-    <t>CAB401</t>
   </si>
   <si>
     <t>CAB402</t>
@@ -228,13 +222,16 @@
     <t>IGB400</t>
   </si>
   <si>
+    <t>CAB000</t>
+  </si>
+  <si>
+    <t>CAB401</t>
+  </si>
+  <si>
     <t>Standard Load:</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Programming Principles</t>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Cryptography</t>
-  </si>
-  <si>
-    <t>High Performance and Parallel Computing</t>
   </si>
   <si>
     <t>Programming Paradigms</t>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>Game Studio 3</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>High Performance and Parallel Computing</t>
   </si>
   <si>
     <t>Semester</t>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>24</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>28</v>
@@ -1103,28 +1103,28 @@
         <v>33</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>38</v>
@@ -1172,16 +1172,16 @@
         <v>52</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>55</v>
@@ -1229,247 +1229,247 @@
         <v>69</v>
       </c>
       <c r="CI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="ET1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="EX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="FA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="CS1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="FF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CY1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="FI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="DC1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="EK1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
@@ -2024,7 +2024,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>74</v>
@@ -2093,82 +2093,82 @@
         <v>95</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>109</v>
@@ -2198,16 +2198,16 @@
         <v>117</v>
       </c>
       <c r="BP2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>119</v>
@@ -2255,247 +2255,247 @@
         <v>133</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CP2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CR2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="CS2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CU2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="CV2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="DH2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="EO2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="EQ2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DN2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DR2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EW2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="DU2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DY2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EA2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="EC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="FE2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="ED2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="EE2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="FG2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="EF2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="EG2" s="1" t="s">
+      <c r="FH2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="EH2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EK2" s="1" t="s">
+      <c r="FI2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="FK2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="FG2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1"/>
@@ -3038,49 +3038,49 @@
         <v>134</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>2</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -3089,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
         <v>2</v>
       </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
       <c r="BI3">
         <v>1</v>
       </c>
       <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
         <v>2</v>
-      </c>
-      <c r="BK3">
-        <v>1</v>
       </c>
       <c r="BL3">
         <v>1</v>
@@ -3212,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP3">
         <v>2</v>
@@ -3227,28 +3227,28 @@
         <v>2</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
         <v>2</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>2</v>
-      </c>
-      <c r="BV3">
-        <v>1</v>
-      </c>
-      <c r="BW3">
-        <v>1</v>
-      </c>
-      <c r="BX3">
-        <v>1</v>
       </c>
       <c r="BY3">
         <v>2</v>
       </c>
       <c r="BZ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA3">
         <v>2</v>
@@ -3260,10 +3260,10 @@
         <v>2</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF3">
         <v>2</v>
@@ -3350,22 +3350,22 @@
         <v>1</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DI3">
         <v>1</v>
       </c>
       <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
         <v>2</v>
       </c>
-      <c r="DK3">
-        <v>1</v>
-      </c>
       <c r="DL3">
         <v>1</v>
       </c>
       <c r="DM3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DN3">
         <v>1</v>
@@ -3523,118 +3523,118 @@
         <v>135</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>610</v>
       </c>
       <c r="I4">
         <v>610</v>
       </c>
       <c r="J4">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="K4">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="L4">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="M4">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="O4">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="P4">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R4">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="S4">
-        <v>630</v>
+        <v>40</v>
       </c>
       <c r="T4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="U4">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="V4">
         <v>140</v>
       </c>
       <c r="W4">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="X4">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Y4">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="Z4">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AA4">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="AB4">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AC4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AD4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF4">
+        <v>800</v>
+      </c>
+      <c r="AG4">
+        <v>275</v>
+      </c>
+      <c r="AH4">
+        <v>720</v>
+      </c>
+      <c r="AI4">
+        <v>710</v>
+      </c>
+      <c r="AJ4">
+        <v>450</v>
+      </c>
+      <c r="AK4">
+        <v>170</v>
+      </c>
+      <c r="AL4">
+        <v>81</v>
+      </c>
+      <c r="AM4">
+        <v>81</v>
+      </c>
+      <c r="AN4">
         <v>80</v>
       </c>
-      <c r="AG4">
-        <v>120</v>
-      </c>
-      <c r="AH4">
-        <v>800</v>
-      </c>
-      <c r="AI4">
-        <v>275</v>
-      </c>
-      <c r="AJ4">
-        <v>720</v>
-      </c>
-      <c r="AK4">
-        <v>710</v>
-      </c>
-      <c r="AL4">
-        <v>450</v>
-      </c>
-      <c r="AM4">
-        <v>170</v>
-      </c>
-      <c r="AN4">
-        <v>81</v>
-      </c>
       <c r="AO4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP4">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ4">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR4">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="AS4">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="AT4">
         <v>108</v>
@@ -3646,7 +3646,7 @@
         <v>108</v>
       </c>
       <c r="AW4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AX4">
         <v>108</v>
@@ -3655,10 +3655,10 @@
         <v>54</v>
       </c>
       <c r="AZ4">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="BA4">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="BB4">
         <v>70</v>
@@ -3673,37 +3673,37 @@
         <v>70</v>
       </c>
       <c r="BF4">
+        <v>88</v>
+      </c>
+      <c r="BG4">
+        <v>135</v>
+      </c>
+      <c r="BH4">
         <v>70</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
+        <v>140</v>
+      </c>
+      <c r="BJ4">
+        <v>74</v>
+      </c>
+      <c r="BK4">
+        <v>136</v>
+      </c>
+      <c r="BL4">
         <v>70</v>
       </c>
-      <c r="BH4">
-        <v>88</v>
-      </c>
-      <c r="BI4">
-        <v>135</v>
-      </c>
-      <c r="BJ4">
-        <v>70</v>
-      </c>
-      <c r="BK4">
-        <v>140</v>
-      </c>
-      <c r="BL4">
-        <v>74</v>
-      </c>
       <c r="BM4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BN4">
         <v>70</v>
       </c>
       <c r="BO4">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="BP4">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BQ4">
         <v>40</v>
@@ -3712,52 +3712,52 @@
         <v>40</v>
       </c>
       <c r="BS4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="BT4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="BU4">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="BV4">
+        <v>158</v>
+      </c>
+      <c r="BW4">
+        <v>69</v>
+      </c>
+      <c r="BX4">
+        <v>121</v>
+      </c>
+      <c r="BY4">
+        <v>70</v>
+      </c>
+      <c r="BZ4">
+        <v>74</v>
+      </c>
+      <c r="CA4">
+        <v>74</v>
+      </c>
+      <c r="CB4">
+        <v>50</v>
+      </c>
+      <c r="CC4">
+        <v>59</v>
+      </c>
+      <c r="CD4">
+        <v>36</v>
+      </c>
+      <c r="CE4">
+        <v>36</v>
+      </c>
+      <c r="CF4">
+        <v>77</v>
+      </c>
+      <c r="CG4">
         <v>100</v>
       </c>
-      <c r="BW4">
-        <v>280</v>
-      </c>
-      <c r="BX4">
-        <v>158</v>
-      </c>
-      <c r="BY4">
-        <v>69</v>
-      </c>
-      <c r="BZ4">
-        <v>121</v>
-      </c>
-      <c r="CA4">
-        <v>70</v>
-      </c>
-      <c r="CB4">
-        <v>74</v>
-      </c>
-      <c r="CC4">
-        <v>74</v>
-      </c>
-      <c r="CD4">
-        <v>50</v>
-      </c>
-      <c r="CE4">
-        <v>59</v>
-      </c>
-      <c r="CF4">
-        <v>36</v>
-      </c>
-      <c r="CG4">
-        <v>36</v>
-      </c>
       <c r="CH4">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="CI4">
         <v>550</v>
@@ -3826,31 +3826,31 @@
         <v>77</v>
       </c>
       <c r="DE4">
-        <v>490</v>
+        <v>100</v>
       </c>
       <c r="DF4">
         <v>490</v>
       </c>
       <c r="DG4">
-        <v>100</v>
+        <v>490</v>
       </c>
       <c r="DH4">
+        <v>150</v>
+      </c>
+      <c r="DI4">
         <v>610</v>
       </c>
-      <c r="DI4">
+      <c r="DJ4">
         <v>680</v>
       </c>
-      <c r="DJ4">
+      <c r="DK4">
         <v>50</v>
       </c>
-      <c r="DK4">
+      <c r="DL4">
         <v>500</v>
       </c>
-      <c r="DL4">
+      <c r="DM4">
         <v>40</v>
-      </c>
-      <c r="DM4">
-        <v>150</v>
       </c>
       <c r="DN4">
         <v>140</v>
@@ -4011,115 +4011,115 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1.2</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1.2</v>
+      </c>
+      <c r="AR5">
+        <v>0.7</v>
+      </c>
+      <c r="AS5">
         <v>0.5</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1.2</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1.2</v>
       </c>
       <c r="AT5">
         <v>0.7</v>
@@ -4140,7 +4140,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ5">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="BA5">
         <v>0.5</v>
@@ -4152,40 +4152,40 @@
         <v>0.5</v>
       </c>
       <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
         <v>0.5</v>
       </c>
-      <c r="BE5">
-        <v>0.5</v>
-      </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>1</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
       <c r="BN5">
         <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -4311,25 +4311,25 @@
         <v>1</v>
       </c>
       <c r="DE5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DF5">
         <v>1</v>
       </c>
       <c r="DG5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
         <v>0.6</v>
       </c>
-      <c r="DI5">
-        <v>1</v>
-      </c>
       <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
         <v>0.5</v>
-      </c>
-      <c r="DK5">
-        <v>1</v>
       </c>
       <c r="DL5">
         <v>1</v>
@@ -4499,118 +4499,118 @@
         <v>138</v>
       </c>
       <c r="H6">
-        <v>1.154902</v>
+        <v>1.9402318</v>
       </c>
       <c r="I6">
-        <v>1.9402318</v>
+        <v>1.164139</v>
       </c>
       <c r="J6">
-        <v>1.164139</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.9874109</v>
       </c>
       <c r="L6">
-        <v>1.9874109</v>
+        <v>1.4101745</v>
       </c>
       <c r="M6">
-        <v>1.4101745</v>
+        <v>0.42693597</v>
       </c>
       <c r="N6">
-        <v>0.42693597</v>
+        <v>1.756962</v>
       </c>
       <c r="O6">
-        <v>1.756962</v>
+        <v>1.8952646</v>
       </c>
       <c r="P6">
-        <v>1.8952646</v>
+        <v>1.853872</v>
       </c>
       <c r="Q6">
-        <v>1.853872</v>
+        <v>1.9330533</v>
       </c>
       <c r="R6">
-        <v>1.9330533</v>
+        <v>1.9542425</v>
       </c>
       <c r="S6">
-        <v>1.9542425</v>
+        <v>0.8</v>
       </c>
       <c r="T6">
-        <v>0.8</v>
+        <v>0.9330532</v>
       </c>
       <c r="U6">
-        <v>0.9330532</v>
+        <v>1.30103</v>
       </c>
       <c r="V6">
         <v>1.30103</v>
       </c>
       <c r="W6">
-        <v>1.3309932</v>
+        <v>1.69897</v>
       </c>
       <c r="X6">
-        <v>1.30103</v>
+        <v>0.8</v>
       </c>
       <c r="Y6">
-        <v>1.69897</v>
+        <v>0.8</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>1.4101745</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>1.2688453</v>
       </c>
       <c r="AB6">
-        <v>1.4101745</v>
+        <v>1.0843209</v>
       </c>
       <c r="AC6">
-        <v>1.2688453</v>
+        <v>1.154902</v>
       </c>
       <c r="AD6">
-        <v>1.0843209</v>
+        <v>1.057992</v>
       </c>
       <c r="AE6">
-        <v>1.154902</v>
+        <v>0</v>
       </c>
       <c r="AF6">
+        <v>2.057992</v>
+      </c>
+      <c r="AG6">
+        <v>1.5942347</v>
+      </c>
+      <c r="AH6">
+        <v>2.0122344</v>
+      </c>
+      <c r="AI6">
+        <v>2.0061603</v>
+      </c>
+      <c r="AJ6">
+        <v>1.8081145</v>
+      </c>
+      <c r="AK6">
+        <v>1.3853508</v>
+      </c>
+      <c r="AL6">
+        <v>1.063387</v>
+      </c>
+      <c r="AM6">
+        <v>1.2760644</v>
+      </c>
+      <c r="AN6">
         <v>1.057992</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>2.057992</v>
-      </c>
-      <c r="AI6">
-        <v>1.5942347</v>
-      </c>
-      <c r="AJ6">
-        <v>2.0122344</v>
-      </c>
-      <c r="AK6">
-        <v>2.0061603</v>
-      </c>
-      <c r="AL6">
-        <v>1.8081145</v>
-      </c>
-      <c r="AM6">
-        <v>1.3853508</v>
-      </c>
-      <c r="AN6">
-        <v>1.063387</v>
-      </c>
       <c r="AO6">
-        <v>1.2760644</v>
+        <v>1.057992</v>
       </c>
       <c r="AP6">
-        <v>1.057992</v>
+        <v>0.8791778</v>
       </c>
       <c r="AQ6">
-        <v>1.057992</v>
+        <v>1.0550134</v>
       </c>
       <c r="AR6">
-        <v>0.8791778</v>
+        <v>0.831828</v>
       </c>
       <c r="AS6">
-        <v>1.0550134</v>
+        <v>0.5941629</v>
       </c>
       <c r="AT6">
         <v>0.831828</v>
@@ -4622,7 +4622,7 @@
         <v>0.831828</v>
       </c>
       <c r="AW6">
-        <v>0.5941629</v>
+        <v>0.44364786</v>
       </c>
       <c r="AX6">
         <v>0.831828</v>
@@ -4631,10 +4631,10 @@
         <v>0.44364786</v>
       </c>
       <c r="AZ6">
-        <v>0.831828</v>
+        <v>0.5</v>
       </c>
       <c r="BA6">
-        <v>0.44364786</v>
+        <v>0.5</v>
       </c>
       <c r="BB6">
         <v>0.5</v>
@@ -4643,43 +4643,43 @@
         <v>0.5</v>
       </c>
       <c r="BD6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>1.0993847</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>1.2852358</v>
       </c>
       <c r="BH6">
-        <v>1.0993847</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>1.2852358</v>
+        <v>1.30103</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>1.0241337</v>
       </c>
       <c r="BK6">
-        <v>1.30103</v>
+        <v>1.2884408</v>
       </c>
       <c r="BL6">
-        <v>1.0241337</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>1.2884408</v>
+        <v>0.6489584</v>
       </c>
       <c r="BN6">
         <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.6489584</v>
+        <v>0.8</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BQ6">
         <v>0.8</v>
@@ -4688,52 +4688,52 @@
         <v>0.8</v>
       </c>
       <c r="BS6">
+        <v>1.4559319</v>
+      </c>
+      <c r="BT6">
+        <v>1.154902</v>
+      </c>
+      <c r="BU6">
+        <v>1.60206</v>
+      </c>
+      <c r="BV6">
+        <v>1.353559</v>
+      </c>
+      <c r="BW6">
+        <v>0.99375105</v>
+      </c>
+      <c r="BX6">
+        <v>1.2376873</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1.0241337</v>
+      </c>
+      <c r="CA6">
+        <v>1.0241337</v>
+      </c>
+      <c r="CB6">
+        <v>0.85387194</v>
+      </c>
+      <c r="CC6">
+        <v>0.92575395</v>
+      </c>
+      <c r="CD6">
         <v>0.8</v>
       </c>
-      <c r="BT6">
+      <c r="CE6">
         <v>0.8</v>
       </c>
-      <c r="BU6">
-        <v>1.4559319</v>
-      </c>
-      <c r="BV6">
-        <v>1.154902</v>
-      </c>
-      <c r="BW6">
-        <v>1.60206</v>
-      </c>
-      <c r="BX6">
-        <v>1.353559</v>
-      </c>
-      <c r="BY6">
-        <v>0.99375105</v>
-      </c>
-      <c r="BZ6">
-        <v>1.2376873</v>
-      </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
-        <v>1.0241337</v>
-      </c>
-      <c r="CC6">
-        <v>1.0241337</v>
-      </c>
-      <c r="CD6">
-        <v>0.85387194</v>
-      </c>
-      <c r="CE6">
-        <v>0.92575395</v>
-      </c>
       <c r="CF6">
-        <v>0.8</v>
+        <v>1.0413927</v>
       </c>
       <c r="CG6">
-        <v>0.8</v>
+        <v>NaN</v>
       </c>
       <c r="CH6">
-        <v>1.0413927</v>
+        <v>NaN</v>
       </c>
       <c r="CI6">
         <v>1.8952646</v>
@@ -4808,25 +4808,25 @@
         <v>NaN</v>
       </c>
       <c r="DG6">
-        <v>2.309804</v>
+        <v>NaN</v>
       </c>
       <c r="DH6">
+        <v>NaN</v>
+      </c>
+      <c r="DI6">
         <v>1.164139</v>
       </c>
-      <c r="DI6">
+      <c r="DJ6">
         <v>1.9874109</v>
       </c>
-      <c r="DJ6">
+      <c r="DK6">
         <v>0.42693597</v>
       </c>
-      <c r="DK6">
+      <c r="DL6">
         <v>1.853872</v>
       </c>
-      <c r="DL6">
+      <c r="DM6">
         <v>0.8</v>
-      </c>
-      <c r="DM6">
-        <v>1.3309932</v>
       </c>
       <c r="DN6">
         <v>1.30103</v>
@@ -5989,14 +5989,17 @@
       <c r="G9">
         <f>F9-E9</f>
       </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>149</v>
@@ -6016,12 +6019,12 @@
       <c r="Q9" t="s">
         <v>149</v>
       </c>
-      <c r="R9" t="s">
-        <v>149</v>
-      </c>
-      <c r="S9">
+      <c r="R9">
         <v>0.2</v>
       </c>
+      <c r="S9" t="s">
+        <v>149</v>
+      </c>
       <c r="T9" t="s">
         <v>149</v>
       </c>
@@ -6215,9 +6218,6 @@
         <v>149</v>
       </c>
       <c r="CF9" t="s">
-        <v>149</v>
-      </c>
-      <c r="CG9" t="s">
         <v>149</v>
       </c>
       <c r="CH9" t="s">
@@ -6289,17 +6289,17 @@
       <c r="DD9" t="s">
         <v>149</v>
       </c>
-      <c r="DE9">
-        <v>0.1</v>
-      </c>
       <c r="DF9">
         <v>0.1</v>
       </c>
-      <c r="DH9">
-        <v>1</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>149</v>
+      <c r="DG9">
+        <v>0.1</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI9">
+        <v>1</v>
       </c>
       <c r="DJ9" t="s">
         <v>149</v>
@@ -6483,6 +6483,9 @@
       <c r="G10">
         <f>F10-E10</f>
       </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
       <c r="I10" t="s">
         <v>149</v>
       </c>
@@ -6558,17 +6561,17 @@
       <c r="AG10" t="s">
         <v>149</v>
       </c>
-      <c r="AH10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AK10">
-        <v>1</v>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>149</v>
       </c>
       <c r="AL10" t="s">
         <v>149</v>
@@ -6711,9 +6714,6 @@
       <c r="CF10" t="s">
         <v>149</v>
       </c>
-      <c r="CG10" t="s">
-        <v>149</v>
-      </c>
       <c r="CH10" t="s">
         <v>149</v>
       </c>
@@ -6783,10 +6783,10 @@
       <c r="DD10" t="s">
         <v>149</v>
       </c>
-      <c r="DE10" t="s">
-        <v>149</v>
-      </c>
       <c r="DF10" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG10" t="s">
         <v>149</v>
       </c>
       <c r="DH10" t="s">
@@ -6980,14 +6980,14 @@
       <c r="H11" t="s">
         <v>149</v>
       </c>
-      <c r="I11" t="s">
-        <v>149</v>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>149</v>
@@ -7040,41 +7040,41 @@
       <c r="AB11" t="s">
         <v>149</v>
       </c>
-      <c r="AC11" t="s">
-        <v>149</v>
+      <c r="AC11">
+        <v>0.5</v>
       </c>
       <c r="AD11" t="s">
         <v>149</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH11">
         <v>0.5</v>
       </c>
-      <c r="AF11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ11">
+      <c r="AI11">
         <v>0.5</v>
       </c>
-      <c r="AK11">
-        <v>0.5</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>149</v>
+      <c r="AJ11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
       </c>
       <c r="AM11" t="s">
         <v>149</v>
       </c>
-      <c r="AN11">
-        <v>1</v>
+      <c r="AN11" t="s">
+        <v>149</v>
       </c>
       <c r="AO11" t="s">
         <v>149</v>
@@ -7289,11 +7289,11 @@
       <c r="DG11" t="s">
         <v>149</v>
       </c>
-      <c r="DH11">
-        <v>1</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>149</v>
+      <c r="DH11" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI11">
+        <v>1</v>
       </c>
       <c r="DJ11" t="s">
         <v>149</v>
@@ -7501,18 +7501,18 @@
       <c r="O12" t="s">
         <v>149</v>
       </c>
-      <c r="P12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12">
+      <c r="P12">
         <v>0.5</v>
       </c>
-      <c r="R12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S12">
+      <c r="Q12" t="s">
+        <v>149</v>
+      </c>
+      <c r="R12">
         <v>0.2</v>
       </c>
+      <c r="S12" t="s">
+        <v>149</v>
+      </c>
       <c r="T12" t="s">
         <v>149</v>
       </c>
@@ -7618,14 +7618,14 @@
       <c r="BB12" t="s">
         <v>149</v>
       </c>
-      <c r="BC12" t="s">
-        <v>149</v>
+      <c r="BC12">
+        <v>1</v>
       </c>
       <c r="BD12" t="s">
         <v>149</v>
       </c>
-      <c r="BE12">
-        <v>1</v>
+      <c r="BE12" t="s">
+        <v>149</v>
       </c>
       <c r="BF12" t="s">
         <v>149</v>
@@ -7798,11 +7798,11 @@
       <c r="DJ12" t="s">
         <v>149</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL12">
         <v>0.5</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>149</v>
       </c>
       <c r="DM12" t="s">
         <v>149</v>
@@ -8175,29 +8175,29 @@
       <c r="BU13" t="s">
         <v>149</v>
       </c>
-      <c r="BV13" t="s">
-        <v>149</v>
+      <c r="BV13">
+        <v>0.5</v>
       </c>
       <c r="BW13" t="s">
         <v>149</v>
       </c>
-      <c r="BX13">
-        <v>0.5</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>149</v>
+      <c r="BX13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY13">
+        <v>0.4</v>
       </c>
       <c r="BZ13" t="s">
         <v>149</v>
       </c>
-      <c r="CA13">
-        <v>0.4</v>
+      <c r="CA13" t="s">
+        <v>149</v>
       </c>
       <c r="CB13" t="s">
         <v>149</v>
       </c>
-      <c r="CC13" t="s">
-        <v>149</v>
+      <c r="CC13">
+        <v>1</v>
       </c>
       <c r="CD13" t="s">
         <v>149</v>
@@ -8208,8 +8208,8 @@
       <c r="CF13" t="s">
         <v>149</v>
       </c>
-      <c r="CG13">
-        <v>1</v>
+      <c r="CG13" t="s">
+        <v>149</v>
       </c>
       <c r="CH13" t="s">
         <v>149</v>
@@ -8498,12 +8498,12 @@
       <c r="N14" t="s">
         <v>149</v>
       </c>
-      <c r="O14" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14">
+      <c r="O14">
         <v>0.4</v>
       </c>
+      <c r="P14" t="s">
+        <v>149</v>
+      </c>
       <c r="Q14" t="s">
         <v>149</v>
       </c>
@@ -8561,18 +8561,18 @@
       <c r="AI14" t="s">
         <v>149</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL14">
+      <c r="AJ14">
         <v>0.8</v>
       </c>
-      <c r="AM14">
+      <c r="AK14">
         <v>0.8</v>
       </c>
+      <c r="AL14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>149</v>
+      </c>
       <c r="AN14" t="s">
         <v>149</v>
       </c>
@@ -8651,14 +8651,14 @@
       <c r="BM14" t="s">
         <v>149</v>
       </c>
-      <c r="BN14" t="s">
-        <v>149</v>
+      <c r="BN14">
+        <v>0.6</v>
       </c>
       <c r="BO14" t="s">
         <v>149</v>
       </c>
-      <c r="BP14">
-        <v>0.6</v>
+      <c r="BP14" t="s">
+        <v>149</v>
       </c>
       <c r="BQ14" t="s">
         <v>149</v>
@@ -9061,35 +9061,35 @@
       <c r="AI15" t="s">
         <v>149</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL15">
+      <c r="AJ15">
         <v>0.4</v>
       </c>
-      <c r="AM15">
+      <c r="AK15">
         <v>0.4</v>
       </c>
+      <c r="AL15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>149</v>
+      </c>
       <c r="AN15" t="s">
         <v>149</v>
       </c>
       <c r="AO15" t="s">
         <v>149</v>
       </c>
-      <c r="AP15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>149</v>
       </c>
       <c r="AT15" t="s">
         <v>149</v>
@@ -9561,18 +9561,18 @@
       <c r="AI16" t="s">
         <v>149</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL16">
+      <c r="AJ16">
         <v>0.4</v>
       </c>
-      <c r="AM16">
+      <c r="AK16">
         <v>0.4</v>
       </c>
+      <c r="AL16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>149</v>
+      </c>
       <c r="AN16" t="s">
         <v>149</v>
       </c>
@@ -9651,14 +9651,14 @@
       <c r="BM16" t="s">
         <v>149</v>
       </c>
-      <c r="BN16" t="s">
-        <v>149</v>
+      <c r="BN16">
+        <v>0.4</v>
       </c>
       <c r="BO16" t="s">
         <v>149</v>
       </c>
-      <c r="BP16">
-        <v>0.4</v>
+      <c r="BP16" t="s">
+        <v>149</v>
       </c>
       <c r="BQ16" t="s">
         <v>149</v>
@@ -9681,8 +9681,8 @@
       <c r="BW16" t="s">
         <v>149</v>
       </c>
-      <c r="BX16" t="s">
-        <v>149</v>
+      <c r="BX16">
+        <v>1</v>
       </c>
       <c r="BY16" t="s">
         <v>149</v>
@@ -9693,8 +9693,8 @@
       <c r="CA16" t="s">
         <v>149</v>
       </c>
-      <c r="CB16">
-        <v>1</v>
+      <c r="CB16" t="s">
+        <v>149</v>
       </c>
       <c r="CC16" t="s">
         <v>149</v>
@@ -10019,14 +10019,14 @@
       <c r="U17" t="s">
         <v>149</v>
       </c>
-      <c r="V17" t="s">
-        <v>149</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
       </c>
       <c r="Y17" t="s">
         <v>149</v>
@@ -10136,14 +10136,14 @@
       <c r="BH17" t="s">
         <v>149</v>
       </c>
-      <c r="BI17" t="s">
-        <v>149</v>
+      <c r="BI17">
+        <v>1</v>
       </c>
       <c r="BJ17" t="s">
         <v>149</v>
       </c>
-      <c r="BK17">
-        <v>1</v>
+      <c r="BK17" t="s">
+        <v>149</v>
       </c>
       <c r="BL17" t="s">
         <v>149</v>
@@ -10211,8 +10211,8 @@
       <c r="CG17" t="s">
         <v>149</v>
       </c>
-      <c r="CH17" t="s">
-        <v>149</v>
+      <c r="CH17">
+        <v>1</v>
       </c>
       <c r="CI17" t="s">
         <v>149</v>
@@ -10289,8 +10289,8 @@
       <c r="DG17" t="s">
         <v>149</v>
       </c>
-      <c r="DH17" t="s">
-        <v>149</v>
+      <c r="DH17">
+        <v>1</v>
       </c>
       <c r="DI17" t="s">
         <v>149</v>
@@ -10304,8 +10304,8 @@
       <c r="DL17" t="s">
         <v>149</v>
       </c>
-      <c r="DM17">
-        <v>1</v>
+      <c r="DM17" t="s">
+        <v>149</v>
       </c>
       <c r="DN17">
         <v>1</v>
@@ -10528,14 +10528,14 @@
       <c r="X18" t="s">
         <v>149</v>
       </c>
-      <c r="Y18" t="s">
-        <v>149</v>
+      <c r="Y18">
+        <v>1</v>
       </c>
       <c r="Z18" t="s">
         <v>149</v>
       </c>
-      <c r="AA18">
-        <v>1</v>
+      <c r="AA18" t="s">
+        <v>149</v>
       </c>
       <c r="AB18" t="s">
         <v>149</v>
@@ -11049,17 +11049,17 @@
       <c r="AE19" t="s">
         <v>149</v>
       </c>
-      <c r="AF19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>149</v>
       </c>
       <c r="AJ19" t="s">
         <v>149</v>
@@ -11486,12 +11486,12 @@
       <c r="J20" t="s">
         <v>149</v>
       </c>
-      <c r="K20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20">
+      <c r="K20">
         <v>0.9</v>
       </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
       <c r="M20" t="s">
         <v>149</v>
       </c>
@@ -11549,18 +11549,18 @@
       <c r="AE20" t="s">
         <v>149</v>
       </c>
-      <c r="AF20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH20">
+      <c r="AF20">
         <v>0.5</v>
       </c>
-      <c r="AI20">
+      <c r="AG20">
         <v>0.5</v>
       </c>
+      <c r="AH20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ20" t="s">
         <v>149</v>
       </c>
@@ -11792,11 +11792,11 @@
       <c r="DH20" t="s">
         <v>149</v>
       </c>
-      <c r="DI20">
+      <c r="DI20" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ20">
         <v>0.9</v>
-      </c>
-      <c r="DJ20" t="s">
-        <v>149</v>
       </c>
       <c r="DK20" t="s">
         <v>149</v>
@@ -12549,18 +12549,18 @@
       <c r="AE22" t="s">
         <v>149</v>
       </c>
-      <c r="AF22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH22">
+      <c r="AF22">
         <v>0.5</v>
       </c>
-      <c r="AI22">
+      <c r="AG22">
         <v>0.5</v>
       </c>
+      <c r="AH22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ22" t="s">
         <v>149</v>
       </c>
@@ -12585,23 +12585,23 @@
       <c r="AQ22" t="s">
         <v>149</v>
       </c>
-      <c r="AR22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT22">
-        <v>1</v>
-      </c>
-      <c r="AU22">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>149</v>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -12609,11 +12609,11 @@
       <c r="AY22">
         <v>1</v>
       </c>
-      <c r="AZ22">
-        <v>1</v>
-      </c>
-      <c r="BA22">
-        <v>1</v>
+      <c r="AZ22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>149</v>
       </c>
       <c r="BB22" t="s">
         <v>149</v>
@@ -13085,35 +13085,35 @@
       <c r="AQ23" t="s">
         <v>149</v>
       </c>
-      <c r="AR23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT23">
-        <v>1</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>149</v>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
       </c>
       <c r="AX23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AY23">
-        <v>1</v>
-      </c>
-      <c r="AZ23">
         <v>0.8</v>
       </c>
-      <c r="BA23">
-        <v>0.8</v>
+      <c r="AZ23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>149</v>
       </c>
       <c r="BB23" t="s">
         <v>149</v>
@@ -14169,14 +14169,14 @@
       <c r="BS25" t="s">
         <v>149</v>
       </c>
-      <c r="BT25" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV25">
+      <c r="BT25">
         <v>0.4</v>
+      </c>
+      <c r="BU25">
+        <v>0.4</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>149</v>
       </c>
       <c r="BW25">
         <v>0.4</v>
@@ -14184,8 +14184,8 @@
       <c r="BX25" t="s">
         <v>149</v>
       </c>
-      <c r="BY25">
-        <v>0.4</v>
+      <c r="BY25" t="s">
+        <v>149</v>
       </c>
       <c r="BZ25" t="s">
         <v>149</v>
@@ -14540,17 +14540,17 @@
       <c r="AB26" t="s">
         <v>149</v>
       </c>
-      <c r="AC26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE26">
+      <c r="AC26">
         <v>0.5</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>149</v>
       </c>
       <c r="AG26" t="s">
         <v>149</v>
@@ -14666,14 +14666,14 @@
       <c r="BR26" t="s">
         <v>149</v>
       </c>
-      <c r="BS26" t="s">
-        <v>149</v>
+      <c r="BS26">
+        <v>0.6</v>
       </c>
       <c r="BT26" t="s">
         <v>149</v>
       </c>
-      <c r="BU26">
-        <v>0.6</v>
+      <c r="BU26" t="s">
+        <v>149</v>
       </c>
       <c r="BV26" t="s">
         <v>149</v>
@@ -15175,14 +15175,14 @@
       <c r="BU27" t="s">
         <v>149</v>
       </c>
-      <c r="BV27" t="s">
-        <v>149</v>
+      <c r="BV27">
+        <v>0.5</v>
       </c>
       <c r="BW27" t="s">
         <v>149</v>
       </c>
-      <c r="BX27">
-        <v>0.5</v>
+      <c r="BX27" t="s">
+        <v>149</v>
       </c>
       <c r="BY27" t="s">
         <v>149</v>
@@ -15190,23 +15190,23 @@
       <c r="BZ27" t="s">
         <v>149</v>
       </c>
-      <c r="CA27" t="s">
-        <v>149</v>
+      <c r="CA27">
+        <v>1</v>
       </c>
       <c r="CB27" t="s">
         <v>149</v>
       </c>
-      <c r="CC27">
-        <v>1</v>
-      </c>
-      <c r="CD27" t="s">
-        <v>149</v>
+      <c r="CC27" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD27">
+        <v>1</v>
       </c>
       <c r="CE27" t="s">
         <v>149</v>
       </c>
-      <c r="CF27">
-        <v>1</v>
+      <c r="CF27" t="s">
+        <v>149</v>
       </c>
       <c r="CG27" t="s">
         <v>149</v>
@@ -15477,12 +15477,12 @@
       <c r="G28">
         <f>F28-E28</f>
       </c>
-      <c r="H28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
         <v>0.6</v>
       </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
       <c r="J28" t="s">
         <v>149</v>
       </c>
@@ -15504,12 +15504,12 @@
       <c r="P28" t="s">
         <v>149</v>
       </c>
-      <c r="Q28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R28">
+      <c r="Q28">
         <v>0.2</v>
       </c>
+      <c r="R28" t="s">
+        <v>149</v>
+      </c>
       <c r="S28" t="s">
         <v>149</v>
       </c>
@@ -15780,14 +15780,14 @@
       <c r="DD28" t="s">
         <v>149</v>
       </c>
-      <c r="DE28">
-        <v>0.6</v>
+      <c r="DE28" t="s">
+        <v>149</v>
       </c>
       <c r="DF28">
         <v>0.6</v>
       </c>
-      <c r="DG28" t="s">
-        <v>149</v>
+      <c r="DG28">
+        <v>0.6</v>
       </c>
       <c r="DH28" t="s">
         <v>149</v>
@@ -15977,12 +15977,12 @@
       <c r="G29">
         <f>F29-E29</f>
       </c>
-      <c r="H29" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
         <v>0.5</v>
       </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
       <c r="J29" t="s">
         <v>149</v>
       </c>
@@ -16016,12 +16016,12 @@
       <c r="T29" t="s">
         <v>149</v>
       </c>
-      <c r="U29" t="s">
-        <v>149</v>
-      </c>
-      <c r="V29">
+      <c r="U29">
         <v>0.4</v>
       </c>
+      <c r="V29" t="s">
+        <v>149</v>
+      </c>
       <c r="W29" t="s">
         <v>149</v>
       </c>
@@ -16130,14 +16130,14 @@
       <c r="BF29" t="s">
         <v>149</v>
       </c>
-      <c r="BG29" t="s">
-        <v>149</v>
+      <c r="BG29">
+        <v>1</v>
       </c>
       <c r="BH29" t="s">
         <v>149</v>
       </c>
-      <c r="BI29">
-        <v>1</v>
+      <c r="BI29" t="s">
+        <v>149</v>
       </c>
       <c r="BJ29" t="s">
         <v>149</v>
@@ -16145,14 +16145,14 @@
       <c r="BK29" t="s">
         <v>149</v>
       </c>
-      <c r="BL29" t="s">
-        <v>149</v>
+      <c r="BL29">
+        <v>1</v>
       </c>
       <c r="BM29" t="s">
         <v>149</v>
       </c>
-      <c r="BN29">
-        <v>1</v>
+      <c r="BN29" t="s">
+        <v>149</v>
       </c>
       <c r="BO29" t="s">
         <v>149</v>
@@ -16280,14 +16280,14 @@
       <c r="DD29" t="s">
         <v>149</v>
       </c>
-      <c r="DE29">
-        <v>0.5</v>
+      <c r="DE29" t="s">
+        <v>149</v>
       </c>
       <c r="DF29">
         <v>0.5</v>
       </c>
-      <c r="DG29" t="s">
-        <v>149</v>
+      <c r="DG29">
+        <v>0.5</v>
       </c>
       <c r="DH29" t="s">
         <v>149</v>
@@ -16507,12 +16507,12 @@
       <c r="Q30" t="s">
         <v>149</v>
       </c>
-      <c r="R30" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30">
+      <c r="R30">
         <v>0.5</v>
       </c>
+      <c r="S30" t="s">
+        <v>149</v>
+      </c>
       <c r="T30" t="s">
         <v>149</v>
       </c>
@@ -16534,14 +16534,14 @@
       <c r="Z30" t="s">
         <v>149</v>
       </c>
-      <c r="AA30" t="s">
-        <v>149</v>
+      <c r="AA30">
+        <v>0.6</v>
       </c>
       <c r="AB30" t="s">
         <v>149</v>
       </c>
-      <c r="AC30">
-        <v>0.6</v>
+      <c r="AC30" t="s">
+        <v>149</v>
       </c>
       <c r="AD30" t="s">
         <v>149</v>
@@ -16591,29 +16591,29 @@
       <c r="AS30" t="s">
         <v>149</v>
       </c>
-      <c r="AT30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV30">
+      <c r="AT30">
         <v>0.5</v>
       </c>
-      <c r="AW30">
+      <c r="AU30">
         <v>0.5</v>
       </c>
-      <c r="AX30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ30">
+      <c r="AV30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX30">
         <v>0.2</v>
       </c>
-      <c r="BA30">
+      <c r="AY30">
         <v>0.2</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>149</v>
       </c>
       <c r="BB30" t="s">
         <v>149</v>
@@ -17073,14 +17073,14 @@
       <c r="AM31" t="s">
         <v>149</v>
       </c>
-      <c r="AN31" t="s">
-        <v>149</v>
+      <c r="AN31">
+        <v>0.6</v>
       </c>
       <c r="AO31" t="s">
         <v>149</v>
       </c>
-      <c r="AP31">
-        <v>0.6</v>
+      <c r="AP31" t="s">
+        <v>149</v>
       </c>
       <c r="AQ31" t="s">
         <v>149</v>
@@ -17091,18 +17091,18 @@
       <c r="AS31" t="s">
         <v>149</v>
       </c>
-      <c r="AT31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV31">
+      <c r="AT31">
         <v>0.5</v>
       </c>
-      <c r="AW31">
+      <c r="AU31">
         <v>0.5</v>
       </c>
+      <c r="AV31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>149</v>
+      </c>
       <c r="AX31" t="s">
         <v>149</v>
       </c>
@@ -17133,14 +17133,14 @@
       <c r="BG31" t="s">
         <v>149</v>
       </c>
-      <c r="BH31" t="s">
-        <v>149</v>
+      <c r="BH31">
+        <v>1</v>
       </c>
       <c r="BI31" t="s">
         <v>149</v>
       </c>
-      <c r="BJ31">
-        <v>1</v>
+      <c r="BJ31" t="s">
+        <v>149</v>
       </c>
       <c r="BK31" t="s">
         <v>149</v>
@@ -17154,17 +17154,17 @@
       <c r="BN31" t="s">
         <v>149</v>
       </c>
-      <c r="BO31" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ31">
-        <v>1</v>
-      </c>
-      <c r="BR31">
-        <v>1</v>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>149</v>
       </c>
       <c r="BS31" t="s">
         <v>149</v>
@@ -17525,14 +17525,14 @@
       <c r="W32" t="s">
         <v>149</v>
       </c>
-      <c r="X32" t="s">
-        <v>149</v>
+      <c r="X32">
+        <v>1</v>
       </c>
       <c r="Y32" t="s">
         <v>149</v>
       </c>
-      <c r="Z32">
-        <v>1</v>
+      <c r="Z32" t="s">
+        <v>149</v>
       </c>
       <c r="AA32" t="s">
         <v>149</v>
@@ -17648,8 +17648,8 @@
       <c r="BL32" t="s">
         <v>149</v>
       </c>
-      <c r="BM32" t="s">
-        <v>149</v>
+      <c r="BM32">
+        <v>1</v>
       </c>
       <c r="BN32" t="s">
         <v>149</v>
@@ -17657,14 +17657,14 @@
       <c r="BO32">
         <v>1</v>
       </c>
-      <c r="BP32" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ32">
-        <v>1</v>
-      </c>
-      <c r="BR32">
-        <v>1</v>
+      <c r="BP32">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>149</v>
       </c>
       <c r="BS32" t="s">
         <v>149</v>
@@ -17977,12 +17977,12 @@
       <c r="G33">
         <f>F33-E33</f>
       </c>
-      <c r="H33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33">
+      <c r="H33">
         <v>0.5</v>
       </c>
+      <c r="I33" t="s">
+        <v>149</v>
+      </c>
       <c r="J33" t="s">
         <v>149</v>
       </c>
@@ -18013,11 +18013,11 @@
       <c r="S33" t="s">
         <v>149</v>
       </c>
-      <c r="T33" t="s">
-        <v>149</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>149</v>
       </c>
       <c r="V33" t="s">
         <v>149</v>
@@ -18073,17 +18073,17 @@
       <c r="AM33" t="s">
         <v>149</v>
       </c>
-      <c r="AN33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP33">
+      <c r="AN33">
         <v>0.4</v>
       </c>
-      <c r="AQ33">
-        <v>1</v>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>149</v>
       </c>
       <c r="AR33" t="s">
         <v>149</v>
@@ -18280,14 +18280,14 @@
       <c r="DD33" t="s">
         <v>149</v>
       </c>
-      <c r="DE33">
-        <v>0.5</v>
+      <c r="DE33" t="s">
+        <v>149</v>
       </c>
       <c r="DF33">
         <v>0.5</v>
       </c>
-      <c r="DG33" t="s">
-        <v>149</v>
+      <c r="DG33">
+        <v>0.5</v>
       </c>
       <c r="DH33" t="s">
         <v>149</v>
@@ -18495,12 +18495,12 @@
       <c r="M34" t="s">
         <v>149</v>
       </c>
-      <c r="N34" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34">
+      <c r="N34">
         <v>0.5</v>
       </c>
+      <c r="O34" t="s">
+        <v>149</v>
+      </c>
       <c r="P34" t="s">
         <v>149</v>
       </c>
@@ -18531,14 +18531,14 @@
       <c r="Y34" t="s">
         <v>149</v>
       </c>
-      <c r="Z34" t="s">
-        <v>149</v>
+      <c r="Z34">
+        <v>1</v>
       </c>
       <c r="AA34" t="s">
         <v>149</v>
       </c>
-      <c r="AB34">
-        <v>1</v>
+      <c r="AB34" t="s">
+        <v>149</v>
       </c>
       <c r="AC34" t="s">
         <v>149</v>
@@ -19109,17 +19109,17 @@
       <c r="AY35" t="s">
         <v>149</v>
       </c>
-      <c r="AZ35" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB35">
-        <v>1</v>
-      </c>
-      <c r="BC35">
-        <v>1</v>
+      <c r="AZ35">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>149</v>
       </c>
       <c r="BD35" t="s">
         <v>149</v>
@@ -19142,14 +19142,14 @@
       <c r="BJ35" t="s">
         <v>149</v>
       </c>
-      <c r="BK35" t="s">
-        <v>149</v>
+      <c r="BK35">
+        <v>1</v>
       </c>
       <c r="BL35" t="s">
         <v>149</v>
       </c>
-      <c r="BM35">
-        <v>1</v>
+      <c r="BM35" t="s">
+        <v>149</v>
       </c>
       <c r="BN35" t="s">
         <v>149</v>
@@ -19498,12 +19498,12 @@
       <c r="N36" t="s">
         <v>149</v>
       </c>
-      <c r="O36" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36">
+      <c r="O36">
         <v>0.6</v>
       </c>
+      <c r="P36" t="s">
+        <v>149</v>
+      </c>
       <c r="Q36" t="s">
         <v>149</v>
       </c>
@@ -19639,14 +19639,14 @@
       <c r="BI36" t="s">
         <v>149</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>149</v>
+      <c r="BJ36">
+        <v>0.4</v>
       </c>
       <c r="BK36" t="s">
         <v>149</v>
       </c>
-      <c r="BL36">
-        <v>0.4</v>
+      <c r="BL36" t="s">
+        <v>149</v>
       </c>
       <c r="BM36" t="s">
         <v>149</v>
@@ -19986,12 +19986,12 @@
       <c r="J37" t="s">
         <v>149</v>
       </c>
-      <c r="K37" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37">
+      <c r="K37">
         <v>0.2</v>
       </c>
+      <c r="L37" t="s">
+        <v>149</v>
+      </c>
       <c r="M37" t="s">
         <v>149</v>
       </c>
@@ -20037,14 +20037,14 @@
       <c r="AA37" t="s">
         <v>149</v>
       </c>
-      <c r="AB37" t="s">
-        <v>149</v>
+      <c r="AB37">
+        <v>1</v>
       </c>
       <c r="AC37" t="s">
         <v>149</v>
       </c>
-      <c r="AD37">
-        <v>1</v>
+      <c r="AD37" t="s">
+        <v>149</v>
       </c>
       <c r="AE37" t="s">
         <v>149</v>
@@ -20091,18 +20091,18 @@
       <c r="AS37" t="s">
         <v>149</v>
       </c>
-      <c r="AT37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV37">
+      <c r="AT37">
         <v>0.5</v>
       </c>
-      <c r="AW37">
+      <c r="AU37">
         <v>0.5</v>
       </c>
+      <c r="AV37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>149</v>
+      </c>
       <c r="AX37" t="s">
         <v>149</v>
       </c>
@@ -20121,20 +20121,20 @@
       <c r="BC37" t="s">
         <v>149</v>
       </c>
-      <c r="BD37" t="s">
-        <v>149</v>
+      <c r="BD37">
+        <v>0.5</v>
       </c>
       <c r="BE37" t="s">
         <v>149</v>
       </c>
       <c r="BF37">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="BG37" t="s">
         <v>149</v>
       </c>
-      <c r="BH37">
-        <v>0.7</v>
+      <c r="BH37" t="s">
+        <v>149</v>
       </c>
       <c r="BI37" t="s">
         <v>149</v>
@@ -20292,11 +20292,11 @@
       <c r="DH37" t="s">
         <v>149</v>
       </c>
-      <c r="DI37">
+      <c r="DI37" t="s">
+        <v>149</v>
+      </c>
+      <c r="DJ37">
         <v>0.2</v>
-      </c>
-      <c r="DJ37" t="s">
-        <v>149</v>
       </c>
       <c r="DK37" t="s">
         <v>149</v>
@@ -20516,11 +20516,11 @@
       <c r="T38" t="s">
         <v>149</v>
       </c>
-      <c r="U38" t="s">
-        <v>149</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>149</v>
       </c>
       <c r="W38" t="s">
         <v>149</v>
@@ -20591,18 +20591,18 @@
       <c r="AS38" t="s">
         <v>149</v>
       </c>
-      <c r="AT38" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV38">
+      <c r="AT38">
         <v>0.5</v>
       </c>
-      <c r="AW38">
+      <c r="AU38">
         <v>0.5</v>
       </c>
+      <c r="AV38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>149</v>
+      </c>
       <c r="AX38" t="s">
         <v>149</v>
       </c>
@@ -20627,26 +20627,26 @@
       <c r="BE38" t="s">
         <v>149</v>
       </c>
-      <c r="BF38" t="s">
-        <v>149</v>
+      <c r="BF38">
+        <v>0.3</v>
       </c>
       <c r="BG38" t="s">
         <v>149</v>
       </c>
-      <c r="BH38">
-        <v>0.3</v>
+      <c r="BH38" t="s">
+        <v>149</v>
       </c>
       <c r="BI38" t="s">
         <v>149</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>149</v>
+      <c r="BJ38">
+        <v>0.6</v>
       </c>
       <c r="BK38" t="s">
         <v>149</v>
       </c>
-      <c r="BL38">
-        <v>0.6</v>
+      <c r="BL38" t="s">
+        <v>149</v>
       </c>
       <c r="BM38" t="s">
         <v>149</v>
@@ -20992,11 +20992,11 @@
       <c r="L39" t="s">
         <v>149</v>
       </c>
-      <c r="M39" t="s">
-        <v>149</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>149</v>
       </c>
       <c r="O39" t="s">
         <v>149</v>
@@ -21160,17 +21160,17 @@
       <c r="BP39" t="s">
         <v>149</v>
       </c>
-      <c r="BQ39" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS39">
-        <v>1</v>
-      </c>
-      <c r="BT39">
-        <v>1</v>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>149</v>
       </c>
       <c r="BU39" t="s">
         <v>149</v>
@@ -21295,11 +21295,11 @@
       <c r="DI39" t="s">
         <v>149</v>
       </c>
-      <c r="DJ39">
-        <v>1</v>
-      </c>
-      <c r="DK39" t="s">
-        <v>149</v>
+      <c r="DJ39" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK39">
+        <v>1</v>
       </c>
       <c r="DL39" t="s">
         <v>149</v>
@@ -21495,12 +21495,12 @@
       <c r="M40" t="s">
         <v>149</v>
       </c>
-      <c r="N40" t="s">
-        <v>149</v>
-      </c>
-      <c r="O40">
+      <c r="N40">
         <v>0.5</v>
       </c>
+      <c r="O40" t="s">
+        <v>149</v>
+      </c>
       <c r="P40" t="s">
         <v>149</v>
       </c>
@@ -21555,18 +21555,18 @@
       <c r="AG40" t="s">
         <v>149</v>
       </c>
-      <c r="AH40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ40">
+      <c r="AH40">
         <v>0.5</v>
       </c>
-      <c r="AK40">
+      <c r="AI40">
         <v>0.5</v>
       </c>
+      <c r="AJ40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>149</v>
+      </c>
       <c r="AL40" t="s">
         <v>149</v>
       </c>
@@ -21660,17 +21660,17 @@
       <c r="BP40" t="s">
         <v>149</v>
       </c>
-      <c r="BQ40" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS40">
-        <v>1</v>
-      </c>
-      <c r="BT40">
-        <v>1</v>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>149</v>
       </c>
       <c r="BU40" t="s">
         <v>149</v>
@@ -21684,14 +21684,14 @@
       <c r="BX40" t="s">
         <v>149</v>
       </c>
-      <c r="BY40" t="s">
-        <v>149</v>
+      <c r="BY40">
+        <v>0.6</v>
       </c>
       <c r="BZ40" t="s">
         <v>149</v>
       </c>
-      <c r="CA40">
-        <v>0.6</v>
+      <c r="CA40" t="s">
+        <v>149</v>
       </c>
       <c r="CB40" t="s">
         <v>149</v>
@@ -21977,12 +21977,12 @@
       <c r="G41">
         <f>F41-E41</f>
       </c>
-      <c r="H41" t="s">
-        <v>149</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
         <v>0.4</v>
       </c>
+      <c r="I41" t="s">
+        <v>149</v>
+      </c>
       <c r="J41" t="s">
         <v>149</v>
       </c>
@@ -22172,14 +22172,14 @@
       <c r="BT41" t="s">
         <v>149</v>
       </c>
-      <c r="BU41" t="s">
-        <v>149</v>
+      <c r="BU41">
+        <v>0.2</v>
       </c>
       <c r="BV41" t="s">
         <v>149</v>
       </c>
-      <c r="BW41">
-        <v>0.2</v>
+      <c r="BW41" t="s">
+        <v>149</v>
       </c>
       <c r="BX41" t="s">
         <v>149</v>
@@ -22193,14 +22193,14 @@
       <c r="CA41" t="s">
         <v>149</v>
       </c>
-      <c r="CB41" t="s">
-        <v>149</v>
+      <c r="CB41">
+        <v>1</v>
       </c>
       <c r="CC41" t="s">
         <v>149</v>
       </c>
-      <c r="CD41">
-        <v>1</v>
+      <c r="CD41" t="s">
+        <v>149</v>
       </c>
       <c r="CE41" t="s">
         <v>149</v>
@@ -22280,14 +22280,14 @@
       <c r="DD41" t="s">
         <v>149</v>
       </c>
-      <c r="DE41">
-        <v>0.4</v>
+      <c r="DE41" t="s">
+        <v>149</v>
       </c>
       <c r="DF41">
         <v>0.4</v>
       </c>
-      <c r="DG41" t="s">
-        <v>149</v>
+      <c r="DG41">
+        <v>0.4</v>
       </c>
       <c r="DH41" t="s">
         <v>149</v>
@@ -22489,12 +22489,12 @@
       <c r="K42" t="s">
         <v>149</v>
       </c>
-      <c r="L42" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42">
+      <c r="L42">
         <v>0.4</v>
       </c>
+      <c r="M42" t="s">
+        <v>149</v>
+      </c>
       <c r="N42" t="s">
         <v>149</v>
       </c>
@@ -22510,12 +22510,12 @@
       <c r="R42" t="s">
         <v>149</v>
       </c>
-      <c r="S42" t="s">
-        <v>149</v>
-      </c>
-      <c r="T42">
+      <c r="S42">
         <v>0.5</v>
       </c>
+      <c r="T42" t="s">
+        <v>149</v>
+      </c>
       <c r="U42" t="s">
         <v>149</v>
       </c>
@@ -22621,17 +22621,17 @@
       <c r="BC42" t="s">
         <v>149</v>
       </c>
-      <c r="BD42" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF42">
+      <c r="BD42">
         <v>0.7</v>
       </c>
-      <c r="BG42">
+      <c r="BE42">
         <v>0.6</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>149</v>
       </c>
       <c r="BH42" t="s">
         <v>149</v>
@@ -22801,11 +22801,11 @@
       <c r="DK42" t="s">
         <v>149</v>
       </c>
-      <c r="DL42">
+      <c r="DL42" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM42">
         <v>0.5</v>
-      </c>
-      <c r="DM42" t="s">
-        <v>149</v>
       </c>
       <c r="DN42" t="s">
         <v>149</v>
@@ -23007,11 +23007,11 @@
       <c r="Q43" t="s">
         <v>149</v>
       </c>
-      <c r="R43" t="s">
-        <v>149</v>
-      </c>
-      <c r="S43">
+      <c r="R43">
         <v>0.4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>149</v>
       </c>
       <c r="T43" t="s">
         <v>149</v>
@@ -23669,23 +23669,23 @@
       <c r="BS44" t="s">
         <v>149</v>
       </c>
-      <c r="BT44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU44" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV44">
+      <c r="BT44">
         <v>0.6</v>
       </c>
+      <c r="BU44">
+        <v>0.4</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>149</v>
+      </c>
       <c r="BW44">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BX44" t="s">
         <v>149</v>
       </c>
-      <c r="BY44">
-        <v>0.6</v>
+      <c r="BY44" t="s">
+        <v>149</v>
       </c>
       <c r="BZ44" t="s">
         <v>149</v>
@@ -24007,12 +24007,12 @@
       <c r="Q45" t="s">
         <v>149</v>
       </c>
-      <c r="R45" t="s">
-        <v>149</v>
-      </c>
-      <c r="S45">
+      <c r="R45">
         <v>0.5</v>
       </c>
+      <c r="S45" t="s">
+        <v>149</v>
+      </c>
       <c r="T45" t="s">
         <v>149</v>
       </c>
@@ -24034,14 +24034,14 @@
       <c r="Z45" t="s">
         <v>149</v>
       </c>
-      <c r="AA45" t="s">
-        <v>149</v>
+      <c r="AA45">
+        <v>0.4</v>
       </c>
       <c r="AB45" t="s">
         <v>149</v>
       </c>
-      <c r="AC45">
-        <v>0.4</v>
+      <c r="AC45" t="s">
+        <v>149</v>
       </c>
       <c r="AD45" t="s">
         <v>149</v>
@@ -24489,12 +24489,12 @@
       <c r="K46" t="s">
         <v>149</v>
       </c>
-      <c r="L46" t="s">
-        <v>149</v>
-      </c>
-      <c r="M46">
+      <c r="L46">
         <v>0.7</v>
       </c>
+      <c r="M46" t="s">
+        <v>149</v>
+      </c>
       <c r="N46" t="s">
         <v>149</v>
       </c>
@@ -24510,12 +24510,12 @@
       <c r="R46" t="s">
         <v>149</v>
       </c>
-      <c r="S46" t="s">
-        <v>149</v>
-      </c>
-      <c r="T46">
+      <c r="S46">
         <v>0.4</v>
       </c>
+      <c r="T46" t="s">
+        <v>149</v>
+      </c>
       <c r="U46" t="s">
         <v>149</v>
       </c>
@@ -24801,11 +24801,11 @@
       <c r="DK46" t="s">
         <v>149</v>
       </c>
-      <c r="DL46">
+      <c r="DL46" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM46">
         <v>0.4</v>
-      </c>
-      <c r="DM46" t="s">
-        <v>149</v>
       </c>
       <c r="DN46" t="s">
         <v>149</v>
@@ -24980,14 +24980,14 @@
       <c r="H47" t="s">
         <v>149</v>
       </c>
-      <c r="I47" t="s">
-        <v>149</v>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47">
-        <v>1</v>
+      <c r="K47" t="s">
+        <v>149</v>
       </c>
       <c r="L47" t="s">
         <v>149</v>
@@ -25289,11 +25289,11 @@
       <c r="DG47" t="s">
         <v>149</v>
       </c>
-      <c r="DH47">
-        <v>1</v>
-      </c>
-      <c r="DI47" t="s">
-        <v>149</v>
+      <c r="DH47" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI47">
+        <v>1</v>
       </c>
       <c r="DJ47" t="s">
         <v>149</v>
@@ -25621,17 +25621,17 @@
       <c r="BC48" t="s">
         <v>149</v>
       </c>
-      <c r="BD48" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE48" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF48">
+      <c r="BD48">
         <v>0.3</v>
       </c>
-      <c r="BG48">
+      <c r="BE48">
         <v>0.4</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>149</v>
       </c>
       <c r="BH48" t="s">
         <v>149</v>
@@ -25962,7 +25962,10 @@
       <c r="H49" t="s">
         <v>149</v>
       </c>
-      <c r="I49" t="s">
+      <c r="AF49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG49" t="s">
         <v>149</v>
       </c>
       <c r="AH49" t="s">
@@ -25971,18 +25974,18 @@
       <c r="AI49" t="s">
         <v>149</v>
       </c>
-      <c r="AJ49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL49">
+      <c r="AJ49">
         <v>0.3</v>
       </c>
-      <c r="AM49">
+      <c r="AK49">
         <v>0.3</v>
       </c>
+      <c r="AR49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>149</v>
+      </c>
       <c r="AT49" t="s">
         <v>149</v>
       </c>
@@ -26001,10 +26004,10 @@
       <c r="AY49" t="s">
         <v>149</v>
       </c>
-      <c r="AZ49" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA49" t="s">
+      <c r="BO49" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP49" t="s">
         <v>149</v>
       </c>
       <c r="BQ49" t="s">
@@ -26013,10 +26016,7 @@
       <c r="BR49" t="s">
         <v>149</v>
       </c>
-      <c r="BS49" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT49" t="s">
+      <c r="CG49" t="s">
         <v>149</v>
       </c>
       <c r="CO49" t="s">
@@ -26096,10 +26096,10 @@
       <c r="D50">
         <f>SUM(D9:D49)</f>
       </c>
-      <c r="AV50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW50" t="s">
+      <c r="AT50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU50" t="s">
         <v>149</v>
       </c>
       <c r="CS50" t="s">

--- a/tas/public/template2.xlsx
+++ b/tas/public/template2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
   <si>
     <t>Code</t>
   </si>
@@ -21,189 +21,201 @@
     <t>CAB201</t>
   </si>
   <si>
+    <t>CAB203</t>
+  </si>
+  <si>
     <t>CAB202</t>
   </si>
   <si>
-    <t>CAB203</t>
+    <t>CAB230</t>
+  </si>
+  <si>
+    <t>CAB302</t>
+  </si>
+  <si>
+    <t>CAB330</t>
+  </si>
+  <si>
+    <t>CAB340</t>
+  </si>
+  <si>
+    <t>CAB403</t>
+  </si>
+  <si>
+    <t>CAB432</t>
+  </si>
+  <si>
+    <t>ENN523</t>
+  </si>
+  <si>
+    <t>ENN524</t>
+  </si>
+  <si>
+    <t>IFB102</t>
+  </si>
+  <si>
+    <t>IFB398</t>
+  </si>
+  <si>
+    <t>IFN507/IFQ507</t>
+  </si>
+  <si>
+    <t>IFN509</t>
+  </si>
+  <si>
+    <t>IFN541 / IFQ541</t>
+  </si>
+  <si>
+    <t>IFN553/IFQ553</t>
+  </si>
+  <si>
+    <t>IFN555/IFQ555</t>
+  </si>
+  <si>
+    <t>IFN556/IFQ556</t>
+  </si>
+  <si>
+    <t>IFN563 / IFQ563</t>
+  </si>
+  <si>
+    <t>IFN591</t>
+  </si>
+  <si>
+    <t>IFN645</t>
+  </si>
+  <si>
+    <t>IFN646</t>
+  </si>
+  <si>
+    <t>IFN657</t>
+  </si>
+  <si>
+    <t>IFN692</t>
+  </si>
+  <si>
+    <t>IGB180</t>
+  </si>
+  <si>
+    <t>IGB181</t>
+  </si>
+  <si>
+    <t>IGB283</t>
+  </si>
+  <si>
+    <t>IGB320</t>
+  </si>
+  <si>
+    <t>IGB383</t>
+  </si>
+  <si>
+    <t>IGB400</t>
   </si>
   <si>
     <t>CAB210</t>
   </si>
   <si>
+    <t>CAB240</t>
+  </si>
+  <si>
+    <t>CAB303</t>
+  </si>
+  <si>
+    <t>CAB401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAB430 </t>
+  </si>
+  <si>
+    <t>CAB440</t>
+  </si>
+  <si>
+    <t>ENN541</t>
+  </si>
+  <si>
+    <t>IFB104</t>
+  </si>
+  <si>
+    <t>IFN509 / IFQ509</t>
+  </si>
+  <si>
+    <t>IFN551/IFQ551</t>
+  </si>
+  <si>
+    <t>IFN564</t>
+  </si>
+  <si>
+    <t>IFN591 / IFQ591</t>
+  </si>
+  <si>
+    <t>IFN647</t>
+  </si>
+  <si>
+    <t>IFN666</t>
+  </si>
+  <si>
+    <t>IFN712</t>
+  </si>
+  <si>
+    <t>IGB200</t>
+  </si>
+  <si>
+    <t>IGB300</t>
+  </si>
+  <si>
+    <t>IGB321</t>
+  </si>
+  <si>
     <t>CAB220</t>
   </si>
   <si>
-    <t>CAB230</t>
-  </si>
-  <si>
-    <t>CAB240</t>
-  </si>
-  <si>
     <t>CAB301</t>
   </si>
   <si>
-    <t>CAB302</t>
-  </si>
-  <si>
-    <t>CAB303</t>
-  </si>
-  <si>
     <t>CAB310</t>
   </si>
   <si>
-    <t>CAB330</t>
-  </si>
-  <si>
-    <t>CAB340</t>
-  </si>
-  <si>
-    <t>CAB401</t>
-  </si>
-  <si>
     <t>CAB402</t>
   </si>
   <si>
-    <t>CAB403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAB430 </t>
-  </si>
-  <si>
     <t>CAB431</t>
   </si>
   <si>
-    <t>CAB432</t>
-  </si>
-  <si>
-    <t>CAB440</t>
-  </si>
-  <si>
     <t>CAB441</t>
   </si>
   <si>
-    <t>ENN523</t>
-  </si>
-  <si>
-    <t>ENN524</t>
-  </si>
-  <si>
-    <t>ENN541</t>
-  </si>
-  <si>
-    <t>IFB102</t>
-  </si>
-  <si>
-    <t>IFB104</t>
-  </si>
-  <si>
-    <t>IFB398</t>
-  </si>
-  <si>
     <t>IFN507</t>
   </si>
   <si>
-    <t>IFN509</t>
-  </si>
-  <si>
     <t>IFN541</t>
   </si>
   <si>
-    <t>IFN551</t>
-  </si>
-  <si>
-    <t>IFN553</t>
-  </si>
-  <si>
-    <t>IFN555</t>
-  </si>
-  <si>
-    <t>IFN556</t>
-  </si>
-  <si>
     <t>IFN563</t>
   </si>
   <si>
-    <t>IFN564</t>
-  </si>
-  <si>
-    <t>IFN591</t>
+    <t>IFN564 / IFQ564</t>
   </si>
   <si>
     <t>IFN644</t>
   </si>
   <si>
-    <t>IFN645</t>
-  </si>
-  <si>
-    <t>IFN646</t>
-  </si>
-  <si>
-    <t>IFN647</t>
-  </si>
-  <si>
     <t>IFN648</t>
   </si>
   <si>
-    <t>IFN657</t>
-  </si>
-  <si>
-    <t>IFN666</t>
-  </si>
-  <si>
     <t>IFN680</t>
   </si>
   <si>
-    <t>IFN692</t>
-  </si>
-  <si>
-    <t>IFN703</t>
-  </si>
-  <si>
-    <t>IFN704</t>
-  </si>
-  <si>
-    <t>IFN712</t>
-  </si>
-  <si>
     <t>IGB100</t>
   </si>
   <si>
-    <t>IGB180</t>
-  </si>
-  <si>
-    <t>IGB181</t>
-  </si>
-  <si>
-    <t>IGB200</t>
-  </si>
-  <si>
     <t>IGB220</t>
   </si>
   <si>
-    <t>IGB283</t>
-  </si>
-  <si>
-    <t>IGB300</t>
-  </si>
-  <si>
     <t>IGB301</t>
   </si>
   <si>
-    <t>IGB320</t>
-  </si>
-  <si>
-    <t>IGB321</t>
-  </si>
-  <si>
     <t>IGB381</t>
   </si>
   <si>
-    <t>IGB383</t>
-  </si>
-  <si>
-    <t>IGB400</t>
-  </si>
-  <si>
     <t>Standard Load:</t>
   </si>
   <si>
@@ -213,189 +225,183 @@
     <t>Programming Principles</t>
   </si>
   <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
     <t>Micro Proc and Dig Sys</t>
   </si>
   <si>
-    <t>Discrete Structures</t>
+    <t>Web Computing</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Data and Web Analytics</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Systems Programming</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>Advanced Network Engineering</t>
+  </si>
+  <si>
+    <t>Mobile Network Engineering</t>
+  </si>
+  <si>
+    <t>Comp Tech Fundamentals</t>
+  </si>
+  <si>
+    <t>Capstone (Phase 1)</t>
+  </si>
+  <si>
+    <t>Network Systems</t>
+  </si>
+  <si>
+    <t>Data Exploration and Mining</t>
+  </si>
+  <si>
+    <t>Information Security Management</t>
+  </si>
+  <si>
+    <t>Intro Cyber Security &amp; Networks</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>Object Oriented Design</t>
+  </si>
+  <si>
+    <t>Principles of UX</t>
+  </si>
+  <si>
+    <t>Large Scale Data Mining</t>
+  </si>
+  <si>
+    <t>Biomedical Data Science</t>
+  </si>
+  <si>
+    <t>Principles of Software Security</t>
+  </si>
+  <si>
+    <t>Interaction Design for Emerging Tech</t>
+  </si>
+  <si>
+    <t>Computer Games Studies</t>
+  </si>
+  <si>
+    <t>Game Production and Technology</t>
+  </si>
+  <si>
+    <t>Game Engine Theory and Application</t>
+  </si>
+  <si>
+    <t>Game Design in Different Contexts</t>
+  </si>
+  <si>
+    <t>AI for Games</t>
+  </si>
+  <si>
+    <t>Game Studio 3</t>
   </si>
   <si>
     <t>People Context &amp; Tech</t>
   </si>
   <si>
+    <t>Information Security</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>High Performance and Parallel Computing</t>
+  </si>
+  <si>
+    <t>Data and Information Integration</t>
+  </si>
+  <si>
+    <t>Network and Security Administration</t>
+  </si>
+  <si>
+    <t>Research Methods for Engineers</t>
+  </si>
+  <si>
+    <t>Building IT Systems</t>
+  </si>
+  <si>
+    <t>Computer Systems Fundamentals</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Text, Web and Media Analytics</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App Development</t>
+  </si>
+  <si>
+    <t>Research in IT Practice</t>
+  </si>
+  <si>
+    <t>Game Studio 2</t>
+  </si>
+  <si>
+    <t>Capstone (Game Design)</t>
+  </si>
+  <si>
+    <t>Immersive Game Level Design</t>
+  </si>
+  <si>
     <t>Fund of Data Science</t>
   </si>
   <si>
-    <t>Web Computing</t>
-  </si>
-  <si>
-    <t>Information Security</t>
-  </si>
-  <si>
     <t>Algorithms &amp; Complexity</t>
   </si>
   <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>Networks</t>
-  </si>
-  <si>
     <t>Interaction &amp; Experience Design</t>
   </si>
   <si>
-    <t>Data and Web Analytics</t>
-  </si>
-  <si>
-    <t>Cryptography</t>
-  </si>
-  <si>
-    <t>High Performance and Parallel Computing</t>
-  </si>
-  <si>
     <t>Programming Paradigms</t>
   </si>
   <si>
-    <t>Systems Programming</t>
-  </si>
-  <si>
-    <t>Data and Information Integration</t>
-  </si>
-  <si>
     <t>Search Engine Technology</t>
   </si>
   <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>Network and Security Administration</t>
-  </si>
-  <si>
     <t>Network Security</t>
   </si>
   <si>
-    <t>Advanced Network Engineering</t>
-  </si>
-  <si>
-    <t>Mobile Network Engineering</t>
-  </si>
-  <si>
-    <t>Research Methods for Engineers</t>
-  </si>
-  <si>
-    <t>Comp Tech Fundamentals</t>
-  </si>
-  <si>
-    <t>Building IT Systems</t>
-  </si>
-  <si>
-    <t>Capstone (Phase 1)</t>
-  </si>
-  <si>
-    <t>Network Systems</t>
-  </si>
-  <si>
-    <t>Data Exploration and Mining</t>
-  </si>
-  <si>
-    <t>Information Security Management</t>
-  </si>
-  <si>
-    <t>Computer Systems Fundamentals</t>
-  </si>
-  <si>
-    <t>Intro Cyber Security &amp; Networks</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming</t>
-  </si>
-  <si>
-    <t>Object Oriented Design</t>
-  </si>
-  <si>
-    <t>Data Structures and Algorithms</t>
-  </si>
-  <si>
-    <t>Principles of UX</t>
-  </si>
-  <si>
     <t>Network Operations and Security</t>
   </si>
   <si>
-    <t>Large Scale Data Mining</t>
-  </si>
-  <si>
-    <t>Biomedical Data Science</t>
-  </si>
-  <si>
-    <t>Text, Web and Media Analytics</t>
-  </si>
-  <si>
     <t>Applied Crytography</t>
   </si>
   <si>
-    <t>Principles of Software Security</t>
-  </si>
-  <si>
-    <t>Web &amp; Mobile App Development</t>
-  </si>
-  <si>
     <t>Advanced Topics in AI</t>
   </si>
   <si>
-    <t>Interaction Design for Emerging Tech</t>
-  </si>
-  <si>
-    <t>Advanced Project</t>
-  </si>
-  <si>
-    <t>Advanced Project 2</t>
-  </si>
-  <si>
-    <t>Research in IT Practice</t>
-  </si>
-  <si>
     <t>Game Studio 1</t>
   </si>
   <si>
-    <t>Computer Games Studies</t>
-  </si>
-  <si>
-    <t>Game Production and Technology</t>
-  </si>
-  <si>
-    <t>Game Studio 2</t>
-  </si>
-  <si>
     <t>Fundamentals of game Design</t>
   </si>
   <si>
-    <t>Game Engine Theory and Application</t>
-  </si>
-  <si>
-    <t>Capstone (Game Design)</t>
-  </si>
-  <si>
     <t>Capstone (Game Development)</t>
   </si>
   <si>
-    <t>Game Design in Different Contexts</t>
-  </si>
-  <si>
-    <t>Immersive Game Level Design</t>
-  </si>
-  <si>
     <t>Game Engine Technology</t>
   </si>
   <si>
-    <t>AI for Games</t>
-  </si>
-  <si>
-    <t>Game Studio 3</t>
-  </si>
-  <si>
     <t>Semester</t>
   </si>
   <si>
@@ -438,136 +444,142 @@
     <t>Load Error</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr First Academic </t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Second Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Third Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Fourth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Eighth Academic </t>
+  </si>
+  <si>
+    <t>CAB420</t>
+  </si>
+  <si>
+    <t>Joel Mehonoshen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Fifth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Sixth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Seventh Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Eighth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Nineth Academic </t>
+  </si>
+  <si>
+    <t>CAB101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Tenth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D First Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Second Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Third Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Fourth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Fifth Academic </t>
+  </si>
+  <si>
+    <t>CAB102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Sixth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Seventh Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Nineth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Tenth Academic </t>
+  </si>
+  <si>
     <t xml:space="preserve">r First Academic </t>
   </si>
   <si>
-    <t>CS</t>
+    <t xml:space="preserve">r Second Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Third Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Fourth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Fifth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Sixth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Seventh Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Eighth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Nineth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r Tenth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs First Academic </t>
   </si>
   <si>
     <t xml:space="preserve">Drs Second Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr Fourth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Eighth Academic </t>
+    <t xml:space="preserve">Drs Third Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Fourth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Fifth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Sixth Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Seventh Academic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drs Eighth Academic </t>
   </si>
   <si>
     <t xml:space="preserve">Drs Nineth Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">D Fourth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs First Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Fourth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr First Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Eighth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Second Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Fourth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Fifth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Eighth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Second Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Nineth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Fifth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Fifth Academic </t>
-  </si>
-  <si>
-    <t>CAB102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D First Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Nineth Academic </t>
-  </si>
-  <si>
-    <t>CAB101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Second Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Tenth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Third Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Fifth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Sixth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drs Seventh Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D Eighth Academic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r Nineth Academic </t>
-  </si>
-  <si>
     <t xml:space="preserve">Drs Tenth Academic </t>
   </si>
   <si>
-    <t xml:space="preserve">D Sixth Academic </t>
-  </si>
-  <si>
-    <t>40 Bodies</t>
+    <t>41 Bodies</t>
   </si>
 </sst>
 </file>
@@ -577,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -593,16 +605,11 @@
     </font>
     <font>
       <color theme="1"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -626,36 +633,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS960"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
@@ -879,7 +870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.43"/>
   <cols>
-    <col min="1" max="1" width="27.43" customWidth="1"/>
+    <col min="1" max="1" width="21.57" customWidth="1"/>
     <col min="2" max="2" width="7.29" customWidth="1"/>
     <col min="3" max="3" width="6.57" customWidth="1"/>
     <col min="4" max="4" width="6.43" customWidth="1"/>
@@ -888,7 +879,7 @@
     <col min="7" max="7" width="6.43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1" spans="7:69" x14ac:dyDescent="0.25">
+    <row r="1" ht="37.5" customHeight="1" spans="7:82" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,456 +890,534 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BJ1" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BK1" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BL1" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BN1" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BO1" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BP1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR1" t="s">
         <v>56</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BS1" t="s">
         <v>57</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV1" t="s">
         <v>58</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BW1" t="s">
         <v>59</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BX1" t="s">
         <v>60</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BY1" t="s">
         <v>61</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BZ1" t="s">
         <v>62</v>
       </c>
+      <c r="CA1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" ht="39.75" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
-        <f>BS6/D50</f>
+    <row r="2" ht="39.75" customHeight="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <f>CF6/D51</f>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" t="s">
         <v>73</v>
       </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AX2" t="s">
         <v>83</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>107</v>
       </c>
       <c r="AY2" t="s">
         <v>108</v>
       </c>
       <c r="AZ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" t="s">
         <v>109</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>111</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>112</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>114</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>115</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>116</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>117</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>118</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>119</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>120</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>121</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX2" t="s">
         <v>122</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BY2" t="s">
         <v>123</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BZ2" t="s">
         <v>124</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CA2" t="s">
         <v>125</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CB2" t="s">
         <v>126</v>
       </c>
+      <c r="CC2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="3" ht="39.75" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+    <row r="3" ht="39.75" customHeight="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1357,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1372,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -1381,19 +1450,19 @@
         <v>1</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3">
         <v>1</v>
@@ -1402,31 +1471,31 @@
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3">
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY3">
         <v>1</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB3">
         <v>1</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD3">
         <v>1</v>
@@ -1435,19 +1504,19 @@
         <v>1</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH3">
         <v>1</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -1462,350 +1531,428 @@
         <v>1</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP3">
         <v>1</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>2</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>2</v>
+      </c>
+      <c r="CC3">
+        <v>2</v>
+      </c>
+      <c r="CD3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="7:69" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
-        <v>128</v>
+    <row r="4" ht="17.25" customHeight="1" spans="7:82" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H4">
+        <v>490</v>
+      </c>
+      <c r="I4">
+        <v>680</v>
+      </c>
+      <c r="J4">
         <v>610</v>
       </c>
-      <c r="I4" s="6">
+      <c r="K4">
+        <v>610</v>
+      </c>
+      <c r="L4">
         <v>670</v>
-      </c>
-      <c r="J4">
-        <v>680</v>
-      </c>
-      <c r="K4">
-        <v>180</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
       </c>
       <c r="M4">
         <v>400</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>140</v>
+      </c>
+      <c r="Q4">
+        <v>350</v>
+      </c>
+      <c r="R4">
+        <v>180</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>80</v>
+      </c>
+      <c r="U4">
+        <v>275</v>
+      </c>
+      <c r="V4">
+        <v>450</v>
+      </c>
+      <c r="W4">
+        <v>81</v>
+      </c>
+      <c r="X4">
+        <v>80</v>
+      </c>
+      <c r="Y4">
+        <v>53</v>
+      </c>
+      <c r="Z4">
+        <v>108</v>
+      </c>
+      <c r="AA4">
+        <v>54</v>
+      </c>
+      <c r="AB4">
+        <v>108</v>
+      </c>
+      <c r="AC4">
+        <v>70</v>
+      </c>
+      <c r="AD4">
+        <v>70</v>
+      </c>
+      <c r="AE4">
+        <v>135</v>
+      </c>
+      <c r="AF4">
+        <v>70</v>
+      </c>
+      <c r="AG4">
+        <v>136</v>
+      </c>
+      <c r="AH4">
+        <v>70</v>
+      </c>
+      <c r="AI4">
+        <v>280</v>
+      </c>
+      <c r="AJ4">
+        <v>158</v>
+      </c>
+      <c r="AK4">
+        <v>70</v>
+      </c>
+      <c r="AL4">
+        <v>50</v>
+      </c>
+      <c r="AM4">
+        <v>36</v>
+      </c>
+      <c r="AN4">
+        <v>77</v>
+      </c>
+      <c r="AO4">
+        <v>180</v>
+      </c>
+      <c r="AP4">
         <v>550</v>
       </c>
-      <c r="O4" s="2">
+      <c r="AQ4">
+        <v>630</v>
+      </c>
+      <c r="AR4">
+        <v>150</v>
+      </c>
+      <c r="AS4">
+        <v>40</v>
+      </c>
+      <c r="AT4">
+        <v>130</v>
+      </c>
+      <c r="AU4">
+        <v>120</v>
+      </c>
+      <c r="AV4">
+        <v>720</v>
+      </c>
+      <c r="AW4">
+        <v>170</v>
+      </c>
+      <c r="AX4">
+        <v>80</v>
+      </c>
+      <c r="AY4">
+        <v>108</v>
+      </c>
+      <c r="AZ4">
+        <v>108</v>
+      </c>
+      <c r="BA4">
+        <v>54</v>
+      </c>
+      <c r="BB4">
+        <v>70</v>
+      </c>
+      <c r="BC4">
+        <v>70</v>
+      </c>
+      <c r="BD4">
+        <v>140</v>
+      </c>
+      <c r="BE4">
+        <v>70</v>
+      </c>
+      <c r="BF4">
+        <v>200</v>
+      </c>
+      <c r="BG4">
+        <v>69</v>
+      </c>
+      <c r="BH4">
+        <v>74</v>
+      </c>
+      <c r="BI4">
+        <v>59</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
         <v>500</v>
       </c>
-      <c r="P4" s="2">
-        <v>600</v>
-      </c>
-      <c r="Q4">
-        <v>630</v>
-      </c>
-      <c r="R4">
+      <c r="BL4">
         <v>40</v>
       </c>
-      <c r="S4">
-        <v>60</v>
-      </c>
-      <c r="T4">
+      <c r="BM4">
         <v>140</v>
       </c>
-      <c r="U4">
-        <v>150</v>
-      </c>
-      <c r="V4">
-        <v>140</v>
-      </c>
-      <c r="W4">
-        <v>350</v>
-      </c>
-      <c r="X4">
-        <v>40</v>
-      </c>
-      <c r="Y4">
+      <c r="BN4">
         <v>35</v>
       </c>
-      <c r="Z4">
-        <v>180</v>
-      </c>
-      <c r="AA4">
-        <v>130</v>
-      </c>
-      <c r="AB4">
+      <c r="BO4">
         <v>85</v>
       </c>
-      <c r="AC4">
+      <c r="BP4">
+        <v>800</v>
+      </c>
+      <c r="BQ4">
+        <v>710</v>
+      </c>
+      <c r="BR4">
+        <v>81</v>
+      </c>
+      <c r="BS4">
+        <v>53</v>
+      </c>
+      <c r="BT4">
+        <v>108</v>
+      </c>
+      <c r="BU4">
+        <v>108</v>
+      </c>
+      <c r="BV4">
+        <v>70</v>
+      </c>
+      <c r="BW4">
+        <v>70</v>
+      </c>
+      <c r="BX4">
+        <v>88</v>
+      </c>
+      <c r="BY4">
+        <v>74</v>
+      </c>
+      <c r="BZ4">
+        <v>139</v>
+      </c>
+      <c r="CA4">
         <v>100</v>
       </c>
-      <c r="AD4">
-        <v>80</v>
-      </c>
-      <c r="AE4">
-        <v>120</v>
-      </c>
-      <c r="AF4">
-        <v>275</v>
-      </c>
-      <c r="AG4">
-        <v>710</v>
-      </c>
-      <c r="AH4">
-        <v>170</v>
-      </c>
-      <c r="AI4">
-        <v>81</v>
-      </c>
-      <c r="AJ4">
-        <v>80</v>
-      </c>
-      <c r="AK4">
-        <v>53</v>
-      </c>
-      <c r="AL4">
-        <v>108</v>
-      </c>
-      <c r="AM4">
-        <v>108</v>
-      </c>
-      <c r="AN4">
-        <v>108</v>
-      </c>
-      <c r="AO4">
-        <v>108</v>
-      </c>
-      <c r="AP4">
-        <v>70</v>
-      </c>
-      <c r="AQ4">
-        <v>70</v>
-      </c>
-      <c r="AR4">
-        <v>70</v>
-      </c>
-      <c r="AS4">
-        <v>88</v>
-      </c>
-      <c r="AT4">
-        <v>135</v>
-      </c>
-      <c r="AU4">
-        <v>70</v>
-      </c>
-      <c r="AV4">
-        <v>140</v>
-      </c>
-      <c r="AW4">
+      <c r="CB4">
+        <v>121</v>
+      </c>
+      <c r="CC4">
         <v>74</v>
       </c>
-      <c r="AX4">
-        <v>136</v>
-      </c>
-      <c r="AY4">
-        <v>70</v>
-      </c>
-      <c r="AZ4">
-        <v>139</v>
-      </c>
-      <c r="BA4">
-        <v>70</v>
-      </c>
-      <c r="BB4">
-        <v>40</v>
-      </c>
-      <c r="BC4">
-        <v>40</v>
-      </c>
-      <c r="BD4">
-        <v>200</v>
-      </c>
-      <c r="BE4">
-        <v>100</v>
-      </c>
-      <c r="BF4">
-        <v>280</v>
-      </c>
-      <c r="BG4">
-        <v>158</v>
-      </c>
-      <c r="BH4">
-        <v>69</v>
-      </c>
-      <c r="BI4">
-        <v>121</v>
-      </c>
-      <c r="BJ4">
-        <v>70</v>
-      </c>
-      <c r="BK4">
-        <v>74</v>
-      </c>
-      <c r="BL4">
-        <v>74</v>
-      </c>
-      <c r="BM4">
-        <v>50</v>
-      </c>
-      <c r="BN4">
-        <v>59</v>
-      </c>
-      <c r="BO4">
+      <c r="CD4">
         <v>36</v>
       </c>
-      <c r="BP4">
-        <v>36</v>
-      </c>
-      <c r="BQ4">
-        <v>77</v>
-      </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="7:69" x14ac:dyDescent="0.25">
+    <row r="5" ht="18" customHeight="1" spans="7:82" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1.2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1.2</v>
+      </c>
+      <c r="Z5">
+        <v>0.7</v>
+      </c>
+      <c r="AA5">
         <v>0.5</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD5">
         <v>1</v>
       </c>
       <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
         <v>0</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
         <v>0.7</v>
-      </c>
-      <c r="AM5">
-        <v>0.5</v>
-      </c>
-      <c r="AN5">
-        <v>0.7</v>
-      </c>
-      <c r="AO5">
-        <v>0.7</v>
-      </c>
-      <c r="AP5">
-        <v>0.5</v>
-      </c>
-      <c r="AQ5">
-        <v>0.5</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
       </c>
       <c r="AZ5">
         <v>0.5</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -1829,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -1852,43 +1999,82 @@
       <c r="BQ5">
         <v>1</v>
       </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>0.5</v>
+      </c>
+      <c r="BU5">
+        <v>0.7</v>
+      </c>
+      <c r="BV5">
+        <v>0.5</v>
+      </c>
+      <c r="BW5">
+        <v>0.5</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>0.5</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+    <row r="6" ht="19.5" customHeight="1" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
         <v>0.8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>131</v>
+      <c r="G6" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="H6" s="4">
         <f>ROUND(MAX(LOG10(H4/7),$C$6)*H5,2)</f>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <f>ROUND(MAX(LOG10(I4/7),$C$6)*I5,2)</f>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <f>ROUND(MAX(LOG10(J4/7),$C$6)*J5,2)</f>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <f>ROUND(MAX(LOG10(K4/7),$C$6)*K5,2)</f>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <f>ROUND(MAX(LOG10(L4/7),$C$6)*L5,2)</f>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <f>ROUND(MAX(LOG10(M4/7),$C$6)*M5,2)</f>
       </c>
-      <c r="N6" s="8">
+      <c r="N6">
         <f>ROUND(MAX(LOG10(N4/7),$C$6)*N5,2)</f>
       </c>
-      <c r="O6" s="8">
+      <c r="O6">
         <f>ROUND(MAX(LOG10(O4/7),$C$6)*O5,2)</f>
       </c>
-      <c r="P6" s="8">
+      <c r="P6">
         <f>ROUND(MAX(LOG10(P4/7),$C$6)*P5,2)</f>
       </c>
       <c r="Q6">
@@ -2050,16 +2236,55 @@
       <c r="BQ6">
         <f>ROUND(MAX(LOG10(BQ4/7),$C$6)*BQ5,2)</f>
       </c>
-      <c r="BR6" t="s">
-        <v>132</v>
+      <c r="BR6">
+        <f>ROUND(MAX(LOG10(BR4/7),$C$6)*BR5,2)</f>
       </c>
       <c r="BS6">
-        <f>SUM(H6:BQ6)</f>
+        <f>ROUND(MAX(LOG10(BS4/7),$C$6)*BS5,2)</f>
+      </c>
+      <c r="BT6">
+        <f>ROUND(MAX(LOG10(BT4/7),$C$6)*BT5,2)</f>
+      </c>
+      <c r="BU6">
+        <f>ROUND(MAX(LOG10(BU4/7),$C$6)*BU5,2)</f>
+      </c>
+      <c r="BV6">
+        <f>ROUND(MAX(LOG10(BV4/7),$C$6)*BV5,2)</f>
+      </c>
+      <c r="BW6">
+        <f>ROUND(MAX(LOG10(BW4/7),$C$6)*BW5,2)</f>
+      </c>
+      <c r="BX6">
+        <f>ROUND(MAX(LOG10(BX4/7),$C$6)*BX5,2)</f>
+      </c>
+      <c r="BY6">
+        <f>ROUND(MAX(LOG10(BY4/7),$C$6)*BY5,2)</f>
+      </c>
+      <c r="BZ6">
+        <f>ROUND(MAX(LOG10(BZ4/7),$C$6)*BZ5,2)</f>
+      </c>
+      <c r="CA6">
+        <f>ROUND(MAX(LOG10(CA4/7),$C$6)*CA5,2)</f>
+      </c>
+      <c r="CB6">
+        <f>ROUND(MAX(LOG10(CB4/7),$C$6)*CB5,2)</f>
+      </c>
+      <c r="CC6">
+        <f>ROUND(MAX(LOG10(CC4/7),$C$6)*CC5,2)</f>
+      </c>
+      <c r="CD6">
+        <f>ROUND(MAX(LOG10(CD4/7),$C$6)*CD5,2)</f>
+      </c>
+      <c r="CE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="CF6">
+        <f>SUM(H6:CD6)</f>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="7:69" x14ac:dyDescent="0.25">
-      <c r="G7" s="3" t="s">
-        <v>133</v>
+    <row r="7" ht="21.75" customHeight="1" spans="7:82" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H7">
         <f>SUM(H9:H49)</f>
@@ -2079,13 +2304,13 @@
       <c r="M7">
         <f>SUM(M9:M49)</f>
       </c>
-      <c r="N7" s="9">
+      <c r="N7">
         <f>SUM(N9:N49)</f>
       </c>
-      <c r="O7" s="9">
+      <c r="O7">
         <f>SUM(O9:O49)</f>
       </c>
-      <c r="P7" s="9">
+      <c r="P7">
         <f>SUM(P9:P49)</f>
       </c>
       <c r="Q7">
@@ -2247,28 +2472,67 @@
       <c r="BQ7">
         <f>SUM(BQ9:BQ49)</f>
       </c>
+      <c r="BR7">
+        <f>SUM(BR9:BR49)</f>
+      </c>
+      <c r="BS7">
+        <f>SUM(BS9:BS49)</f>
+      </c>
+      <c r="BT7">
+        <f>SUM(BT9:BT49)</f>
+      </c>
+      <c r="BU7">
+        <f>SUM(BU9:BU49)</f>
+      </c>
+      <c r="BV7">
+        <f>SUM(BV9:BV49)</f>
+      </c>
+      <c r="BW7">
+        <f>SUM(BW9:BW49)</f>
+      </c>
+      <c r="BX7">
+        <f>SUM(BX9:BX49)</f>
+      </c>
+      <c r="BY7">
+        <f>SUM(BY9:BY49)</f>
+      </c>
+      <c r="BZ7">
+        <f>SUM(BZ9:BZ49)</f>
+      </c>
+      <c r="CA7">
+        <f>SUM(CA9:CA49)</f>
+      </c>
+      <c r="CB7">
+        <f>SUM(CB9:CB49)</f>
+      </c>
+      <c r="CC7">
+        <f>SUM(CC9:CC49)</f>
+      </c>
+      <c r="CD7">
+        <f>SUM(CD9:CD49)</f>
+      </c>
     </row>
-    <row r="8" ht="30.75" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="8" ht="30.75" customHeight="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>140</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="H8">
         <f>IF(H5&lt;&gt;0,H7-1,H7)</f>
@@ -2288,13 +2552,13 @@
       <c r="M8">
         <f>IF(M5&lt;&gt;0,M7-1,M7)</f>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <f>IF(N5&lt;&gt;0,N7-1,N7)</f>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <f>IF(O5&lt;&gt;0,O7-1,O7)</f>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <f>IF(P5&lt;&gt;0,P7-1,P7)</f>
       </c>
       <c r="Q8">
@@ -2456,83 +2720,113 @@
       <c r="BQ8">
         <f>IF(BQ5&lt;&gt;0,BQ7-1,BQ7)</f>
       </c>
+      <c r="BR8">
+        <f>IF(BR5&lt;&gt;0,BR7-1,BR7)</f>
+      </c>
+      <c r="BS8">
+        <f>IF(BS5&lt;&gt;0,BS7-1,BS7)</f>
+      </c>
+      <c r="BT8">
+        <f>IF(BT5&lt;&gt;0,BT7-1,BT7)</f>
+      </c>
+      <c r="BU8">
+        <f>IF(BU5&lt;&gt;0,BU7-1,BU7)</f>
+      </c>
+      <c r="BV8">
+        <f>IF(BV5&lt;&gt;0,BV7-1,BV7)</f>
+      </c>
+      <c r="BW8">
+        <f>IF(BW5&lt;&gt;0,BW7-1,BW7)</f>
+      </c>
+      <c r="BX8">
+        <f>IF(BX5&lt;&gt;0,BX7-1,BX7)</f>
+      </c>
+      <c r="BY8">
+        <f>IF(BY5&lt;&gt;0,BY7-1,BY7)</f>
+      </c>
+      <c r="BZ8">
+        <f>IF(BZ5&lt;&gt;0,BZ7-1,BZ7)</f>
+      </c>
+      <c r="CA8">
+        <f>IF(CA5&lt;&gt;0,CA7-1,CA7)</f>
+      </c>
+      <c r="CB8">
+        <f>IF(CB5&lt;&gt;0,CB7-1,CB7)</f>
+      </c>
+      <c r="CC8">
+        <f>IF(CC5&lt;&gt;0,CC7-1,CC7)</f>
+      </c>
+      <c r="CD8">
+        <f>IF(CD5&lt;&gt;0,CD7-1,CD7)</f>
+      </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>141</v>
+    <row r="9" ht="14.25" customHeight="1" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <f>ROUND(D9*$C$2,2)</f>
       </c>
-      <c r="F9" s="12">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H9:BQ9),2)</f>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="6">
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H9:CD9),2)</f>
+      </c>
+      <c r="G9" s="7">
         <f>F9-E9</f>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="AC9">
-        <v>0.5</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="BD9">
-        <v>0.6</v>
+      <c r="N9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
         <f>ROUND(D10*$C$2,2)</f>
       </c>
       <c r="F10">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H10:BQ10),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H10:CD10),2)</f>
       </c>
       <c r="G10">
         <f>F10-E10</f>
       </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Z10">
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>142</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2541,29 +2835,36 @@
         <f>ROUND(D11*$C$2,2)</f>
       </c>
       <c r="F11">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H11:BQ11),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H11:CD11),2)</f>
       </c>
       <c r="G11">
         <f>F11-E11</f>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
+      <c r="S11">
         <v>0.5</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="AQ11">
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>0.5</v>
+      </c>
+      <c r="BQ11">
+        <v>0.5</v>
+      </c>
+      <c r="BR11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2572,114 +2873,102 @@
         <f>ROUND(D12*$C$2,2)</f>
       </c>
       <c r="F12">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H12:BQ12),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H12:CD12),2)</f>
       </c>
       <c r="G12">
         <f>F12-E12</f>
       </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.6</v>
-      </c>
-      <c r="AM12">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>ROUND(D13*$C$2,2)</f>
       </c>
       <c r="F13">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H13:BQ13),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H13:CD13),2)</f>
       </c>
       <c r="G13">
         <f>F13-E13</f>
       </c>
-      <c r="AJ13">
-        <v>0.6</v>
-      </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
-      <c r="BB13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <f>ROUND(D14*$C$2,2)</f>
       </c>
       <c r="F14">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H14:BQ14),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H14:CD14),2)</f>
       </c>
       <c r="G14">
         <f>F14-E14</f>
       </c>
-      <c r="BF14">
-        <v>0.2</v>
-      </c>
-      <c r="BM14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f>ROUND(D15*$C$2,2)</f>
       </c>
       <c r="F15">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H15:BQ15),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H15:CD15),2)</f>
       </c>
       <c r="G15">
         <f>F15-E15</f>
       </c>
+      <c r="AJ15">
+        <v>0.5</v>
+      </c>
+      <c r="AK15">
+        <v>0.4</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2688,30 +2977,33 @@
         <f>ROUND(D16*$C$2,2)</f>
       </c>
       <c r="F16">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H16:BQ16),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H16:CD16),2)</f>
       </c>
       <c r="G16">
         <f>F16-E16</f>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <v>0.3</v>
+      <c r="V16">
+        <v>0.4</v>
+      </c>
+      <c r="AH16">
+        <v>0.6</v>
+      </c>
+      <c r="AP16">
+        <v>0.4</v>
       </c>
       <c r="AW16">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2720,27 +3012,33 @@
         <f>ROUND(D17*$C$2,2)</f>
       </c>
       <c r="F17">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H17:BQ17),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H17:CD17),2)</f>
       </c>
       <c r="G17">
         <f>F17-E17</f>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>0.4</v>
+      <c r="V17">
+        <v>0.8</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>0.8</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2749,27 +3047,36 @@
         <f>ROUND(D18*$C$2,2)</f>
       </c>
       <c r="F18">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H18:BQ18),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H18:CD18),2)</f>
       </c>
       <c r="G18">
         <f>F18-E18</f>
       </c>
-      <c r="AC18">
-        <v>0.5</v>
-      </c>
-      <c r="AI18">
+      <c r="V18">
+        <v>0.4</v>
+      </c>
+      <c r="AH18">
+        <v>0.4</v>
+      </c>
+      <c r="AW18">
+        <v>0.4</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="CB18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2778,27 +3085,30 @@
         <f>ROUND(D19*$C$2,2)</f>
       </c>
       <c r="F19">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H19:BQ19),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H19:CD19),2)</f>
       </c>
       <c r="G19">
         <f>F19-E19</f>
       </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="P19">
-        <v>0.2</v>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2807,27 +3117,24 @@
         <f>ROUND(D20*$C$2,2)</f>
       </c>
       <c r="F20">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H20:BQ20),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H20:CD20),2)</f>
       </c>
       <c r="G20">
         <f>F20-E20</f>
       </c>
-      <c r="AH20">
-        <v>0.4</v>
-      </c>
-      <c r="AK20">
+      <c r="BN20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2836,259 +3143,283 @@
         <f>ROUND(D21*$C$2,2)</f>
       </c>
       <c r="F21">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H21:BQ21),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H21:CD21),2)</f>
       </c>
       <c r="G21">
         <f>F21-E21</f>
       </c>
-      <c r="P21">
-        <v>0.8</v>
-      </c>
-      <c r="W21">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E22">
         <f>ROUND(D22*$C$2,2)</f>
       </c>
       <c r="F22">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H22:BQ22),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H22:CD22),2)</f>
       </c>
       <c r="G22">
         <f>F22-E22</f>
       </c>
-      <c r="M22">
+      <c r="U22">
         <v>0.5</v>
       </c>
-      <c r="BJ22">
-        <v>0.6</v>
+      <c r="AO22">
+        <v>0.7</v>
+      </c>
+      <c r="BL22">
+        <v>0.4</v>
+      </c>
+      <c r="BP22">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
         <f>ROUND(D23*$C$2,2)</f>
       </c>
       <c r="F23">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H23:BQ23),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H23:CD23),2)</f>
       </c>
       <c r="G23">
         <f>F23-E23</f>
       </c>
-      <c r="K23">
-        <v>0.7</v>
-      </c>
-      <c r="R23">
+      <c r="I23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24">
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
       </c>
       <c r="E24">
         <f>ROUND(D24*$C$2,2)</f>
       </c>
       <c r="F24">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H24:BQ24),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H24:CD24),2)</f>
       </c>
       <c r="G24">
         <f>F24-E24</f>
       </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D25">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="E25">
         <f>ROUND(D25*$C$2,2)</f>
       </c>
       <c r="F25">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H25:BQ25),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H25:CD25),2)</f>
       </c>
       <c r="G25">
         <f>F25-E25</f>
       </c>
-      <c r="Q25">
+      <c r="U25">
         <v>0.5</v>
       </c>
       <c r="AA25">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>0.5</v>
+      </c>
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>ROUND(D26*$C$2,2)</f>
       </c>
       <c r="F26">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H26:BQ26),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H26:CD26),2)</f>
       </c>
       <c r="G26">
         <f>F26-E26</f>
       </c>
-      <c r="N26">
-        <v>0.6</v>
-      </c>
-      <c r="AM26">
-        <v>0.5</v>
-      </c>
-      <c r="AW26">
-        <v>0.4</v>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0.8</v>
+      </c>
+      <c r="AY26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
+        <v>0.8</v>
+      </c>
+      <c r="BT26">
+        <v>3</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f>ROUND(D27*$C$2,2)</f>
       </c>
       <c r="F27">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H27:BQ27),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H27:CD27),2)</f>
       </c>
       <c r="G27">
         <f>F27-E27</f>
       </c>
-      <c r="AO27">
-        <v>0.2</v>
-      </c>
-      <c r="AT27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E28">
         <f>ROUND(D28*$C$2,2)</f>
       </c>
       <c r="F28">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H28:BQ28),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H28:CD28),2)</f>
       </c>
       <c r="G28">
         <f>F28-E28</f>
       </c>
+      <c r="AI28">
+        <v>0.4</v>
+      </c>
+      <c r="BG28">
+        <v>0.4</v>
+      </c>
+      <c r="CA28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
         <f>ROUND(D29*$C$2,2)</f>
       </c>
       <c r="F29">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H29:BQ29),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H29:CD29),2)</f>
       </c>
       <c r="G29">
         <f>F29-E29</f>
       </c>
-      <c r="BA29">
+      <c r="AD29">
+        <v>0.3</v>
+      </c>
+      <c r="BC29">
         <v>0.4</v>
       </c>
-      <c r="BI29">
-        <v>1</v>
-      </c>
-      <c r="BK29">
-        <v>1</v>
-      </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3097,82 +3428,97 @@
         <f>ROUND(D30*$C$2,2)</f>
       </c>
       <c r="F30">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H30:BQ30),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H30:CD30),2)</f>
       </c>
       <c r="G30">
         <f>F30-E30</f>
       </c>
-      <c r="AG30">
-        <v>1</v>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0.3</v>
+      </c>
+      <c r="AW30">
+        <v>0.3</v>
+      </c>
+      <c r="BF30">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D31">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f>ROUND(D31*$C$2,2)</f>
       </c>
       <c r="F31">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H31:BQ31),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H31:CD31),2)</f>
       </c>
       <c r="G31">
         <f>F31-E31</f>
       </c>
-      <c r="BE31">
-        <v>0.4</v>
-      </c>
-      <c r="BF31">
-        <v>0.4</v>
-      </c>
-      <c r="BH31">
-        <v>0.4</v>
+      <c r="AJ31">
+        <v>0.5</v>
+      </c>
+      <c r="CC31">
+        <v>1</v>
+      </c>
+      <c r="CD31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E32">
         <f>ROUND(D32*$C$2,2)</f>
       </c>
       <c r="F32">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H32:BQ32),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H32:CD32),2)</f>
       </c>
       <c r="G32">
         <f>F32-E32</f>
       </c>
-      <c r="J32">
-        <v>0.9</v>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3181,7 +3527,7 @@
         <f>ROUND(D33*$C$2,2)</f>
       </c>
       <c r="F33">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H33:BQ33),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H33:CD33),2)</f>
       </c>
       <c r="G33">
         <f>F33-E33</f>
@@ -3189,22 +3535,22 @@
       <c r="H33">
         <v>0.5</v>
       </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="AZ33">
-        <v>1</v>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3213,33 +3559,33 @@
         <f>ROUND(D34*$C$2,2)</f>
       </c>
       <c r="F34">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H34:BQ34),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H34:CD34),2)</f>
       </c>
       <c r="G34">
         <f>F34-E34</f>
       </c>
-      <c r="BG34">
-        <v>0.5</v>
-      </c>
-      <c r="BJ34">
-        <v>0.4</v>
-      </c>
-      <c r="BN34">
-        <v>1</v>
-      </c>
-      <c r="BP34">
+      <c r="H34">
+        <v>0.6</v>
+      </c>
+      <c r="J34">
+        <v>0.6</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="BE34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3248,30 +3594,39 @@
         <f>ROUND(D35*$C$2,2)</f>
       </c>
       <c r="F35">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H35:BQ35),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H35:CD35),2)</f>
       </c>
       <c r="G35">
         <f>F35-E35</f>
       </c>
-      <c r="J35">
+      <c r="Z35">
+        <v>0.5</v>
+      </c>
+      <c r="AB35">
         <v>0.2</v>
       </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AS35">
-        <v>0.7</v>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AT35">
+        <v>0.6</v>
+      </c>
+      <c r="AZ35">
+        <v>0.5</v>
+      </c>
+      <c r="BA35">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36">
         <v>0.8</v>
@@ -3280,30 +3635,36 @@
         <f>ROUND(D36*$C$2,2)</f>
       </c>
       <c r="F36">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H36:BQ36),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H36:CD36),2)</f>
       </c>
       <c r="G36">
         <f>F36-E36</f>
       </c>
-      <c r="BE36">
+      <c r="Z36">
+        <v>0.5</v>
+      </c>
+      <c r="AI36">
+        <v>0.4</v>
+      </c>
+      <c r="AZ36">
+        <v>0.5</v>
+      </c>
+      <c r="BG36">
         <v>0.6</v>
       </c>
-      <c r="BF36">
-        <v>0.4</v>
-      </c>
-      <c r="BH36">
+      <c r="CA36">
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3312,56 +3673,56 @@
         <f>ROUND(D37*$C$2,2)</f>
       </c>
       <c r="F37">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H37:BQ37),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H37:CD37),2)</f>
       </c>
       <c r="G37">
         <f>F37-E37</f>
       </c>
+      <c r="X37">
+        <v>0.6</v>
+      </c>
       <c r="AF37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38">
         <f>ROUND(D38*$C$2,2)</f>
       </c>
       <c r="F38">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H38:BQ38),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H38:CD38),2)</f>
       </c>
       <c r="G38">
         <f>F38-E38</f>
       </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="AV38">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3370,56 +3731,65 @@
         <f>ROUND(D39*$C$2,2)</f>
       </c>
       <c r="F39">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H39:BQ39),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H39:CD39),2)</f>
       </c>
       <c r="G39">
         <f>F39-E39</f>
       </c>
-      <c r="BG39">
-        <v>0.5</v>
-      </c>
-      <c r="BL39">
-        <v>1</v>
-      </c>
-      <c r="BO39">
+      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="BZ39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <f>ROUND(D40*$C$2,2)</f>
       </c>
       <c r="F40">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H40:BQ40),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H40:CD40),2)</f>
       </c>
       <c r="G40">
         <f>F40-E40</f>
       </c>
-      <c r="AR40">
-        <v>0.3</v>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0.4</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3428,59 +3798,59 @@
         <f>ROUND(D41*$C$2,2)</f>
       </c>
       <c r="F41">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H41:BQ41),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H41:CD41),2)</f>
       </c>
       <c r="G41">
         <f>F41-E41</f>
       </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
+      <c r="M41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f>ROUND(D42*$C$2,2)</f>
       </c>
       <c r="F42">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H42:BQ42),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H42:CD42),2)</f>
       </c>
       <c r="G42">
         <f>F42-E42</f>
       </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0.8</v>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="BV42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3489,30 +3859,27 @@
         <f>ROUND(D43*$C$2,2)</f>
       </c>
       <c r="F43">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H43:BQ43),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H43:CD43),2)</f>
       </c>
       <c r="G43">
         <f>F43-E43</f>
       </c>
-      <c r="N43">
+      <c r="AP43">
+        <v>0.6</v>
+      </c>
+      <c r="BY43">
         <v>0.4</v>
       </c>
-      <c r="AH43">
-        <v>0.8</v>
-      </c>
-      <c r="BA43">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3521,73 +3888,100 @@
         <f>ROUND(D44*$C$2,2)</f>
       </c>
       <c r="F44">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H44:BQ44),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H44:CD44),2)</f>
       </c>
       <c r="G44">
         <f>F44-E44</f>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="BC44">
-        <v>1</v>
+      <c r="I44">
+        <v>0.2</v>
+      </c>
+      <c r="Z44">
+        <v>0.5</v>
+      </c>
+      <c r="AZ44">
+        <v>0.5</v>
+      </c>
+      <c r="BO44">
+        <v>1</v>
+      </c>
+      <c r="BX44">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f>ROUND(D45*$C$2,2)</f>
       </c>
       <c r="F45">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H45:BQ45),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H45:CD45),2)</f>
       </c>
       <c r="G45">
         <f>F45-E45</f>
       </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0.5</v>
+      </c>
+      <c r="AZ45">
+        <v>0.5</v>
+      </c>
+      <c r="BX45">
+        <v>0.3</v>
+      </c>
+      <c r="BY45">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <f>ROUND(D46*$C$2,2)</f>
       </c>
       <c r="F46">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H46:BQ46),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H46:CD46),2)</f>
       </c>
       <c r="G46">
         <f>F46-E46</f>
       </c>
+      <c r="BJ46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3596,975 +3990,115 @@
         <f>ROUND(D47*$C$2,2)</f>
       </c>
       <c r="F47">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H47:BQ47),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H47:CD47),2)</f>
       </c>
       <c r="G47">
         <f>F47-E47</f>
       </c>
-      <c r="K47">
-        <v>0.4</v>
-      </c>
-      <c r="R47">
+      <c r="M47">
         <v>0.5</v>
       </c>
-      <c r="AR47">
-        <v>0.7</v>
+      <c r="AK47">
+        <v>0.6</v>
+      </c>
+      <c r="AV47">
+        <v>0.5</v>
+      </c>
+      <c r="BQ47">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <f>ROUND(D48*$C$2,2)</f>
       </c>
       <c r="F48">
-        <f>ROUND(SUMPRODUCT(H$6:BQ$6,H48:BQ48),2)</f>
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H48:CD48),2)</f>
       </c>
       <c r="G48">
         <f>F48-E48</f>
       </c>
+      <c r="H48">
+        <v>0.4</v>
+      </c>
+      <c r="J48">
+        <v>0.4</v>
+      </c>
+      <c r="AI48">
+        <v>0.2</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50">
-        <f>SUM(D9:D49)</f>
+    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>ROUND(D49*$C$2,2)</f>
+      </c>
+      <c r="F49">
+        <f>ROUND(SUMPRODUCT(H$6:CD$6,H49:CD49),2)</f>
+      </c>
+      <c r="G49">
+        <f>F49-E49</f>
+      </c>
+      <c r="AD49">
+        <v>0.7</v>
+      </c>
+      <c r="AO49">
+        <v>0.4</v>
+      </c>
+      <c r="BC49">
+        <v>0.6</v>
+      </c>
+      <c r="BL49">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="8:73" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51">
+        <f>SUM(D9:D50)</f>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="A8:H8 G1:G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="formula" val="-1.5"/>
+        <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1.5"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FFC0504D"/>
+        <color rgb="FFFFFFFF"/>
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
